--- a/deuChatbot/research_result/version_2(3000_200).xlsx
+++ b/deuChatbot/research_result/version_2(3000_200).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13882,6 +13882,7288 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있지만, '사고의 전환'의 배점이 300점(30%)으로 잘못 기재되어 있습니다. 원본 텍스트에서는 '사고의 전환'의 배점이 명시되어 있지 않으므로, 이 부분은 정확하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일치하지만, 배점 부분에서 불일치가 발생하여 일관성이 떨어집니다. '사고의 전환'의 배점이 언급되지 않았기 때문에, 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 실기시험에 대한 중요한 요소들을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 배점 부분의 불일치로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, '사고의 전환'의 배점이 잘못 기재되어 있어 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 배점의 불일치로 인해 일부 차질이 발생했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 배점의 잘못된 기재로 인해 의미 전달에 약간의 혼란이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성에는 다소 부족함이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.8187730475009382</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 다음과 같이 구성되어 있습니다:
+1. 종목:
+   - 기초디자인
+   - 사고의 전환
+2. 배점 및 비율:
+   - 기초디자인: 700점 (70%)
+   - 사고의 전환: 300점 (30%)
+3. 준비물:
+   볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+4. 실기주제 및 조건:
+   - 주제A와 주제B 각각에서 1개를 선택하여 연결된 주제로 당일 추첨
+   - 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+   - 제공된 사물과 이미지 이외의 형상 표현 금지
+   - 제공된 사물 색상 변경 금지
+5. 화지 크기:
+   켄트지 3절 (기초디자인) / 켄트지 2절 (사고의 전환)
+6. 시간: 
+   5시간
+이 시험은 학생들의 창의적 사고력과 표현 능력을 평가하기 위해 기초적인 디자인 기술을 요구하며, 다양한 주제를 통해 독창적인 아이디어와 표현 방식을 검토합니다.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 잘 전달하고 있으나, 실기종목의 선택 과정에 대한 세부사항이 누락되어 있어 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있으며, 실기종목과 준비물에 대한 정보가 잘 연결되어 있습니다. 그러나 실기주제의 예시가 두 가지 모두 포함되지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기시험에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 흐름을 가지고 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, 실기주제의 예시가 두 가지 모두 포함되지 않아 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 실기주제의 예시가 완전하지 않아 정확성에 약간의 결함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 일부 세부사항의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.883485904376838</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 다음과 같습니다:
+1. **실기종목**: 기초디자인, 사고의 전환 중 하나를 선택합니다.
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제 A와 주제 B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+   (예시: 잠자리와 저울, 콜라병과 계절 등)
+4. **화지크기**: 켄트지3절
+5. **시간**: 5시간
+이 정보는 디자인조형학과의 실기시험에 대한 기본적인 준비를 위한 안내입니다.</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.9340070709263066</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 대한 정보는 다음과 같습니다:
+배드민턴(남)의 경우:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회 
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)의 경우:
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전
+이러한 대회들 중에서 해당 종목과 관련된 대회만 인정받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제A와 주제B의 항목을 모두 포함하고 있습니다. 또한, 시험 당일의 절차에 대한 설명도 정확합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 내용을 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.9208367182935047</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다.
+주제A는 다음과 같습니다:
+- 잠자리
+- 무궁화  
+- 피망
+- 고양이
+- 양파
+- 달팽이
+- 오렌지
+주제B는 다음과 같습니다:
+- 악보
+- 줄자
+- 스카치테이프
+- 자물쇠
+- 반코팅장갑
+- 저울
+- 얼음
+당일에는 이 중에서 주제A와 주제B 각각을 한 개씩 추첨하여 연결된 주제를 결정합니다. 예시로는 "잠자리와 저울"과 같은 연결된 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 잘못 해석하고 있으며, 출결 기록이 0%라는 잘못된 정보를 포함하고 있습니다. 원문과는 전혀 다른 내용을 담고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다. 원문에서는 출결 점수가 반영되지 않는다고 명확히 언급하고 있지만, 생성된 응답은 출결 기록이 0%라고 하여 혼란을 초래합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 출결 점수에 대한 질문에 대한 답변을 시도하고 있지만, 내용이 원문과 관련이 없고 잘못된 정보를 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 구성되어 있으나, 내용의 부정확성으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원문과의 연결이 부족하여 일관된 논리적 흐름이 결여되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 완전히 다르며, 출결 점수가 반영되지 않는다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 문맥에 맞지 않는 정보를 제공합니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래하여 이해하기 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.453037754718676</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>一般来说，在学生部综合（平生学习者/成人学習者/在职者）和学生部教科（农渔村学生）的招生中，出勤记录不会单独作为评分因素进行考量。具体来说：
+- 在**学生部综合（平生学习者/成人学習者/在职者）**的招生中：
+  - 出勤记录占0%。
+- 在**学生部教科（农渔村学生）**的招生中：
+  - 同样出勤记录也占0%。
+因此，根据提供的信息，在这些类型的招生中，出勤记录并不会直接影响评分。如果有其他特殊情况或变化，请参考学校官方发布的最新通知或直接访问其官网获取最准确的信息：https://ipsi.deu.ac.kr/main.do。</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 모집 인원 수(17명)와 전형(가군 일반학생 전형)에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "교직"이라는 추가 정보는 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 정보를 포함하고 있지만, "교직"이라는 추가 정보로 인해 일관성이 떨어질 수 있습니다. 원본 텍스트에는 이 정보가 없기 때문에 약간의 불일치가 발생합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 있으며, 모집 인원과 전형에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며 읽기 쉽습니다. 그러나 "교직"이라는 단어가 추가되어 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 "교직"이라는 추가 정보가 원본 텍스트와의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 모집 인원과 전형에 대한 정보는 정확하지만, "교직"이라는 추가 정보는 원본 텍스트에 포함되어 있지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 주요 정보는 정확하고 관련성이 높습니다. 그러나 "교직"이라는 추가 정보로 인해 약간의 일관성과 정확성이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, "교직"이라는 단어가 원본 텍스트의 맥락과 완전히 일치하지 않아 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, "교직"이라는 추가 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.9135223525526952</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과 - 교직에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 28명을 정확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보(영어영문학과 - 교직)도 원본의 내용을 보완하는 형태로 제공되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련된 추가 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.6279775970447692</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다. 
+인문사회과학대학의 계열은 인문사회이며, 모집단위는 영어영문학과 - 교직이고, 해당 모집단위의 모집인원은 28명입니다.</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 모집 인원인 22명을 정확하게 반영하고 있으며, 사실적으로 정확합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 일치하며, 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요구하는 정보와 직접적으로 관련이 있으며, 주제를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 일관되며, 원문과 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 완전히 일치하며, 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수하게 수행하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.3841551063676197</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>22명이 모집됩니다.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, "등급 1 :"과 같은 표현에서 공백이 불필요하게 포함되어 있어 약간의 어색함이 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 작성되었습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.9478527570388584</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서의 주장을 완전히 반박하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있으며, 주제에 적합한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 상반된 주장으로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 다르며, 원문에서 명시된 내용을 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 매우 낮은 점수를 받았지만, 관련성 및 유창성에서 어느 정도 점수를 얻었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.7266184075431468</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예, 예술고 학생도 나군 학생부교과 농어촌학생전형으로 지원할 수 있습니다. 
+관련 정보:
+- 고교유형별 지원자격에서 모집군은 나군이며, 전형명은 학생부교과(농어촌학생전형)입니다.
+- 이 항목에서는 예술고를 포함하여 특수목적고의 모든 종류가 지원 가능하다는 내용이 있습니다.
+따라서 예술고 학생도 해당 전형으로 지원할 수 있습니다. 다만, 지원 자격 요건을 충족해야 하며, 특히 농어촌 지역에 거주한 경험이 있어야 합니다.</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 기록(218~221 cm)과 배점(275점)과 완전히 다릅니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 기록과 배점이 모두 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 주제와 관련이 있으며, 레저스포츠학과 여자 제자리 멀리뛰기 4등급에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본과의 불일치로 인해 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르기 때문에 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성과 일관성이 매우 낮고 정확성도 떨어지지만, 관련성과 유창성은 상대적으로 높습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 관련된 내용을 다루고 있지만, 제공된 정보가 사실과 다르기 때문에 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.8918695120215934</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 277~280cm이며, 배점은 325점입니다.
+이 정보는 다음과 같은 테이블에서 추출되었습니다:
+| 등급 | 남은 거리 (cm) | 여은 거리 (cm) | 배점 |
+|------|----------------|----------------|-----|
+| 4    | 277~280        | 223~226        | 325 |
+따라서, 레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 277cm 이상에서 280cm 미만까지이며, 배점은 325점입니다.</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 출결 반영 비율에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.6615642793111458</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서는 학생부 종합 평가에서 출결 항목이 반영되며, 출결의 반영 비율은 12%입니다.
+상세 내용을 요약하면:
+- 전형 유형: 학생부종합(경기실적우수자전형)
+- 모집단위: 경기지도학과
+- 출결 반영 비율: 12%
+이 정보는 주요 변경사항에서 확인할 수 있으며, 이전의 전형 요소 반영 비율과 비교하여 출결 항목이 추가되어 12%로 조정되었습니다.</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 학과 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.8606475420544653</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다. 
+이 정보는 다음과 같은 문단에서 얻었습니다:
+"가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원에서 인문사회과학대학은 상경대학이며, 계열은 공학이며, 모집단위은 물리치료학과이며, 모집인원은 4이다."</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜와 요일을 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.547688296604983</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다.</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 "제공된 자료에서 확인할 수 없습니다"라는 표현은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 수능 최저 기준이 없다는 점에서 일관성을 유지하고 있지만, "일반적으로 수능 최저기준은 각 학과별로 다르게 설정된다"는 정보는 주어진 자료와 직접적으로 일치하지 않으므로 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 핵심인 수능 최저 기준에 대한 정보를 직접적으로 다루고 있으며, 관련된 추가 정보도 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 문법적으로 올바르며 읽기 쉽지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 약간의 중복이 있어 더 간결하게 표현될 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 최저 기준이 없다는 사실을 정확하게 반영하고 있으며, 다른 학과의 기준에 대한 언급도 적절합니다. 그러나 "제공된 자료에서 확인할 수 없다"는 표현이 다소 애매할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 강점을 보입니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주어진 자료의 의미와 맥락에 적절하게 부합하지만, 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.4982289202149475</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준 정보는 제공된 자료에서 확인할 수 없습니다. 하지만, 일반적으로 수능 최저기준은 각 학과별로 다르게 설정되며, 해당 대학교 홈페이지나 입학처 공지사항을 통해 정확한 정보를 얻을 수 있습니다.
+제공된 자료에서는 다른 학과의 수능 최저기준이나 관련 정보가 포함되어 있지만, 응용화학과에 대한 명시적인 수능 최저기준은 없습니다. 추후 동의대학교 입학처 웹사이트나 공식 안내서를 확인하시거나, 직접 문의하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "심리학과"와 "스마트항만물류학부"만 언급하고 있으며, 나머지 신설된 학과들(창업투자경영학과, 라이프융합학부, 경기지도학과)을 누락했습니다. 또한 "스마트항만물류학부"라는 표현은 원문에서 "스마트항만물류학과"로 되어 있어 정확한 명칭이 아닙니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 언급된 모든 학과를 포함하지 않기 때문에 일관성이 부족합니다. 원문에 있는 다른 학과들에 대한 정보가 전혀 제공되지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 정보를 제공하고 있으나, 모든 학과를 포함하지 않기 때문에 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과에 대한 설명이 명확하게 연결되어 있습니다. 그러나 모든 학과를 포함하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 신설된 학과의 일부만 언급하고 있으며, 정확한 학과 명칭을 사용하지 않았습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성과 일관성에서 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 모든 학과를 포함하지 않기 때문에 의미의 완전성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 모든 정보를 포함하지 않아 완전한 이해를 제공하지는 않습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.649963718760787</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 "심리학과"와 "스마트항만물류학부"가 있습니다. 
+- 심리학과는 나군 전형에서 신설되었습니다.
+- 스마트항만물류학부는 다군 전형에서 신설되었습니다.
+이 두 학과 모두 2024학년도부터 처음으로 모집을 시작하게 되었습니다.</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 정보와 일치하며, 전형요소 반영비율에 대한 정확한 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 전형요소 반영비율에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 전형요소 반영비율에 대한 추가적인 설명을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하며, 추가적인 설명이 의미를 잘 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.7512353015782177</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 평가 영역: 70%
+- 면접 평가 영역: 30%
+이 비율은 지원자의 학교생활기록부와 면접 성적을 각각 주요하게 고려하여 전반적인 적합성을 판단하는 기준입니다.</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과와 관련된 정보를 정확하게 전달하고 있습니다. 그러나 "다른 학과에서는 이러한 가산점이 적용되지 않습니다."라는 문장은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 대체로 일치하지만, "다른 학과에서는 이러한 가산점이 적용되지 않습니다."라는 추가 정보는 원문에 포함되어 있지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 수능 가산점 적용 학과에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 원문에 없는 정보를 포함하고 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞지만, 추가된 정보가 원문과의 의미적 일치를 약간 해치는 경향이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.8015304896386268</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 특정 학과에 대해 수능 가산점을 적용합니다. 특히, 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여하는 학과는 다음과 같습니다:
+- 의료·보건·생활대학
+- 공과대학 
+- ICT융합공과대학
+따라서, 이 세 대학에서 수학(미적분 또는 기하)을 응시한 지원자는 수학 표준점수에 10%의 가산점을 받게 됩니다. 다른 학과에서는 이러한 가산점이 적용되지 않습니다.
+참고로, 일반적으로 대부분의 학과는 수능 성적만을 기준으로 하며 추가적인 가산점은 제한적입니다.</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 성적 반영 비율에 대한 구체적인 정보를 제공하지만, 원본 텍스트에서 언급된 "100% 반영"이라는 핵심 사실을 왜곡하고 있습니다. 또한, 가산점에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보(예: 수능 영역별 반영 비율 및 가산점)를 포함하고 있어 일관성이 부족합니다. 원본 텍스트의 내용과 상충하는 부분이 많습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하므로 관련성이 높지만, 원본 텍스트의 핵심 내용인 "100% 반영"이라는 점을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 특히 수능 성적 반영 비율에 대한 정보가 잘못되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으므로 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 핵심 내용을 잘못 해석하고 있어 의미적 적합성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.7391120255184073</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군(일반학생전형)에서는 수능 성적이 다음과 같이 반영됩니다:
+1. **모집단위**: 전 모집단위 (레저스포츠학과, 태권도학과 제외)
+2. **수능 영역별 반영 비율**:
+   - 국어: 25%
+   - 수학: 25%
+   - 영어: 25%
+   - 탐구(사회탐구 또는 과학탐구 중 2개 과목): 25%
+3. **가산점**: 
+   - 수능 수학(미적분 또는 기하) 응시자는 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+4. **합계**:
+   - 국어 + 수학 + 영어 + 탐구 (가산점 포함) 표준 변환 점수 합이 반영됩니다.
+따라서, 각 모집단위별로 국어, 수학, 영어, 그리고 선택한 2개의 탐구 과목의 성적이 25%씩 반영되며, 수학(미적분 또는 기하) 응시자는 추가 가산점이 부여됩니다.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기고사 일정에 대한 정보를 제공하고 있으며, 레저스포츠학과와 태권도학과의 실기고사는 2024년 1월 16일에 진행된다고 정확히 언급하고 있습니다. 그러나 디자인조형학과와 체육학과의 일정에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 일부 정보가 추가되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 추가적인 세부사항을 제공하고 있지만, 원본 텍스트와의 일관성에서 약간의 차이가 있습니다. 원본 텍스트는 가군 실기고사 일정에 대한 간단한 정보만을 제공하는 반면, 생성된 응답은 여러 학과의 일정을 포함하고 있어 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 실기고사 일정에 대한 구체적인 내용을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 문장 길이가 길어질 수 있어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 일정이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 그러나 원본 텍스트에 포함되지 않은 정보가 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 추가된 정보도 적절하게 연결되어 있습니다. 다만, 원본 텍스트의 간결함과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.6630319835951481</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같이 일정이 정해져 있습니다:
+- **레저스포츠학과, 태권도학과**:
+  - **일정**: 2024. 01. 16.(화)
+  - **비고**: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.
+- **디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과**:
+  - **일정**: 2024. 01. 17.(수)
+  - **비고**: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.
+따라서, 레저스포츠학과와 태권도학과의 실기고사는 2024년 1월 16일 화요일에, 디자인조형학과와 체육학과의 실기고사는 2024년 1월 17일 수요일에 각각 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3  
+   - 설명: 생성된 응답은 디자인조형학과와 체육학과가 실기/실적 위주로 평가받는다고 언급하고 있지만, 원문에서는 이 두 학과가 제외된다고 명시하고 있습니다. 따라서, 이 부분에서 사실과 다소 일치하지 않으며, 정확한 정보가 부족합니다.
+2. Consistency Score (1-5): 3  
+   - 설명: 생성된 응답은 디자인조형학과와 체육학과가 제외된다고 결론짓고 있지만, 그 과정에서 이 두 학과가 실기 위주로 평가받는다고 설명하고 있어 일관성이 떨어집니다. 원문과의 일관성이 부족합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원문에서 언급된 학과들이 제외되는 이유에 대해 설명하고 있으므로 관련성이 높습니다. 그러나 원문에서 명확히 제외된 학과 목록을 제시하고 있지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 설명이 일관되게 이어집니다. 그러나 원문과의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3  
+   - 설명: 생성된 응답은 디자인조형학과와 체육학과가 실기 위주로 평가받는다고 언급하고 있지만, 원문에서는 이 두 학과가 제외된다고 명시하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부는 잘 수행했지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 의미와 다소 다르게 해석될 수 있는 부분이 있어 의미적으로 적절하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 그러나 일부 내용이 원문과의 연결이 약해 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.7308420297440531</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 디자인조형학과와 체육학과는 실기/실적 위주로 평가받으므로, 이 두 모집단위는 전형요소 반영비율에서 실기 70%, 수능 30%의 비율을 갖습니다. 
+다른 모든 모집단위는 나군 수능(일반학생전형)에서 수능 위주로 평가받으며, 이 경우 수능 100%의 비율을 갖습니다.
+따라서, 디자인조형학과와 체육학과는 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+2. Consistency Score (1-5): 5
+3. Relevance Score (1-5): 5
+4. Fluency Score (1-5): 5
+5. Coherence Score (1-5): 5
+6. Accuracy Score (1-5): 5
+7. Multidimensional Quality Score (1-5): 5
+8. Semantic Appropriateness Score (1-5): 5
+9. Understandability Score (1-5): 5
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.8773110568819568</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 전형요소 반영비율에서 수능 최저기준 항목에 "수능최저기준 없음"이라고 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학과의 분리 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있어 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미 전달이 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬워, 독자가 내용을 쉽게 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.8750248558171637</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과 (이전에는 모집중지)
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이러한 변경사항은 2024학년도부터 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일이 2024년 1월 6일(토) 18시라는 사실을 정확하게 반영하고 있습니다. 그러나 원서 접수 시작일인 2024년 1월 3일(수)에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분은 추가된 정보로 간주되어 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 원서접수 마감일을 언급하고 있습니다. 그러나 원서 접수 시작일에 대한 정보가 추가되어 있어, 원본 텍스트와의 일관성에서 약간의 차이가 발생합니다. 따라서 점수를 4로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용인 원서접수 마감일에 직접적으로 관련된 정보를 제공합니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 점수를 5로 평가합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원서접수 마감일에 대한 정보가 명확하게 전달됩니다. 따라서 점수를 5로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 원서접수 마감일에 대한 정보는 정확하지만, 시작일에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 원본 텍스트와의 일관성 및 정확성에서 약간의 차이가 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달합니다. 따라서 점수를 5로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 따라서 점수를 5로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.7737381941413003</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서 접수는 2024. 01. 03.(수)부터 2024. 01. 06.(토)까지 18시까지 마감됩니다.
+따라서 원서접수 마감일은 2024년 1월 6일(토) 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전형 요소 변화에 대한 구체적인 내용을 잘못 전달하고 있으며, 원본 텍스트의 주요 내용을 반영하지 못하고 있습니다. 예를 들어, '공동체역량'으로의 변경은 원본 텍스트에 명시되어 있지 않으며, 전형의 세부 사항이 잘못 기재되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트에서 제시된 전형 요소 변화와는 다른 내용이 포함되어 있어, 서로 상충하는 정보가 존재합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 전형 요소 변화에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용과는 다소 동떨어진 정보가 포함되어 있습니다. 따라서 관련성은 있지만, 원본의 주요 포인트를 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어, 간결함이 부족할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 일관된 구조를 가지고 있으나, 원본 텍스트와의 연결성이 떨어져서 논리적인 흐름이 약간 부족합니다. 각 항목 간의 연결이 매끄럽지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히 전형의 세부 사항과 평가 기준에 대한 설명이 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성 모두 부족하여 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있으나, 원본 텍스트의 맥락과는 맞지 않는 내용이 포함되어 있어 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.6790561491731134</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요한 전형 요소 변화는 다음과 같습니다:
+1. **학생부종합(조기취업형계약학과전형) - 정원외 서류평가 영역 및 배점**:
+   - 평가영역이 '공동체역량'으로 변경되었으며, 등급별 점수와 평가자도 변경되었습니다.
+2. **학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 서류평가 영역 및 배점**:
+   - 평가영역이 '공동체역량'으로 변경되었으며, 등급별 점수와 평가자도 변경되었습니다.
+3. **학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 면접평가 영역 및 배점**:
+   - 학업역량의 등급별 점수와 평가자 변경.
+4. **학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 면접평가 질문 공통문항**:
+   - 지원동기 및 학업계획, 학업역량, 전공적합성 관련 질문이 추가되었습니다.
+5. **학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 면접평가의 부정적 사례**:
+   - 제출서류의 허위사실에 대한 추가 사례가 포함되었습니다.
+6. **학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 동점자 처리기준**:
+   - 순위와 동점자 처리 기준이 변경되었습니다.
+7. **학생부교과(농어촌학생전형) - 정원외 지원자격**:
+   - 6년 과정의 지원 자격 조건이 추가되었습니다.
+8. **학생부종합(조기취업형계약학과전형) - 정원외 모집단위 및 모집인원**:
+   - 새로운 모집단위와 모집 인원이 추가되었습니다 (예: 스마트호스피탈리티학과, 미래형자동차학과 등).
+9. **학생부종합(조기취업형계약학과전형) - 정원외 전형요소 반영비율**:
+   - 특정 모집단위의 서류와 면접 평가 비율이 변경되었습니다.
+10. **학생부종합(조기취업형계약학과전형) - 정원외 제출서류**:
+    - 6년 과정 지원 자격에 따른 추가 서류 요구사항이 포함되었습니다.
+이러한 변화들은 전반적으로 평가 기준을 더 구체화하고, 다양한 측면에서 지원자의 능력을 종합적으로 평가하려는 방향으로 조정된 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 실기 비중이 70%라는 사실을 명확히 전달하고 있습니다. 추가적인 정보도 제공되어 있어 사실성을 높이고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 실기 비중에 대한 정보가 일관되게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기 비중에 대한 질문에 대한 직접적인 답변을 제공합니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 전반적으로 유창하게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적인 흐름이 잘 유지되고 있으며, 각 정보가 자연스럽게 연결되어 있습니다. 전체적으로 일관된 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.8094257396624002</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이 정보는 "전형요소 반영비율" 섹션에서 확인할 수 있습니다. 해당 내용에서는:
+- 전형명: 가군 실기/실적(일반학생전형)
+- 모집단위: 레저스포츠학과, 태권도학과
+- 모집인원: 11명
+- 전형요소 반영비율:
+  - 학생부 교과: 0%
+  - 출결: 0%
+  - 서류: 0%
+  - 면접: 0%
+  - 실기: 70%
+  - 수능: 30%
+따라서, 가군 실기/실적 전형에서 실기 부분의 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 라이프융합학부의 세부 전공을 정확하게 나열하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 원본 텍스트에 포함되지 않은 내용이 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 전공 목록과 관련된 정보가 일관되게 제공됩니다. 다만, 추가된 설명이 원본 텍스트와의 일관성을 약간 떨어뜨릴 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 세부 전공에 대한 설명이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공 목록과 추가 설명이 자연스럽게 연결되어 있습니다. 그러나 약간의 흐름이 끊길 수 있는 부분이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 전공 목록은 정확합니다. 그러나 추가된 정보는 원본에 명시되어 있지 않으므로 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 완전한 일관성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 추가된 설명도 적절합니다. 그러나 원본에 없는 정보가 포함되어 있어 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.8331930296469551</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+이 학부는 미래형 산업 트렌드에 맞춰 다양한 삶의 질 향상을 위한 교육을 제공하는 것을 목표로 설립되었습니다. 세부 전공별 특성화된 교육 프로그램과 실무 중심의 교육을 통해 학생들이 라이프스타일 관련 분야에서 전문가로 성장할 수 있도록 지원합니다.</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있으며, 이는 원본 텍스트에 명시된 '체육학과'와 다릅니다. 또한, 실기 종목에 대한 정보도 원본 텍스트에 포함되어 있지 않으며, '다른 학과들은 수능 성적을 기준으로 모집합니다'라는 내용은 원본 텍스트와 관련이 없습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 포함하고 있습니다. '태권도학과'는 원본에 언급되지 않았고, 실기고사에 참여해야 하는 학과 목록이 일치하지 않습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 전체적으로 관련성이 떨어집니다. 실기고사에 참여해야 하는 학과에 대한 정확한 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 일관성이 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. '태권도학과'와 실기 종목에 대한 정보는 원본에 없으므로 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 부분이 많아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.7390168656608102</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (실기종목: 제자리 멀리뛰기, Z-런)
+2. 태권도학과
+이 두 학과만 가군에서 실기고사가 요구됩니다. 다른 학과들은 수능 성적을 기준으로 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 실기/실적 위주 전형 지원 가능한 학과에 대한 정보가 잘못되었습니다. 원본 텍스트에 명시된 학과(레저스포츠학과, 태권도학과, 디자인조형학과, 체육학과, 경기지도학과)와는 전혀 다른 학과(산업융합시스템공학부)를 언급하고 있으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 학과 목록과 생성된 응답의 학과 목록이 상충하므로 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 실기/실적 위주 전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용과는 관련이 없습니다. 원본 텍스트에서 요구하는 학과 목록을 제공하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 주제와 관련된 정보가 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 실기/실적 위주 전형에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 맞지 않는 내용이 포함되어 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부정확성과 관련성 부족으로 인해 전체적으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.6170834507167241</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 운영하는 학과는 다음과 같습니다:
+1. 산업융합시스템공학부(산업ICT기술공학)
+2. 산업융합시스템공학부(산업ICT기술공학) (이름 변경으로 인해 모집 중지)
+따라서, 실기/실적 위주 전형을 지원하려면 주의해야 할 점은:
+1. "산업융합시스템공학부(산업ICT기술공학)"는 2024년도에 모집 중지 상태입니다.
+2. 다른 학과에서는 일반적으로 실기/실적 위주의 평가 요소를 포함하지만, 정확한 세부 내용은 해당 학과의 전형요소 반영비율을 확인해야 합니다.
+따라서, 지원하려는 학과에 대해 추가 정보를 확인하시고, 해당 학과의 공식 홈페이지나 입학처 웹사이트에서 최신 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록도 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공의 수와 이름이 모두 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.7929793652891624</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교 미래융합대학에서 신설되는 라이프융합학부는 다음과 같은 세 가지 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학 
+3. 라이프생활문화학
+따라서 동의대학교 라이프융합학부에서는 총 3개의 전공 과정을 개설하여 학생들에게 다양한 분야에서의 교육과 경험을 제공할 예정입니다.</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있으며, 마이스터고에 대한 언급도 없습니다. 또한, 중국어로 작성되어 있어 원문과의 일관성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 부분이 많습니다. 특히, 농어촌학생전형에 대한 정보가 누락되어 있어 원문과의 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 일부 정보를 제공하지만, 원문에서 강조된 중요한 세부사항(농어촌학생전형에 대한 제한 사항 등)이 누락되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 언어 차이로 인해 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 점에서 일관된 구조를 가지고 있지만, 원문과의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 중요한 사실을 누락하고 있으며, 특히 농어촌학생전형에 대한 정보가 없기 때문에 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 관련성, 정확성 모두에서 부족한 점이 많습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원문과의 맥락이 다르기 때문에 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 원문과의 언어 차이로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.5789830681756051</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>你是特教高中学生，根据提供的信息，你有可能符合东义大学一般学生招生资格。具体来说：
+1. 特殊目的高中（如科学高中、国际高中、外语高中）的学生是可以申请的。
+2. 如果你的学校属于上述特殊目的高中类型之一，则你可以申请东义大学的一般学生入学。
+但是，请注意以下几点：
+- 确认你所在的高中是否属于上述提到的特殊目的高中类型。
+- 仔细阅读东义大学的具体招生简章和要求，因为每个专业的具体要求可能会有所不同。
+- 检查是否有其他特定的要求或限制条件适用于你的具体情况。
+建议直接访问东义大学官网（https://ipsi.deu.ac.kr/main.do）获取最准确的信息。如果仍有疑问，可以联系学校的招生办公室进行确认。</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 핵심 사실을 왜곡하고 있습니다. 원본 텍스트는 "인문사회과학대학의 중어중국학과와 공과대학 신소재공학과"가 가장 많이 모집하는 학과라고 명시하고 있지만, 생성된 응답에서는 "산업경영빅데이터공학과"와 "소프트웨어공학부"가 가장 많이 모집한다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트의 정보와 생성된 응답의 정보가 서로 충돌하고 있으며, 이는 응답의 일관성을 저해합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 원본 텍스트의 핵심 정보가 누락되어 있어 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 학과의 모집 인원을 나열하고 있지만, 전체적으로 논리적인 흐름이 부족합니다. 주제에 대한 명확한 결론이 부족하여 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 잘못 전달하고 있으며, 특히 가장 많이 모집하는 학과에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이는 전체적인 품질을 저하시킵니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 주제에 대한 명확한 이해가 부족하여 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 정확성과 관련성이 부족하여 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.702951116163919</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별 정원 내외 모집 인원을 비교해야 합니다. 주어진 정보를 바탕으로 분석해보면:
+1. **인문사회과학대학**:
+   - 법학과: 2명
+   - 영어영문학과 - 교직: 28명
+   - 중어중국학과 - 교직: 32명
+   - 일본학과 - 교직: 1명 (추가내용 참조)
+   - 평생교육·청소년상담학과 - 교직: 0명
+   - 국어국문학과 - 교직: 45명 (정원 내 모집인원)
+   - 중어중국학과 - 교직: 32명 (정원 외 모집인원)
+2. **상경대학**:
+   - 경영정보학과: 7명
+   - e비즈니스학과: 10명
+   - 금융경영학과: 5명 (정원 내 모집인원)
+   - 재무부동산학과: 13명 (정원 외 모집인원)
+   - 무역학과 - 교직: 14명 (정원 외 모집인원)
+3. **공과대학**:
+   - 응용화학과: 22명
+   - 의생명공학과: 20명
+   - 식품공학과: 20명
+   - 산업경영빅데이터공학과: 45명 (정원 내 모집인원)
+   - 소프트웨어공학부(컴퓨터소프트웨어공학 - 공학, 응용소프트웨어공학): 45명 (정원 외 모집인원)
+4. **ICT융합공과대학**:
+   - 소프트웨어공학부: 45명 (정원 내 모집인원)
+   - 컴퓨터공학과 - 교직: 3명 (정원 외 모집인원)
+   - 인공지능학과: 4명 (정원 외 모집인원)
+   - 디지털콘텐츠학과: 1명 (정원 외 모집인원)
+   - 게임공학과: 3명 (정원 외 모집인원)
+5. **의료·보건·생활대학**:
+   - 임상병리학과: 0명
+   - 치위생학과: 0명
+   - 방사선학과: 0명
+   - 의료경영학과 - 보건의료정보관리교육인증: 1명 (정원 외 모집인원)
+   - 식품영양학과 - 교직: 0명
+6. **공과대학, ICT융합공과대학**:
+   - 스마트호스피탈리티학과: 7명
+   - 미래형자동차학과: 7명
+   - 소프트웨어융합학과: 7명 (정원 외 모집인원)
+이 중에서 가장 많은 인원을 모집하는 학과는 **산업경영빅데이터공학과**와 **소프트웨어공학부**로, 각각 45명씩 모집하고 있습니다. 이 두 학과 모두 정원 내외를 포함하여 큰 규모의 모집인원을 가지고 있어 나군 전형에서 가장 많이 모집하는 학과라고 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 특수목적고등학교 학생이 동의대학교의 농어촌학생전형에 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다고 명시되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충되는 정보를 포함하고 있습니다. 원문에서는 지원할 수 없는 특수목적고등학교의 종류를 명확히 하고 있지만, 생성된 응답은 이를 잘못 해석하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 전체적으로는 적절한 관련성을 가지지 못합니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 논리적 흐름이 약해집니다. 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 지원 자격에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 받았으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 일부 적절한 부분이 있지만, 잘못된 정보로 인해 전체적인 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.6540045196232963</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교의 농어촌학생전형을 지원할 수 있습니다. 하지만 주의해야 할 점은 일부 특수목적고등학교는 지원이 불가능한 경우가 있다는 것입니다.
+특히, 동의대학교의 "나군 학생부교과(농어촌학생전형) - 정원외 모집단위 및 모집인원"에서 다음과 같이 명시되어 있습니다:
+- 특수목적고등학교 중 과학고, 국제고, 외국어고는 지원 불가능
+- 예술고, 체육고는 지원 가능 
+- 마이스터고는 지원 가능
+따라서, 당신이 다니는 특수목적고등학교가 과학고, 국제고 또는 외국어고라면 지원이 불가능하지만, 예술고나 체육고라면 지원이 가능합니다.
+추가적으로, 농어촌학생전형의 지원 자격은 다음과 같습니다:
+1. 농어촌(읍·면) 지역에 소재하는 중·고등학교에서 전 교육과정을 이수한 학생
+2. 중·고등학교 재학기간 동안 본인 및 부모 모두가 농어촌 지역에 거주한 자 (학생과 부모 거주지가 동일하지 않아도 됨)
+따라서, 해당 조건을 충족하고 있다면 지원이 가능합니다. 지원 전에 해당 단과대학의 모집단위와 최대선발 가능 인원 등을 확인하시고, 필요 서류를 준비해보세요.</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 원문은 해당 정보를 확인할 수 없다고 명시하고 있지만, 생성된 응답은 구체적인 성적 정보를 제공하고 있습니다. 이는 명백한 사실 왜곡입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순됩니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 성적 정보를 제공하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 하였고, 생성된 응답은 성적 정보를 제공하고 있어 주제와 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성을 고려할 때, 플루언시 점수는 다소 낮게 평가됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충하는 내용을 포함하고 있습니다. 원문은 평균 성적에 대한 정보가 없다고 하였으나, 생성된 응답은 구체적인 성적을 제시하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계에서 전반적으로 부적합합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않습니다. 원문이 제공하지 않는 정보를 제시하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성과 관련성 부족으로 인해 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.6121513331149282</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자와 최종등록자의 수능 성적을 살펴보면 다음과 같습니다:
+- **최초합격자**:
+  - 모집인원: 30명
+  - 지원인원: 146명
+  - 경쟁률: 4.87
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+- **최종등록자**:
+  - 모집인원: 30명
+  - 지원인원: 146명
+  - 경쟁률: 4.87
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+따라서, 2024학년도 소프트웨어공학부의 최초합격자와 최종등록자의 수능 성적 평균은 **317.87**입니다.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상충되는 내용을 담고 있습니다. 원문에서는 해당 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 평균 점수를 제시하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 정보를 제공합니다. 원문이 합격자 평균 성적에 대한 정보를 포함하고 있지 않다고 명시한 반면, 생성된 응답은 구체적인 성적을 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 하였고, 생성된 응답은 그와는 전혀 다른 내용을 담고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하지 않는 정보를 포함하고 있으며, 이는 사실과 다릅니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 관계가 전혀 없기 때문에 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 원문에서 요청한 정보와는 전혀 다른 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절성으로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.5355444596784601</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2024학년도 ICT융합공과대학 소프트웨어공학부의 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **317.87**입니다.</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 입시 일정에 대한 설명으로 대체하고 있습니다. 원본 텍스트의 구체적인 날짜와 시간 정보가 누락되어 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 발표 일정과 일치하지 않으며, 일반적인 정보로 대체하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표에 대한 정보를 제공하고 있지만, 원본 텍스트의 구체적인 일정과는 관련이 적습니다. 따라서 관련성 점수가 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않고, 일반적인 정보로 대체하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 적절성 점수가 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.5220049145780273</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>합격자발표 언제</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2024학년도 입시 일정에 따라 합격자 발표일자는 대체로 정해져 있습니다. 하지만 정확한 날짜는 각 단과대학의 공식 웹사이트를 통해 확인해야 합니다. 일반적으로 합격자 발표는 수능 이후 몇 주 후에 이루어지며, 대부분 2월 중순부터 3월 초까지 이루어집니다.
+입학사정관제나 전형별로 날짜가 다를 수 있으므로, 가장 정확한 정보는 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고 있으며, 원본 텍스트의 사실을 왜곡하고 있습니다. 원본 텍스트는 명확한 날짜를 제시하고 있지만, 생성된 응답은 그에 대한 언급이 없습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 면접 일정에 대한 정보가 전혀 포함되어 있지 않아 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 면접 일정에 대한 질문에 대한 답변으로 적절하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 평가에는 영향을 미치지 않습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관성을 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실을 전혀 반영하지 않으며, 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 평가했을 때, 생성된 응답은 원본 텍스트와의 관계가 전혀 없고, 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 이해하기 쉬운 구조를 가지고 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 이해의 맥락에서 낮은 점수를 받습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.3713687001182245</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>題目中並未提供具體的面試時間安排，因此無法確定具體的出發時間。如果您是考生，建議您密切關注學校官方發布的通知或公告，通常會在招生簡章或者官網上詳細說明面試日期和相關安排。同時也要注意準備好身份證件、准考證等必要的個人文件，以及根據通知中的要求提前做好其他準備工作。
+如果需要更準確的答案，請提供更多的信息或參照官方發布的通知。</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 무시하고, 여러 다른 기준과 정보를 제시하고 있습니다. 이는 원문과 상충되는 내용으로, 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 원문에서 언급된 '최저학력 기준이 없다'는 내용을 부정하는 여러 정보를 포함하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 명시된 '최저학력 기준이 없다'는 점을 무시하고 다른 정보를 제공하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 언어가 중국어로 되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 그러나 각 항목은 비교적 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 명시된 사실과 완전히 상반되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있으며, 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 원문의 맥락을 무시하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 관련성이 떨어져서 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.4094340255571018</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>从提供的信息中，没有直接提到韩医学科（한의예과）的具体最低学力标准。但是根据其他相关信息可以推断：
+1. 对于一般学生入学的考试科目和比例：
+   - 国语 + 数学 + 研究(2个科目) (加分点包括在内) 标准转换分数总和的平均值
+   - 英语等级的平均值
+   - 4个科目等级的平均值
+   - 4个科目等级的标准差
+2. 对于不同专业的具体最低标准可能有所不同，但通常会参考：
+   - 国语、数学、英语等科目的成绩
+   - 学生的综合能力评价（如学生学业记录）
+3. 一般医学院校对韩医学科的要求可能会包括：
+   - 较高的国语和数学成绩
+   - 英语等级要求可能较高，因为医学教育通常需要良好的外语能力
+4. 具体最低学力标准通常会在学校官网或招生简章中详细说明。
+为了获得确切的韩医学科最低学力标准信息，建议直接访问同意大学的官方网站查看最新的招生简章或联系学校的招生办公室获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "대부분의 정시 모집단위에서는 수능 최저학력 기준이 없습니다"라는 부분은 다소 일반화된 표현으로, 특정 모집단위에 대한 정보가 부족하여 약간의 불확실성을 내포하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 수능 최저학력 기준이 없음을 강조하고 있습니다. 그러나 "대부분의 정시 모집단위"라는 표현은 원문에서 명시된 정보와는 약간의 차이가 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 깊으며, 수능 최저학력 기준에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전반적으로 정확하지만, "대부분의 정시 모집단위"라는 표현이 다소 모호하여 정확성에 약간의 의문을 남깁니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 차원에서 잘 수행되고 있으나, 일부 표현에서 약간의 모호함이 있어 완벽한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.592663360728668</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 보면, 대부분의 정시 모집단위에서는 수능 최저학력 기준이 없습니다. 
+특히 다음과 같은 전형들은 수능 최저학력 기준을 두고 있지 않습니다:
+1. 가군 수능(일반학생전형) - 전 모집단위
+2. 나군 수능(일반학생전형) - 전 모집단위 
+3. 다군 수능(일반학생전형) - 전 모집단위
+따라서, 2024학년도 현재로서는 주요 정시모집 단과대학 및 학과에서 수능 최저학력 기준이 적용되지 않는 것으로 보입니다.
+만약 특정 단과대나 학과에 대한 자세한 정보가 필요하시다면, 해당 대학의 입학처 웹사이트를 확인하거나 직접 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 충원합격자 발표일과 시간을 정확히 반영하고 있지만, 2차 및 3차 이후 발표 일정에 대한 정보가 누락되어 있습니다. 또한, 온라인 등록에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분은 사실과 다릅니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 1차 발표 일정과 관련된 정보를 제공하지만, 2차 및 3차 발표 일정에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 또한, 온라인 등록에 대한 언급은 원본 텍스트와 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정과 관련된 정보를 제공하고 있지만, 원본 텍스트에 포함되지 않은 온라인 등록 정보가 추가되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있지만, 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 1차 발표 일정은 정확하지만, 2차 및 3차 발표 일정이 누락되어 있어 정확성이 떨어집니다. 또한, 온라인 등록 정보는 원본 텍스트에 포함되어 있지 않아 부정확합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 좋은 점수를 받지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트와의 불일치로 인해 완전한 적합성을 보이지는 않습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 표현으로 작성되어 있어 이해 가능성이 높습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.7237531486807599</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2024년 2월 14일 (수) 09:00에 충원 합격자 발표가 이루어집니다. 이와 함께 같은 날 동안 온라인으로 등록도 가능합니다.
+발표 및 등록 일정은 다음과 같습니다:
+- **2024년 2월 14일 (수) 09:00**: 충원 합격자 발표
+- **2024년 2월 14일 (수) 09:00~16:00**: 온라인으로 충원 합격자 등록
+주의할 점은:
+- *발표*: 홈페이지에서 개별 조회 가능합니다.
+- *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령 가능합니다.
+- *등록장소*: 학교 지정은행 (등록금 고지서에 기재된 정보를 확인하세요)</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2차 충원합격자 발표일인 2024년 2월 15일(목) 09:00을 언급하고 있지만, 1차 발표일인 2024년 2월 14일(수)과 3차 이후 발표 일정에 대한 정보는 누락되어 있습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 2차 충원합격자 발표일과 관련된 정보를 제공하지만, 1차 발표일과 3차 이후 발표 일정에 대한 언급이 없어 일관성이 떨어집니다. 전체적인 발표 일정과의 일관성을 고려할 때 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 질문에 직접적으로 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달되고 있습니다. 그러나 발표 일정의 전체적인 맥락을 고려할 때 약간의 일관성이 부족하여 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 2차 발표일에 대한 정확한 정보를 제공하지만, 1차 발표일과 3차 이후 발표 일정에 대한 정보가 누락되어 있어 정확성에서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 관련성, 유창성, 일관성에서 좋은 점수를 받았지만, 사실성과 정확성에서 일부 누락이 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로도 적절합니다. 그러나 일부 정보가 누락되어 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 발표 일정의 전체적인 맥락이 부족하여 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.6446373062021565</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 09:00부터 추가합격자 발표가 이루어집니다. 이날짜에 홈페이지에서 개별적으로 합격자를 확인할 수 있습니다.
+추가합격자 등록은 같은 날인 2024년 2월 15일(목) 09:00부터 16:00까지 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하지 않으며, 추가 모집에 대한 정보가 없다고 언급하고 있습니다. 그러나 원본 텍스트는 추가 모집이 이루어진다고 명확히 설명하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 추가 모집이 이루어진다고 명시하고 있지만, 생성된 응답은 그에 대한 언급이 없다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 직접적으로 질문에 대한 답변을 제공하지 않고 다른 웹사이트를 참조하라고 안내하고 있습니다. 이는 원본 텍스트의 핵심 내용을 충분히 다루지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어가 아닌 다른 언어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 내용을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원본 텍스트와의 관계가 매우 약합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 적절한 정보를 제공하지 못하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 이해하는 데 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.5012338678507672</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到是否进行额外招生（추가모집）的内容。为了获取准确的信息，建议访问以下网站以获得最新的招生政策和通知：
+https://ipsi.deu.ac.kr/main.do
+您可以登录该网站查看最新的招生公告、招生计划以及其他相关信息。如果有具体的疑问或需要进一步的帮助，请告诉我，我会尽力提供支持。</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 평생학습자전형에 대한 여러 정보를 포함하고 있지만, 일부 세부사항이 원본 텍스트와 일치하지 않거나 추가적인 정보가 포함되어 있습니다. 예를 들어, 지원자격에 만 30세 이상이라는 조건이 추가되었고, 산업체 재직 경력 요구 사항이 언급되었습니다. 이는 원본 텍스트에 명시되어 있지 않은 내용입니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 추가된 정보로 인해 일관성이 떨어집니다. 예를 들어, 지원자격에 대한 설명이 원본 텍스트와 다르게 해석되고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 주요 정보를 다루고 있으며, 원본 텍스트의 핵심 주제와 관련이 있습니다. 그러나 일부 추가 정보가 포함되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 추가 정보로 인해 흐름이 약간 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가된 정보로 인해 정확성이 떨어집니다. 특히 지원자격에 대한 조건이 원본과 다르게 제시되고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 품질을 보이고 있지만, 사실성과 일관성에서 다소 부족함이 있습니다. 전반적으로 정보가 유용하지만, 정확성과 일관성이 떨어지는 점이 아쉽습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 추가된 정보로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 이해 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.6984160691206334</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학생이 아닌 성인 학습자를 대상으로 하는 입학 전형입니다. 주요 특징과 절차는 다음과 같습니다:
+1. **모집단위 및 모집인원**:
+   - 다양한 단과대학과 계열, 모집단위에서 평생학습자전형을 통해 학생들을 모집합니다.
+   - 예를 들어, 미래융합대학의 라이프융합학부는 여러 전형명으로 학생들을 모집하고 있습니다.
+2. **지원자격**:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자가 지원할 수 있습니다.
+   - 산업체에서의 재직 경력을 요구하며, 3년 이상의 재직 기간이 필요합니다.
+3. **전형요소 반영비율**:
+   - 서류 평가와 면접 평가를 통해 학생들을 선발합니다.
+   - 예를 들어, 학생부종합(평생학습자전형)에서는 서류 70%와 면접 30%의 비율로 평가됩니다.
+4. **제출서류**:
+   - 고교 학교생활기록부
+   - 검정고시 합격증서 및 성적증명서 (검정고시 출신자)
+   - 외국고교 졸업(예정)자의 경우, 공증받은 외국고교 졸업증명서와 성적증명서가 필요합니다.
+5. **면접평가**:
+   - 개별 면접으로 진행되며, 평균 10분 내외의 시간이 주어집니다.
+   - 지원동기 및 학업계획, 학업역량, 전공적합성 등에 대한 질문이 이루어집니다.
+6. **평가영역**:
+   - 공동체역량: 협업능력과 학교폭력 여부 등을 평가합니다.
+   - 학업역량: 학업에 대한 흥미와 노력, 성적 추이 등을 평가합니다.
+   - 전공적합성: 지원전공(계열) 관련 활동과 경험, 학업의지 등을 평가합니다.
+7. **동점자 처리기준**:
+   - 면접고사 성적이 상위자인 경우 우선적으로 선발됩니다.
+   - 서류평가 공동체역량 영역 성적 상위자도 동점자 처리 기준 중 하나입니다.
+8. **최종등록자 추가 제출서류**:
+   - 일부 전형에서는 고교 졸업증명서와 관련 증빙서류를 추가로 요구할 수 있습니다.
+평생학습자전형은 성인 학습자의 다양한 배경과 경력을 고려하여 입학 기회를 제공하므로, 지원자는 자신의 경험을 잘 활용해 서류와 면접에서 좋은 평가를 받도록 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보를 추가적으로 제공하고 있지만, 원본 텍스트에서 언급된 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"라는 핵심 내용을 포함하고 있습니다. 그러나 "만 30세 이상의 성인"이라는 조건은 원본 텍스트에 명시되어 있지 않으므로, 일부 사실이 추가되거나 변형되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부분 일치하지만, 추가된 정보로 인해 일관성이 떨어질 수 있습니다. 특히, "만 30세 이상의 성인"이라는 조건은 원본 텍스트에 포함되어 있지 않으므로, 일관성에 문제가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보를 제공하며, 원본 텍스트의 주제와 매우 관련이 있습니다. 추가된 정보도 주제와 관련이 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 추가된 정보가 원본 텍스트와 일치하지 않으므로 정확성에 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 관련성과 유창성에서 좋은 점수를 받습니다. 그러나 사실성과 일관성에서 약간의 문제가 있어 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보로 인해 일부 의미가 변형될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.7263757025506765</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+- 일반고, 자율고, 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고, 특성화고(특성), 영재학교, 학력인정고, 방송통신고, 각종학교 등 다양한 고등학교 유형의 졸업자 또는 법령에 의한 동등 학력 소지자입니다.
+즉, 평생학습자전형은 다양한 고등학교 출신뿐만 아니라 검정고시나 외국고교 졸업자도 지원이 가능하며, 만 30세 이상의 성인을 대상으로 합니다.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 날짜(2024년 1월 16일)와 대기실 및 입실 시간 안내(2024년 1월 12일 14:00 이후)를 정확하게 반영하고 있습니다. 그러나, 실기고사 날짜에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 이 부분은 다소 불확실합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 실기고사 날짜에 대한 추가 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트에는 실기고사 날짜에 대한 언급이 없기 때문에, 이로 인해 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 실기고사 준비에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있어 완벽한 유창성 점수는 아닙니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 실기고사 날짜에 대한 추가 정보가 포함되어 있어 약간의 일관성 문제를 야기할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 실기고사 날짜에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 정확성 점수가 다소 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 문제가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 실기고사 날짜에 대한 추가 정보가 포함되어 있어 약간의 의미적 불일치가 발생할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 실기고사 날짜에 대한 정보가 추가되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.7509651261432196</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2024년 1월 16일(화)에 실기고사가 있습니다. 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 확인할 수 있습니다.
+따라서 실기고사는 다음과 같이 준비하시면 됩니다:
+- 날짜: 2024년 1월 16일(화)
+- 시간: 대기실 및 입실 시간은 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 확인
+실기고사는 해당 날짜와 시간에 맞춰 준비해 주세요.</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 체육학과의 실기 종목에 대한 내용을 담고 있습니다. 이는 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보로 간주됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트는 입실시간에 대한 정보만을 제공하고 있지만, 생성된 응답은 실기 종목에 대한 설명으로 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 실기고사 대기실 및 입실시간에 대한 정보인데, 생성된 응답은 체육학과의 실기 종목에 대한 내용으로 주제와 관련성이 전혀 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 평가에는 영향을 미치지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 각 종목에 대한 설명이 잘 연결되어 있지만, 원본 텍스트와의 관계가 없기 때문에 전체적인 일관성은 떨어집니다. 그러나 내부적으로는 어느 정도의 논리적 흐름이 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 전혀 없기 때문에 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 전혀 맞지 않으며, 주제와도 관련이 없습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 이해도에는 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.2838922922800732</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같은 종목들 중 하나를 선택하여 준비해야 합니다:
+1. 제자리 멀리뛰기 (240점)
+2. 메디신볼 던지기 (230점) 
+3. Z-런 (230점)
+각 종목별로 다음과 같은 내용이 요구됩니다:
+- 제자리 멀리뛰기는 5시간 동안 실시되며, 남은 거리를 기록합니다.
+- 메디신볼 던지는 1.8m 높이의 테이블 위에서 2.4kg 무게의 메디신볼을 최대한 높이 던지기 
+- Z-런은 Z자 형태로 진행되며, 각 구간별 시간을 기록합니다.
+따라서 체육학과 지원자는 해당 종목 중 하나를 선택하여 준비해야 합니다. 종목 별로 다른 준비물과 시간이 필요하므로, 지원자가 선택한 종목에 맞게 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 정보를 제공하지만, 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어진다는 사실을 잘못 해석하고 있습니다. 응답에서는 3차 이후에도 개별 전화 통보가 이루어진다고 언급하고 있어, 원문과 상충하는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서는 3차 이후에만 개별 전화 통보가 이루어진다고 명시하고 있지만, 생성된 응답에서는 3차 이후에도 개별 전화 통보가 이루어진다고 잘못 설명하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있지만, 잘못된 정보로 인해 전체적인 관련성이 떨어집니다. 그러나 충원합격자 발표 및 등록일정에 대한 추가 정보를 제공하여 어느 정도 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 나열되어 있지만, 원문과의 일관성이 부족하여 논리적인 흐름이 약간 깨집니다. 특히, 전화 통보에 대한 설명이 모호하게 표현되어 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 일치하지 않는 부분이 많습니다. 특히, 전화 통보에 대한 정보가 잘못 전달되고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 관련성은 어느 정도 있지만, 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미를 전달하려고 하지만, 잘못된 정보로 인해 의미가 왜곡되었습니다. 따라서 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 작성되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.6939756202462981</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2024년 입학사정관전형(나군 학생부종합)의 경우, 충원합격자 발표 후에는 개별 전화 통보 방식으로 안내를 드리지 않습니다. 대신 홈페이지에서 개별적으로 조회하실 수 있습니다.
+충원합격자 발표 및 등록일정은 다음과 같습니다:
+- **2024년 2월 15일(목) 09:00** : 충원 합격자 3차 이후 (개별 전화 통보) 발표
+- **2024년 2월 15일(목) 09:00 ~ 16:00** : 충원 합격자 3차 이후 (개별 전화 통보) 등록
+합격자 발표 후에는 다음과 같은 방법으로 안내를 받으실 수 있습니다:
+- **홈페이지에서 개별 조회**
+- **고지서 교부**: 홈페이지에서 출력 또는 입학관리팀에서 수령
+- **등록장소**: 학교 지정은행 (등록금 고지서에 기재)
+따라서, 충원합격자 발표 후에는 개별 전화 통보 대신 홈페이지를 통해 정보를 확인하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보를 제공하지 않는다는 원문 내용을 무시하고, 추론된 정보를 제시하고 있습니다. 이는 원문과 상충되는 정보로, 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, 원문에서 명시적으로 제공되지 않은 내용을 바탕으로 추론을 하고 있습니다. 이는 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 제공되지 않은 정보에 대한 추론이 포함되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 내용을 포함하고 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공되지 않은 정보를 포함하고 있으며, 이는 정확성에 부정적인 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이는 전체적인 품질을 저하시킵니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문의 맥락과 관련이 있지만, 원문에서 제공되지 않은 정보를 바탕으로 한 추론이 포함되어 있어 의미적으로 완벽하게 적절하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 복잡한 문장으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.7683879888526284</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 문단에서 직접적으로 확인할 수 없습니다. 하지만, 2024학년도와 관련된 정보가 포함되어 있으므로, 이전 논리와 유사한 패턴을 따르면 다음과 같은 점들을 추론할 수 있습니다:
+1. **모집인원**: 7명
+2. **지원 인원**: 29명 (이는 경쟁률을 계산하는데 사용될 것입니다)
+3. **경쟁률**: 4.14 (29 / 7 = 4.14)
+4. **충원 합격자**: 7명
+이 정보를 바탕으로, 2023학년도 경찰행정학과의 수시모집 결과는 다음과 같을 것으로 추정할 수 있습니다:
+- 모집인원: 7명
+- 지원 인원: 약 29명 (경쟁률이 4.14라는 점에서)
+- 충원 합격자: 7명
+하지만, 정확한 정보는 해당 대학의 공식 웹사이트나 입학처에서 확인해야 합니다. 필요하시다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않은 학생들도 지원할 수 있다고 주장하지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 수능 응시가 필수라고 명시하고 있지만, 생성된 응답은 수능을 응시하지 않은 학생들도 지원할 수 있다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주제의 핵심인 '정시모집 지원자는 수능에 응시해야 한다'는 점을 무시하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 나열하고 있지만, 원문과의 논리적 연결이 부족하여 일관된 흐름이 떨어집니다. 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 완전히 반대되는 내용을 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 원문과 크게 다르기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성이 결여되어 있어 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.4729870729633708</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2024학년도 입학전형에서 수능을 응시하지 않은 학생들도 지원이 가능합니다. 주요 내용은 다음과 같습니다:
+1. **검정고시 출신자 / 외국고교 졸업(예정)자**:
+   - 이들은 수능 대신 검정고시 합격증서나 외국고교 졸업증명서를 제출하면 지원이 가능합니다.
+2. **특수목적 고등학교 출신자**:
+   - 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고 등 특수목적 고등학교 졸업생도 지원이 가능합니다.
+3. **특성화고 출신자**:
+   - 특성화고의 특성(직업) 또는 특성(대안) 과정을 이수한 학생들도 지원이 가능합니다.
+4. **영재학교 졸업자**:
+   - 영재학교에서 졸업한 학생도 지원이 가능합니다.
+5. **학력 인정 고등학교 출신자**:
+   - 일반고, 자율고, 방송통신고, 각종학교 등에서 졸업한 학생들도 지원이 가능합니다.
+6. **검정고시 출신자**:
+   - 검정고시를 통과한 학생도 지원이 가능합니다.
+따라서 수능을 응시하지 않은 학생들도 다양한 형태로 지원할 수 있는 기회가 있습니다. 다만, 각 전형별로 제출해야 하는 서류와 평가 기준이 다를 수 있으므로, 해당 대학의 공식 입학전형 안내 사이트(https://ipsi.deu.ac.kr/main.do)를 확인하여 자세한 내용을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. 일반적으로 정시모집의 대상에서 제외된다고 언급하고 있으며, 이는 원문과 모순됩니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 모든 고등학교 졸업생이 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 10년 이상 경과한 경우 제외된다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원문에서 제공하는 정보와는 다소 다른 방향으로 나아갑니다. 원문이 정시 지원 가능성에 대한 명확한 정보를 제공하는 반면, 생성된 응답은 예외적인 경우에 대한 설명을 추가하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 제공하지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 원문과의 논리적 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 상충하는 내용을 포함하고 있습니다. 원문은 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 이를 부정하는 내용을 담고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일관성이 부족하고, 사실성 또한 떨어집니다. 전반적으로 원문과의 관계가 약해 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원문에서 전달하고자 하는 의미와는 다소 다르게 해석될 수 있습니다. 원문이 명확한 정보를 제공하는 반면, 생성된 응답은 혼란을 줄 수 있는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 정보가 명확하게 전달되지만, 원문과의 관계가 약해 이해하는 데 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.6889324112833488</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 일반적으로 고등학교 졸업 후 10년 이상 경과한 경우 정시모집의 대상에서 제외됩니다. 하지만 일부 특별한 전형이나 재입학 전형 등에서는 예외가 있을 수 있습니다.
+특히 아래와 같은 전형들은 고등학교 졸업 이후 일정 기간이 지났더라도 지원 가능할 수 있습니다:
+1. **평생학습자전형 (나군)**: 이는 일반적으로 고등학교 졸업 후 3년 이상 경과한 성인을 대상으로 합니다.
+2. **성인학습자 전형**: 이 역시 고등학교 졸업 후 일정 기간이 지났더라도 지원 가능합니다.
+만약 10년이 지난 경우, 위와 같은 특별전형을 통해 지원할 수 있습니다. 그러나 일반 정시모집에서는 제외될 가능성이 높습니다.
+추가적인 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화로 문의하는 것이 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크에서 더 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 비고 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.818340495352417</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시 모집일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) (마감일 18시까지)
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 12.(금) (마감일 17시까지 도착)
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 
+          제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: 동일
+   - 충원 합격자 1차 발표 및 등록: 
+     - 날짜: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 비고: 동일
+   - 충원 합격자 2차 발표 및 등록:
+     - 날짜: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 비고: 동일
+   - 충원 합격자 3차 이후 발표 및 등록 (개별 전화 통보):
+     - 날짜: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: 동일
+이 일정은 일반적으로 정시 모집의 주요 단계를 포함하고 있으며, 각 단계별로 필요한 준비와 제출 사항을 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 포인트를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.8939192957080366</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 06.(토) 18시까지
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 12.(금) 17시까지 도착
+   - 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록: 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+이 일정들은 정시모집의 주요일정이며, 원서접수, 서류제출, 실기고사(필적있는 경우), 합격자발표 및 등록금납부 등의 과정을 포함하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있다고 주장하고 있지만, 원문에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 생성된 응답은 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시되어 있는데, 생성된 응답은 수능 미응시자가 지원 가능한 전형을 나열하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 질문에 대한 답변을 시도하고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문에서 제공하는 정보와는 전혀 다른 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에는 영향을 미치지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 나열된 전형에 대한 설명이 있지만, 원문과의 연결이 부족하여 일관된 흐름이 없습니다. 원문과의 관계가 명확하지 않아 다소 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 명시된 사실과 정반대의 내용을 담고 있습니다. 수능 미응시자가 지원할 수 없다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 전혀 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.6406634233778026</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **나군 학생부교과(농어촌학생전형)**
+2. **나군 학생부교과(평생학습자전형)**
+3. **나군 학생부종합(성인학습자(정원내)전형)**
+4. **나군 학생부종합(성인학습자(정원외)전형)**
+이러한 전형들은 수능 미응시자도 지원 가능하며, 주로 학생부 성적과 면접 등을 통해 평가됩니다.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 전년도 전자공학과의 충원 합격 정보가 제공되지 않았다고 언급하고 있지만, 원문에서는 전년도 충원 합격이 36명까지 이루어졌다고 명확히 언급하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 충원 합격이 이루어졌다고 명시되어 있으나, 생성된 응답은 정보가 제공되지 않았다고 주장하고 있습니다. 이로 인해 일관성 점수는 2로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문에서 언급된 웹사이트를 참조하라는 내용을 포함하고 있으며, 전년도 전자공학과의 충원 합격에 대한 질문에 관련된 정보를 제공하려고 합니다. 그러나 원문에서 명시된 구체적인 숫자(36명)에 대한 언급이 없으므로 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있으므로 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원문과의 불일치로 인해 완전한 일관성은 부족하므로 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 구체적인 사실(충원 합격 36명)을 누락하고 있으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 2로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 일부 긍정적인 요소가 있지만, 사실성과 일관성에서 큰 문제를 가지고 있습니다. 따라서 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문의 의미와 맥락에서 벗어난 부분이 있으며, 특히 충원 합격 정보의 부재에 대한 언급이 원문과 상충합니다. 따라서 의미 적합성 점수는 3으로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 원문과의 불일치로 인해 약간의 혼란을 줄 수 있으므로 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.6121773020262317</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 바탕으로 전년도 전자공학과의 충원 합격 정보가 제공되지 않았습니다. 현재 제공된 데이터는 2024학년도의 정보만 포함되어 있습니다. 전년도의 정확한 정보를 얻으려면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하시거나 관련 부서에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호를 직접 언급하지 않고 있으며, 제공된 정보와는 상반된 내용을 포함하고 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 명확한 전화번호를 제공하는 반면, 생성된 응답은 전화번호가 없다고 주장하고 있습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 전화번호에 대한 질문에 대한 직접적인 답변을 제공하지 않으며, 관련성이 낮습니다. 그러나 웹사이트 방문을 제안하는 부분은 어느 정도 관련이 있지만, 주제에서 벗어난 정보가 많습니다. 따라서 관련성 점수는 2입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 질문에 대해 중국어로 응답한 점은 유의해야 합니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 제안을 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 전화번호에 대한 정보가 전혀 제공되지 않기 때문에 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 적절하지 않은 정보를 포함하고 있습니다. 따라서 의미 적합성 점수는 1입니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 질문에 대한 직접적인 답변이 부족하여 혼란스러울 수 있습니다. 따라서 이해 가능성 점수는 3입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.6299019503663041</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。如果您需要这个信息，建议您访问东义大学官网（https://ipsi.deu.ac.kr/main.do）上的联系页面或招生办公室页面，通常这些页面会包含联系电话等联系方式。
+如果网站上没有提供具体的电话号码，您可以尝试通过以下方式获取：
+1. 电子邮件联系入学处。
+2. 在官网上查找在线咨询服务。
+3. 直接拨打一般大学咨询热线（如果有提供的话）。
+希望这些建议对您有所帮助。如果您需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전화 통화가 되지 않을 경우의 절차에 대해 설명하고 있지만, 원본 텍스트에서 명시된 '등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다'는 중요한 사실을 누락하고 있습니다. 따라서 일부 사실이 누락되어 점수를 낮추었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 원본 텍스트의 핵심 사항인 등록 포기 처리에 대한 언급이 없으므로 일관성이 떨어집니다. 
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 전화 통화가 되지 않을 경우의 절차에 대한 정보를 제공하므로 관련성이 높지만, 원본 텍스트의 핵심 내용인 등록 포기 처리와의 연결이 부족합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 잘 작성되어 있습니다. 
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 절차가 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 전화 통화가 되지 않을 경우의 절차를 설명하지만, 원본 텍스트의 중요한 사실인 등록 포기 처리에 대한 정보가 누락되어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 작성되었지만, 사실성과 일관성에서 부족함이 있어 점수를 낮추었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적합한 의미를 전달하고 있지만, 중요한 사실이 누락되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성이 높습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.5407165645025266</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화통보 후에도 전화 통화가 되지 않는 경우, 일반적으로 다음과 같은 절차가 따르게 됩니다:
+1. **재전화 시도**: 입학처에서는 일정 시간 동안 재전화를 시도할 수 있습니다.
+2. **메시지 남기기**: 전화에 응답하지 않으면 메시지를 남길 수 있습니다.
+3. **추가 통보 방법**: 전화 통화가 되지 않을 경우, 추가로 이메일이나 문자 메시지 등을 통해 합격 정보를 통보할 수 있습니다.
+4. **입학처 방문**: 학생이 직접 입학처를 방문하여 확인을 할 수도 있습니다.
+5. **홈페이지 확인**: 합격자 명단 등은 대학 홈페이지에서 개별 조회가 가능하므로, 해당 페이지를 확인해 보는 것도 방법입니다.
+6. **입학관리팀 문의**: 전화 통화가 되지 않을 경우, 입학관리팀에 직접 문의하여 상황을 안내받을 수 있습니다.
+이러한 절차들은 대학마다 약간 차이가 있을 수 있으므로, 정확한 처리 방법은 해당 대학의 입학처 웹사이트나 전화로 확인하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류와 조건을 잘 반영하고 있으나, 일부 세부사항이 누락되거나 다소 간략하게 설명되어 있어 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있으나, 일부 문장 구조나 표현에서 약간의 차이가 있어 완전한 일관성을 보장하지는 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 모든 주요 포인트를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 몇몇 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, 일부 문장 간의 연결이 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 몇 가지 세부사항에서 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 일부 세부사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하나, 몇몇 표현에서 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장에서 명확성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.8097701508576514</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 제출해야하는 주요 서류는 다음과 같습니다:
+1. **지원자 본인의 가족관계증명서** (1부)
+2. **지원자 본인, 부모의 주민등록초본** (각 1부, 총 3부)
+3. **중학교 학교생활기록부** (1부) - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+4. **고등학교 학교생활기록부** (1부) - 학생부 온라인 제공 비대상 교 및 미동의자에 한해 제출
+추가로, 부모가 사망하거나 이혼한 경우에는 다음과 같은 서류를 추가로 제출해야 합니다:
+- **사망한 부 또는 모의 기본증명서** (1부) - 기본증명서에 '사망'이 명시되어 있지 않은 경우, 제적등본 1부를 제출해야 합니다.
+- **친권이 있는 부 또는 모의 혼인관계증명서(상세)** (1부)
+- **본인의 기본증명서(상세)** (1부)
+6년 과정 유형에서는 중·고등학교 재학기간 동안 본인 및 부모 모두가 농어촌 지역에 거주한 증빙이 필요합니다. 12년 과정 유형에서는 지원자 본인이 초·중·고등학교 전 교육과정을 농어촌 지역 소재 학교에서 이수하고 거주한 증빙이 필요합니다.
+추가로, 최종 등록자 중 외국고교 졸업예정자는 2024년 2월 16일까지 졸업증명서(아포스티유 확인서 또는 영사확인 발급)를 제출해야 합니다.
+이러한 서류들은 정확하게 준비하고 제출해야 하며, 필요한 경우 각 항목에 대한 자세한 안내와 증빙을 첨부하여 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 포함하고 있지만, 추가로 요구되는 서류에 대한 정보가 원본 텍스트와 일치하지 않습니다. 원본 텍스트에는 부모의 사망이나 이혼에 대한 서류가 언급되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 일관되게 제공하지만, 추가된 정보(부모의 사망이나 이혼 관련 서류)는 원본 텍스트와 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있지만, 추가된 정보가 원본 텍스트의 맥락과는 다소 관련이 없기 때문에 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 정보가 원본 텍스트와의 연결이 약해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 사실을 정확하게 반영하지만, 추가된 정보가 사실과 다를 수 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 추가된 정보로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답의 의미는 원본 텍스트와 일부 일치하지만, 추가된 정보가 맥락에 맞지 않아 의미적으로 적절하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.8136168198466849</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형으로 지원시 다음과 같은 서류를 제출해야 합니다:
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부 
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+- 중·고등학교 재학기간 동안 농어촌 지역에 거주한 증빙서류 (필요시)
+추가로, 부모가 사망하거나 이혼한 경우 다음과 같은 서류를 제출해야 합니다:
+- 사망한 부 또는 모의 기본증명서 1부
+- 부모가 이혼한 경우 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부
+위와 같은 서류들을 준비하여 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "저소득 기회균등 전형을 실시하지 않는 것으로 보입니다"라고 언급하고 있지만, 원문에서는 기회균등 전형이 존재하지 않는다고 명확히 언급하고 있습니다. 따라서 응답은 원문과 일치하지 않으며, 사실과 다소 모순됩니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공하고 있으며, "저소득 기회균등 전형을 실시하지 않는 것으로 보입니다"라는 표현은 원문에서 명확히 언급된 사실과 상충합니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 언급된 주제와 관련이 있지만, 원문에서 명확히 언급된 사실을 왜곡하여 설명하고 있습니다. 그럼에도 불구하고 주제와 관련된 정보를 제공하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 명확하게 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 일치하지 않으며, "저소득 기회균등 전형을 실시하지 않는 것으로 보입니다"라는 표현은 사실과 다릅니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 원문의 의미를 왜곡하고 있어 의미적으로 적절하지 않습니다. 따라서 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 원문과의 불일치로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.5262151116611025</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 이 대학교에서는 정시모집의 일부 전형에서 저소득 기회균등 전형을 실시하지 않는 것으로 보입니다. 
+특히 주요 변경사항 중 "정시모집군 변경" 항목에서 다음과 같은 내용이 있습니다:
+- 2023학년도: 영어영문학과 (가)
+- 2024학년도: 영어영문학과 (다)
+이는 저소득 기회균등 전형을 실시하지 않는 것으로 해석될 수 있습니다. 
+그러나 정확한 정보를 얻기 위해서는 대학교의 공식 입학전형 안내 웹사이트나 총장실, 학부모상담센터 등을 통해 최신 정보를 확인하는 것이 가장 좋습니다. 변경사항이 있을 수 있으므로 공식 출처에서 직접 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 없다는 원문 내용을 무시하고, 두 과목의 평균 등급을 2.5로 가정하여 일반적인 처리 방식을 설명하고 있습니다. 이는 원문과 상충되는 정보로, 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 원문에서 언급된 정보와 상반되는 내용을 포함하고 있습니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 절사 처리에 대한 일반적인 규칙을 설명하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문 질문에 대한 직접적인 답변이 아니며, 관련된 정보가 포함되어 있지만, 원문에서 요구하는 구체적인 정보와는 거리가 있습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 관련성이 떨어지기 때문에 전체적인 맥락에서의 유창성은 다소 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 연결이 부족하여 전체적인 일관성은 떨어집니다. 원문과의 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 내용을 포함하고 있으며, 수능 최저등급에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성 점수가 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 없기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 원문에서 요구하는 정보와는 완전히 다른 내용을 다루고 있습니다. 따라서 의미적 적절성 점수가 매우 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 원문과의 관련성이 떨어져서 전체적인 이해도는 낮아질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.2714310871702719</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>一般来说，如果两门社会学考科的成绩分别是2和3等第，那么它们的平均分是2.5。在这种情况下，大多数大学会采用四舍五入或者直接取整的方式处理非整数等级。
+1. **四舍五入**：通常会将2.5等第向上取整为3。
+2. **直接取整**：有些学校可能会规定直接取整，即2.5等第会被视为3等第。
+具体政策可能因大学而异，请务必查看你申请的特定学校的详细说明。如果不确定，可以直接联系招生办公室确认他们的处理方式。
+根据你的描述，大多数情况下，2.5等第会向上取整为3等第。建议你直接咨询学校以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 정시 충원 합격자 발표의 차수와 일정에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "1차 충원 합격자 등록"에 대한 내용이 원본 텍스트에는 포함되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일관성을 유지하고 있습니다. 다만, "1차 충원 합격자 등록"에 대한 추가 정보가 포함되어 있어 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 원본 텍스트에 없는 "1차 충원 합격자 등록"에 대한 정보가 포함되어 있어 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.7066752012072064</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2024학년도 정시 모집의 충원 합격자 발표는 총 3차로 이루어집니다.
+1. **1차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00
+   - 내용: 1차 충원 합격자 발표
+2. **1차 충원 합격자 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00~16:00
+   - 내용: 1차 충원 합격자 등록
+3. **2차 충원 합격자 발표 및 등록**:
+   - 일정: 
+     - 2024. 02. 15.(목) 09:00 (발표)
+     - 2024. 02. 15.(목) 09:00~16:00 (등록)
+4. **3차 충원 합격자 발표 및 등록**:
+   - 일정: 
+     - 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 (발표)
+     - 개별 전화 통보 시 안내 (등록)
+따라서, 정시 충원 합격자 발표는 총 3차로 이루어지며, 각 차례별로 일정이 다르게 설정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e-비즈니스학과의 모집 인원과 지원 인원에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제공된 수능 성적에 대한 구체적인 수치와 비교할 때, 정확한 정보가 부족하고 잘못된 해석이 포함되어 있습니다. 예를 들어, 원본 텍스트는 수능 4개 영역 등급이 4.6점일 경우의 가능성을 언급하고 있지만, 생성된 응답은 모집 인원과 경쟁률에 대한 정보로만 설명하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 많습니다. 원본 텍스트는 수능 성적에 대한 구체적인 수치를 제공하고 있으며, 합격 가능성에 대한 논의가 포함되어 있지만, 생성된 응답은 모집 인원과 경쟁률에 대한 정보로만 제한되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 질문에 대한 일부 관련 정보를 제공하지만, 원본 텍스트의 핵심 내용인 수능 성적과 합격 가능성에 대한 직접적인 언급이 부족합니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요소를 고려하여 설명하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 원본 텍스트의 내용을 충분히 반영하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 수치와 사실을 정확하게 반영하지 않으며, 잘못된 해석이 포함되어 있습니다. 예를 들어, 수능 성적에 대한 구체적인 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 의미와 맥락을 충분히 반영하지 못하고 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 질문에 대한 명확한 답변으로 느껴지지 않을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.5701268780175957</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑几个因素：
+1. **e비즈니스학과의 모집인원 및 지원 인원**: 根据您提供的信息，2024学年该专业的招生人数为10人，而最终注册的申请者有38人。
+2. **竞争率**：根据提供的数据，竞争比是3.8。这意味着每个名额大约有3.8名学生在竞争。
+3. **成绩要求**：虽然您没有提供具体的录取分数线或最低分数要求，但我们可以推测，如果您的成绩为4.6，在当前的竞争情况下，有可能会被考虑。
+基于以上信息：
+- 由于该专业的招生人数（10人）相对较少，而申请者较多（38人），竞争非常激烈。
+- 您的成绩为4.6，在目前提供的数据中处于中间偏上的水平。如果录取分数线在4.5左右或略高一些，您的成绩是有竞争力的。
+因此，理论上来说，如果您是e비즈니스学专业的考生，并且成绩为4.6，那么您有可能通过该专业的正取（常规录取）获得录取。但是，最终能否被录取还需要考虑具体的录取分数线以及招生委员会的具体评判标准。
+建议：
+- 查看学校官方发布的具体录取分数线。
+- 关注学校的补充录取信息，因为有些大学会在正取结束后进行补充录取。
+- 如果可能的话，咨询学校的招生办公室获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 제공하지만, 영어 등급 평균이 3.20로 잘못 기재되어 있습니다. 원본 텍스트에서는 영어 등급 평균이 3.66으로 명시되어 있습니다. 이로 인해 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 합격 점수와 영어 등급 평균이 다르게 제시되어 있어 일관성이 떨어집니다. 경쟁률과 지원자 수에 대한 정보는 추가되었지만, 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보와 분석을 제공합니다. 그러나 원본 텍스트의 핵심 정보와는 약간의 차이가 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 영어 등급과 관련된 정보가 잘못되어 있어 정확성이 떨어집니다. 이로 인해 전체적인 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균 이상의 성과를 보이지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 주제에 대한 적절한 분석을 제공합니다. 그러나 일부 정보의 부정확성으로 인해 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 이해 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.6249233093190598</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 최초합격 가능성을 평가해보겠습니다.
+- **모집인원 및 지원인원**: 모집 인원은 10명, 지원 인원은 89명으로 경쟁률이 8.90입니다.
+- **평균 합격 점수**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.20이며, 영어 등급의 평균은 3.20입니다.
+- **등급 기준**: e비즈니스학과는 수능 영어영역 등급에 따른 점수가 필요합니다.
+**분석:**
+1. **평균 합격 점수**: 317.20이라는 평균 점수를 보면, 5.3의 등급은 상대적으로 낮습니다.
+2. **등급 기준**: 영어 등급이 5.3이라면, 대략 115점 정도가 됩니다 (영어 등급에 따른 점수 표 참조).
+3. **경쟁률 및 지원자 수**: 경쟁률이 높고 지원자가 많아서, 단순히 영어 등급만으로는 합격하기 어렵습니다.
+**결론:**
+5.3의 등급으로 e비즈니스학과에 최초합격하는 것은 매우 어려울 것으로 보입니다. 하지만, 다른 과목들의 성적과 학생부 등의 평가 요소들이 좋은 점수를 받으면 가능성을 높일 수 있습니다.
+추천: 
+- **전반적인 성적 향상**: 국어, 수학, 탐구 등 다른 영역에서도 높은 점수를 받는 것이 중요합니다.
+- **학생부 평가**: 학생부에서 좋은 평가를 받을 수 있도록 노력해야 합니다.
+- **추천서 및 자기소개서**: 이 부분도 강조하여 지원하면 좋습니다.
+이러한 조건들을 만족시킬 경우, 최초합격 가능성은 높아질 것입니다.</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 e비즈니스학과의 예비 합격 가능성에 대한 질문에 대해 전혀 관련이 없는 정보를 제공하고 있습니다. 원본 텍스트에서 언급된 충원합격 순위와 관련된 사실을 무시하고, 다른 주제에 대한 설명을 하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 충원합격에 대한 정보와 관련된 내용이 전혀 없습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 주제와의 관련성이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.4232679301598322</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **你的成绩**：你需要查看你是否符合eBiz专业的要求。通常，eBiz专业的录取标准会包括国语、数学和选修科目的平均分。
+2. **竞争情况**：根据提供的数据，eBiz专业的最终注册人数为89人，计划招生10人，因此竞争非常激烈。平均成绩约为308.58（标准差为10.96）。
+3. **个人表现**：你需要查看自己的成绩单和学校生活记录表，并确保你在这些方面表现出色。特别是要突出你的学业态度、学业成就以及与eBiz相关的兴趣和经历。
+4. **面试准备**：如果需要参加面试，你还需要准备好回答关于支持eBiz专业的问题，展示你的热情和能力。
+假设你提供的成绩是380分左右（具体分数未提供），这个成绩在当前的录取标准下可能处于中等偏上的水平。但是，由于竞争激烈，你需要确保你在其他方面也表现出色：
+- **学校生活记录表**：确保你的记录表真实反映你的努力和成就。
+- **面试表现**：准备充分，展示你对eBiz专业的热情和理解。
+建议你仔细查看自己的成绩单，并准备好相关的支持材料。如果有疑问或不确定的地方，可以参考学校的官方网站或直接咨询招生办公室获取更详细的信息。
+如果你需要进一步的帮助或具体指导，请告诉我更多细节！</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 3.44 등급이 간호학과에 합격할 가능성이 높다고 주장하지만, 원문에서는 3.44 등급이 간호학과에 합격하기 어려울 수 있다고 명시하고 있습니다. 이로 인해 사실관계에 큰 차이가 발생합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문은 3.44 등급이 간호학과에 합격하기 어려울 수 있다고 하였으나, 생성된 응답은 합격 가능성이 높다고 주장하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시한 주제와 관련된 여러 요소를 다루고 있으며, 간호학과의 합격 가능성에 대한 질문에 적절하게 대응하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 포인트가 명확하게 구분되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상반된 정보를 포함하고 있어 정확성이 낮습니다. 3.44 등급이 간호학과에 합격하기 어려울 수 있다는 원문의 주장을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 일관성에서 큰 문제를 가지고 있어 전반적인 품질이 중간 정도로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 맥락과는 다소 다르게 해석되고 있으며, 원문에서 제시한 정보와 상충하는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.6195791912470608</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>3.44 등급 점수는 상당히 좋은 성적으로, 동의대학교 간호학과에 합격할 가능성이 높습니다. 하지만 최종 합격 여부는 여러 요소가 결합되어 결정되므로 단순한 등급점수만으로 판단하기는 어렵습니다.
+다음은 고려해야 할 몇 가지 포인트입니다:
+1. **전형 방식**: 동의대학교 간호학과는 일반적으로 수능 성적을 기반으로 모집하므로, 3.44 등급 점수는 충분히 경쟁력을 갖추고 있습니다.
+2. **모집 인원 및 지원자 수**: 정시 모집인원과 지원자 수를 고려해야 합니다. 간호학과의 경우 많은 학생들이 지원하므로, 경쟁률이 높을 수 있습니다.
+3. **수능 성적**: 국어, 수학, 영어 등급 점수와 탐구 영역 성적이 중요합니다. 3.44는 영어 등급으로 보아, 다른 과목의 성적도 고려해야 합니다.
+4. **추천서 및 자기소개서**: 일부 학과에서는 추천서나 자기소개서 등의 서류평가가 이루어질 수 있으므로, 이 부분에서도 경쟁력을 갖춰야 합니다.
+5. **실기/실적 평가**: 간호학과는 실기 평가도 포함될 수 있으므로, 관련 실기 준비도 필요합니다.
+6. **추천사 및 특별 지원 요건**: 일부 학생들은 추천사나 특별 지원 요건을 통해 경쟁력을 높일 수 있습니다.
+따라서 3.44 등급 점수만으로는 확실한 결론을 내리기는 어렵습니다. 하지만 충분히 좋은 성적을 가지고 있으므로, 적극적으로 지원하고 준비하는 것이 중요합니다. 추가 정보나 자세한 조언이 필요하시다면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 성적에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 정시 등급이 2.52일 경우 합격 가능성이 높다고 언급했으나, 생성된 응답에서는 이 성적이 평균보다 낮다고 잘못 해석하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 정시 등급에 대한 해석이 상충합니다. 원본에서는 합격 가능성이 높다고 했지만, 생성된 응답에서는 낮다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용과는 다소 벗어나 있습니다. 면접, 학생부 종합평가 등 추가적인 요소를 언급하고 있지만, 질문의 핵심에 대한 직접적인 답변은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 전체적으로 일관된 흐름이 부족합니다. 특히, 정시 등급에 대한 해석이 원본과 상충하여 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히, 정시 등급이 평균보다 낮다고 잘못 해석한 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히, 정시 등급에 대한 해석이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 혼란스러울 수 있습니다. 특히, 정시 등급에 대한 해석이 명확하지 않아 독자가 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.5234056917096445</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 모집요강을 고려해보면, 일반학생전형(수능) 최초합격자의 경우 다음과 같은 통계가 있습니다:
+- 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합 평균: 357.63
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 489.72
+당신의 성적이 2.52라는 점을 고려하면, 이는 표준변환점수로 환산하면 대략 300점대 중반에서 350점대 초중반 정도일 것으로 추정됩니다.
+이러한 수치는 간호학과의 평균 성적보다 낮습니다. 그러나 정시에서는 여러 요소가 고려되므로, 다음과 같은 점들을 고려해볼 필요가 있습니다:
+1. **면접 성적**: 면접에서도 좋은 성적이 필요합니다.
+2. **학생부 종합평가**: 학생부에서의 활동과 성장과정이 중요하게 평가됩니다.
+3. **추천서 및 자기소개서**: 이들에 대한 준비도 중요합니다.
+따라서, 단순히 수능 점수만으로는 최종 합격을 보장할 수 없습니다. 그러나 적절한 준비와 노력하면 가능성을 열어두고 지원하는 것이 좋습니다. 특히 면접과 학생부 종합평가에서 좋은 성적을 거둘 수 있도록 준비를 해보세요.</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 GPA 3.7이 좋은 점수라고 언급하고 있지만, 원본 텍스트에서는 3.7이 간호학과의 평균 등급보다 낮다고 명시하고 있습니다. 따라서, 이 부분에서 사실과 일치하지 않는 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 고려해야 한다고 언급하며, 간호학과의 입학 기준에 대한 정보를 제공합니다. 그러나 원본 텍스트의 핵심 내용인 3.7의 성적이 평균보다 낮다는 점과는 일치하지 않아서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과에 지원할 때 고려해야 할 여러 요소를 제시하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 메시지인 합격 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 여러 요소를 나열하며 논리적으로 연결되어 있습니다. 그러나 원본 텍스트의 핵심 메시지와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 GPA에 대한 정보와 간호학과의 입학 기준에 대한 설명을 포함하고 있지만, 원본 텍스트의 사실과는 다소 상충하는 부분이 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과 지원에 대한 적절한 의미를 전달하고 있으나, 원본 텍스트의 맥락과는 일부 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.522037969522992</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 좋은 점수이지만, 간호학과에 지원할 때 여러 요소를 고려해야 합니다.
+1. **전형 유형**: 간호학과는 일반적으로 경쟁률이 높고 입학 기준이 까다롭습니다. 특히 간호학과의 경우 실기시험, 면접 등 다양한 평가 요인이 포함될 수 있습니다.
+2. **수능 성적**: 수능 성적이 중요합니다. 수능 점수가 합격 기준에 미치는 영향이 크므로, 수능 성적을 확인해야 합니다.
+3. **면접 및 실기**: 면접과 실기는 간호학과에서 중요한 평가 요소입니다. 자신의 의사소통 능력과 간호사로서의 적합성을 잘 보여줄 수 있는 준비가 필요합니다.
+4. **추천서 및 자기소개서**: 추천서와 자기소개서는 학교생활을 종합적으로 평가하는 데 중요한 역할을 합니다. 자신의 경험, 열정, 목표 등을 잘 표현해야 합니다.
+5. **추천사**: 가능하다면 교사나 전문가의 추천사를 준비해보세요. 이는 지원자의 적성을 객관적으로 평가하는데 도움이 됩니다.
+6. **서류 제출**: 서류 제출 시 주요 경력, 활동, 성과 등을 잘 정리하여 제출해야 합니다.
+3.7의 GPA만으로 합격을 보장하기는 어렵지만, 위와 같은 요소들을 잘 준비한다면 좋은 결과를 얻을 수 있습니다. 특히 실기시험과 면접에서 자신감 있게 대응하고, 자기소개서와 추천서 등을 잘 작성하면 경쟁력을 높일 수 있을 것입니다.
+추가적으로, 학교의 공식 웹사이트나 입학처에 문의하여 최신 정보를 확인하는 것이 좋습니다. 또한, 예비 지원자 모임이나 학원에서 추가적인 조언을 받는 것도 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 제공하지만, 2.58의 성적이 평균보다 높다는 주장은 사실과 다릅니다. 실제로, 간호학과의 평균 등급은 2.34이므로 2.58은 평균보다 높은 성적입니다. 그러나 응답에서 제시된 경쟁률과 전형 방법에 대한 정보는 정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 경쟁률과 전형 방법에 대한 정보를 제공하지만, 2.58의 성적이 평균보다 높다는 주장은 일관성이 없습니다. 응답의 다른 부분에서는 2.58이 중간 등급이라고 언급하고 있어 혼란을 초래합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 제공하고 있으며, 간호학과의 전형 방법과 합격 가능성에 대한 분석을 포함하고 있습니다. 그러나 일부 정보는 질문에 대한 직접적인 답변이 아닐 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 중복되거나 불필요하게 길어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답에서 제공된 정보는 대체로 정확하지만, 2.58의 성적에 대한 해석이 잘못되어 있습니다. 이로 인해 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.568541507375668</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집요강을 고려해보겠습니다.
+1. **모집인원**: 22명 (교직 - 간호교육인증)
+2. **전형방법**: 수능 위주 전형
+3. **학생부 교과성적 반영방법**:
+   - 반영과목: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+4. **전형요소 반영비율**: 수능 100%
+이러한 정보를 바탕으로 다음과 같은 점들을 고려해볼 수 있습니다:
+- **수능 성적**: 2.58은 중간 등급입니다.
+- **교직 간호학과의 경쟁률**: 동의대학교 간호학과는 매우 높은 경쟁률을 보이는 학과로 알려져 있습니다. 특히 교직 간호교육인증 과정은 더욱 치열합니다.
+**합격 가능성 분석**:
+- **수능 성적**: 2.58의 수능 점수는 중간 등급이므로, 경쟁률이 매우 높은 학과에서는 낮은 확률로 합격할 가능성이 있습니다.
+- **전형방법**: 수능 위주 전형으로, 수능 성적이 핵심적인 역할을 합니다. 따라서 2.58의 점수는 상대적으로 낮습니다.
+**추천 조치**:
+1. **보충학습**: 수능 공부를 추가로 하여 성적을 높이는 것이 중요합니다.
+2. **기타 전형 활용**: 다른 학과나 전형(예: 실기/실적 위주, 특별전형 등)을 고려해 볼 필요가 있습니다.
+3. **자기소개서 및 서류 준비**: 자기소개서와 제출서류를 잘 준비하여 개인적인 장점을 강조할 수 있도록 합니다.
+결론적으로 2.58의 성적로는 낮은 확률로 합격할 가능성이 있지만, 보충학습과 기타 전형을 활용하면 더 높은 가능성으로 접근할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 핵심 사실을 왜곡하고 있으며, 예비 번호 7번의 합격 가능성에 대한 명확한 정보를 제공하지 않고 있습니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 여러 가지 다른 요소를 고려해야 한다고 언급하며 혼란을 초래합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명확히 언급하고 있지만, 생성된 응답은 다른 요소들을 고려해야 한다고 하여 원본의 주장을 반박하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 관련된 주제를 다루고 있지만, 주제의 핵심인 예비 7번의 합격 가능성에 대한 직접적인 답변을 제공하지 않고 있습니다. 대신, 여러 다른 요소를 나열하여 주제를 벗어나고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요소를 나열하고 있지만, 이들 간의 논리적 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 원본 텍스트의 주제와는 다소 동떨어져 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 예비 7번의 합격 가능성에 대한 정확한 정보를 제공하지 않습니다. 원본의 내용을 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받고 있습니다. 원본 텍스트의 핵심 내용을 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 예비 7번의 합격 가능성에 대한 명확한 정보를 제공하지 않습니다. 여러 요소를 나열하는 것은 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 떨어져서 혼란을 초래할 수 있습니다. 따라서 이해하기는 가능하지만, 명확한 정보 전달이 부족합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.4847913156786316</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>为了回答您是否能被游戏学专业(游戏工学科)录取,我们需要考虑以下几个因素:
+1. 您的高考成绩是否达到该专业的录取分数线。
+2. 您的综合评价如何,包括学业能力、团队合作能力和对专业的热情等。
+3. 是否有其他竞争者也申请了这个专业。
+根据您提供的信息,游戏工学科在2024年招生计划中只招收3名学生。您的预估号为7,这意味着您是第7位报名该专业的考生。
+从统计数据显示:
+- 该专业的平均国语+数学+选修(两门)标准转换分数总和为303.05。
+- 平均英语等级为3.25。
+- 平均高考4个科目(含加分)标准转换分数总和为424.05。
+这些数据表明竞争相当激烈。您的预估号为7,意味着您需要与前6名考生竞争这3个名额。
+建议:
+1. 保持良好的学业成绩。
+2. 准备充分的面试或综合评价材料,展示您的团队合作能力和对游戏专业的热情。
+3. 关注后续发布的详细录取名单和结果通知。
+最终能否被录取还需等待学校公布正式录取名单。祝您好运!</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 성적, 평균 점수, 표준 편차, 경쟁률 및 충원 합격자 수에 대한 정보를 포함하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에서 언급된 "추가 합격 몇 번을 받을지는 예측하기 어렵습니다"라는 부분이 명확하게 반영되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가 합격에 대한 예측이 원본 텍스트의 모호한 언급과 일치하지 않습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 성적과 관련된 정보와 예측을 제공하고 있습니다. 따라서 매우 높은 관련성을 가집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 수식이 포함되어 있어 약간의 복잡함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 정보가 정확하지만, 원본 텍스트의 특정 예측에 대한 언급이 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 부분에서 원본의 의도를 완전히 반영하지 못한 점이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 수학적 계산이 포함되어 있어 일부 독자에게는 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.6316128298923983</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16정도인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격 몇 번정도 받을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 경우, 수능 최종등록자의 경쟁률이 5.33이며, 충원 합격자는 3명입니다.
+수능 성적이 4.16정도라면, 평균 점수가 4.78이고 표준 편차가 0.20인 경우를 고려해 볼 수 있습니다:
+- 평균점수: 4.78
+- 표준편차: 0.20
+이제 4.16을 평균에서 얼마나 떨어져 있는지 계산합니다:
+\[ \text{표준화된 점수} = \frac{\text{실제 점수} - \text{평균점수}}{\text{표준편차}} \]
+\[ \text{표준화된 점수} = \frac{4.16 - 4.78}{0.20} = -3.1 \]
+이 표준화된 점수가 -3.1로 매우 낮은 수치입니다. 이는 평균보다 훨씬 낮은 성적을 의미합니다.
+게임공학과의 경쟁률이 5.33이고, 충원 합격자는 3명이라는 것을 고려하면, 4.16정도의 점수로는 상당히 낮은 확률로 추가 합격을 받을 수 있을 것으로 보입니다.
+따라서, 정확한 예측은 불가능하지만, 매우 낮은 확률로 추가 합격을 받을 가능성이 있다고 추정할 수 있습니다. 실제로는 경쟁률과 지원자들의 성적 분포에 따라 달라질 수 있으므로, 최선의 준비를 하고 다른 대안도 고려하는 것이 좋습니다.
+추가적으로, 동의대학교에서는 다양한 전형이 존재하므로, 학생부종합전형이나 특기자전형 등 다른 경로를 통해 지원해 보는 것도 좋은 방법일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 지원자의 성적을 비교하는 대신, 2024학년도 모집인원과 경쟁률에 대한 정보를 제공하고 있습니다. 그러나 이 정보는 원본 텍스트에서 제공된 내용과 일치하지 않으며, 지원자의 성적이 최초 등록자로 선발될 가능성에 대한 판단이 잘못된 것으로 보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 정보(모집인원, 경쟁률 등)를 포함하고 있으며, 원본 텍스트에서 언급된 합격 가능성에 대한 결론과 상충하는 내용을 제시하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과에 대한 정보를 제공하지만, 원본 텍스트의 핵심 질문인 최초 등록자로 선발될 가능성에 대한 직접적인 답변이 부족합니다. 따라서 관련성은 있지만, 주제에서 벗어난 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트의 주제와 연결되지 않아 일관성이 떨어지는 부분이 있습니다. 정보의 흐름이 매끄럽지 않으며, 주제와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 지원자의 성적에 대한 잘못된 해석이 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성, 일관성, 정확성에서 문제가 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어진 내용이 포함되어 있어 의미의 일관성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 정보가 과도하게 복잡하게 제시되어 있어 이해하는 데 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.5907690418173117</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>2024학년도 동일 모집단위의 경쟁률과 지원자의 수능 점수를 고려해보겠습니다.
+주어진 정보에 따르면, 경영정보학과의 경우:
+- 2024학년도 모집인원은 7명입니다.
+- 지원 인원은 105명이며, 이는 매우 높은 경쟁률을 의미합니다 (경쟁률 1.52).
+- 최종 등록자의 수능 점수 평균은 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 286.64입니다.
+현재 질문자가 경영정보학과에 지원하고 있으며, 수능 성적 3.75를 가지고 있습니다. 이 점수는 표준 변환 점수로 환산하면 대략 100점대 중반에서 낮은 110점대 초반 정도가 됩니다 (이 점수는 실제 변환표를 통해 정확히 확인해야 합니다).
+현재 지원자의 수와 경쟁률을 고려할 때, 수능 성적 3.75로 최초 등록자로 선발될 가능성은 매우 낮습니다. 대부분의 최종 등록자는 표준 변환 점수가 280점 이상인 경우가 많았습니다.
+따라서, 현재 상황에서는 최초 등록자로 선발되는 것이 어렵다고 판단됩니다. 하지만 정확한 확률을 예측하기 위해서는 해당 학과의 최종 등록자의 수능 성적 분포와 지원자의 전체 성적 분포를 더 자세히 확인해야 합니다.
+추가적으로, 실기나 면접 등의 평가 요소도 고려해야 하므로, 전반적인 경쟁력을 판단하기 위해서는 서류평가와 면접 등 다른 평가 항목을 포함한 총합 점수를 고려해볼 필요가 있습니다.
+추천되는 조치:
+1. 다른 학과의 모집인원과 지원자 수, 성적 분포를 확인하여 대체 가능한 학과를 찾아보세요.
+2. 면접 준비와 서류 평가 항목을 강화하여 전반적인 경쟁력을 높이세요.
+더 자세한 정보나 도움이 필요하시면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급에 대한 정보와 최초등록자 합격 가능성에 대한 요인을 언급하고 있지만, 원본 텍스트에서 제시된 평균 등급(영어 2.88, 수능 3.88)과 현재 정시 등급(4.2) 간의 관계를 명확히 반영하지 못하고 있습니다. 따라서 일부 사실이 누락되거나 왜곡된 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 최초등록자 합격 가능성에 대한 판단이 원본 텍스트의 결론과 상충하는 부분이 있습니다. 원본 텍스트는 합격 가능성이 낮다고 명시하고 있으나, 생성된 응답은 가능성이 높다고 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시모집과 관련된 정보를 제공하고 있으며, 학생부종합 평가 영역과 관련된 요인들을 언급하고 있어 주제와 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급과 합격 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인에 대한 설명이 명확하게 이어집니다. 그러나 원본 텍스트의 결론과 상충하는 부분이 있어 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실(합격 가능성이 낮다는 점)을 왜곡하고 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부는 잘 작성되었으나 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 원본 텍스트의 결론과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 다만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.7289889430346349</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시모집에서 경영정보학과의 경우, 학생부종합 평가 영역은 "공동체역량", "학업역량", "전공적합성"으로 구성되어 있습니다. 성적이 4.2라면, 이는 대체로 좋은 성적을 의미합니다.
+하지만 최초등록자로 합격할 수 있는지 여부는 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **전반적인 경쟁률**: 경영정보학과의 모집 인원과 지원 인원, 그리고 평균 점수를 고려해야 합니다.
+2. **학생부 내용**: 학생부에서 보여주는 공동체역량, 학업역량, 전공적합성 등이 중요합니다.
+3. **면접 성적**: 면접에서도 좋은 성적이 필요할 수 있습니다.
+현재 정보만으로는 정확한 판단을 내리기 어렵습니다. 하지만 4.2의 성적은 좋은 평가를 받을 가능성이 높으므로, 최초등록자로 합격하는 것은 충분히 가능한 경우가 많습니다. 
+추가적으로, 본교 입학사정관이나 관련 홈페이지(https://ipsi.deu.ac.kr/main.do)에서 더 자세한 정보를 확인하시거나, 전문적인 상담을 받는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 5.33이라는 수능 등급이 높은 점수라고 언급하고 있지만, 원본 텍스트에서는 이 등급이 경영정보학과의 평균 등급보다 낮다고 명시하고 있습니다. 따라서, 응답의 일부 내용이 원본과 상충합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 수능 성적이 중요한 평가 요소라고 언급하지만, 원본 텍스트의 내용과는 다소 일치하지 않는 부분이 있습니다. 특히, 5.33 등급이 평균 이하라는 점에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 여러 요인을 다루고 있어 원본 텍스트와 관련이 깊습니다. 그러나 원본의 핵심 정보인 평균 등급에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 여러 요인을 체계적으로 나열하고 있어 논리적인 흐름이 잘 유지되고 있습니다. 그러나 원본과의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답에서 제시된 정보 중 일부는 정확하지만, 5.33 등급이 평균 이하라는 원본의 사실과 상충하는 부분이 있어 정확성에 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 내용을 잘 전달하고 있으나, 원본의 맥락과 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 일부 내용이 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.6903677180761441</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>5.33이라는 수능 등급은 상당히 높은 점수입니다. 동의대학교 경영정보학과의 경우, 정시 모집에서는 수능 성적이 중요한 평가 요소 중 하나이지만, 합격 가능성은 여러 요인에 따라 달라질 수 있습니다.
+1. **전형요소 반영비율**: 동의대학교 경영정보학과는 일반학생전형에서 수능 성적 70%와 교과 성적 30%를 반영합니다.
+2. **수능 성적 평균 및 분포**:
+   - 2024년도 최종등록자 중 경영정보학과의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 286.64였습니다.
+   - 이는 5.33 등급을 가진 지원자에게 유리한 수준입니다.
+3. **경쟁률**: 경영정보학과의 경우, 지원 인원이 많아 경쟁률이 높을 수 있습니다. 하지만 5.33 등급은 상당히 높은 점수로, 평균 이상의 성적을 보유하고 있다면 합격 가능성은 높습니다.
+4. **교과 성적**: 교과 성적이 중요하므로, 고득점 과목이 있는지 확인해야 합니다.
+5. **추천서 및 자기소개서 등 추가 자료**: 이들 자료도 중요한 평가 요인으로 작용할 수 있습니다.
+따라서 5.33이라는 높은 수능 등급을 가지고 있다면, 경영정보학과에 합격 가능성은 충분히 있습니다. 하지만 최종 결정은 입학사정관의 심사를 통해 이루어지므로, 지원자 본인의 성적 외에도 다양한 요소를 고려해야 합니다.
+추가적으로, 동의대학교의 정시 모집에서 수능 등급이 높다면 합격 가능성은 매우 높습니다. 하지만 최종 결정을 내리기 위해서는 입학사정관의 심사를 거쳐야 하므로, 지원자 본인의 성적 외에도 다양한 요소를 고려해야 합니다.
+추가적으로 확인할 사항:
+- **최종 등록자 정보**: 동의대학교의 2024년도 최종 등록자 정보를 참고하여 자신의 성적이 평균 이상인지 확인합니다.
+- **입학사정관 심사**: 입학사정관이 지원자의 전반적인 자질과 적합성을 판단하기 때문에, 자기소개서와 추천서 등을 잘 준비해야 합니다.
+결론적으로, 5.33 등급을 가지고 있다면 경영정보학과에 합격 가능성은 높습니다. 하지만 최종 결정은 입학사정관의 심사를 통해 이루어지므로, 지원자 본인의 성적 외에도 다양한 요소를 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 바이오응용공학부의 평균 영어 등급과 수능 4개 영역 등급에 대한 정보를 잘못 제시하고 있습니다. 원본 텍스트에서는 영어 등급 평균이 3.82이고 수능 4개 영역 등급 평균이 4.74라고 명시되어 있지만, 생성된 응답에서는 영어 등급 평균이 4.53, 수능 4개 영역 등급 평균이 5.41로 잘못 기재되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 3.33의 성적이 바이오응용공학부의 평균 등급보다 높다고 언급하고 있지만, 생성된 응답에서는 3.33의 성적이 입학하기 어렵다고 주장하고 있습니다. 이러한 상반된 주장은 일관성을 해칩니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 바이오응용공학부의 입학 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와는 다소 차이가 있어 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르게 잘못된 정보를 포함하고 있습니다. 특히 평균 등급에 대한 잘못된 수치가 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성과 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 다르게 해석되고 있습니다. 따라서 의미적으로 적절하다고 보기에는 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.7625126863560998</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부의 경우, 수능(일반학생전형) 최종 등록자의 성적 분석을 보면 다음과 같은 특징들이 있습니다:
+- 평균 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합은 395.58입니다.
+- 영어 등급의 평균은 4.53이며, 수능 4개 영역 등급의 평균은 5.41입니다.
+성적 3.33 (대략 2등급)으로 보면:
+1. 국어 + 수학 + 탐구 점수는 상대적으로 낮을 것으로 예상됩니다.
+2. 영어와 수능 등급은 꽤 좋은 성적이지만, 이만으로는 충분한 경쟁력을 확보하기 어렵습니다.
+따라서 성적 3.33 정도로 바이오응용공학부 최초등록자로 입학하는 것은 매우 어려울 것으로 보입니다. 
+추천되는 방법은:
+1. 다른 전형을 고려해볼 것 (예: 학생부종합, 특기자 등)
+2. 추가 수능 공부를 통해 성적을 향상시키는 것이 좋습니다.
+3. 바이오응용공학부와 관련된 특강이나 활동에 참여하여 전공 적합성을 높이는 것도 도움이 될 수 있습니다.
+최종 결정은 입시 상황과 개인의 조건 등 다양한 요인을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 포함하고 있지만, "4.4의 등급으로 방사선학과에 지원하는 것은 가능하지만"이라는 부분은 다소 모호하게 표현되어 있으며, 원문에서 제시된 합격 가능성이 낮다는 점을 명확히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 방사선학과의 평균 등급과 관련된 정보를 포함하고 있으나, "합격 가능성이 낮습니다"라는 원문의 결론과는 일치하지 않는 부분이 있습니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 여러 요소를 다루고 있어 관련성이 높지만, 원문에서 제시된 핵심 정보에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 각 요소 간의 연결이 다소 약해 보일 수 있습니다. 그러나 전반적으로 논리적인 흐름은 유지되고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보를 포함하고 있지만, "합격 가능성이 낮습니다"라는 원문의 결론을 명확히 반영하지 못하고 있습니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 적절한 의미를 전달하고 있으나, 원문과의 일치성이 부족하여 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성은 아닙니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.5134147547244283</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>4.4의 등급으로 방사선학과에 지원하는 것은 가능하지만, 경쟁률과 합격 기준 등을 고려해야 합니다.
+방사선학과는 일반적으로 높은 경쟁률을 보입니다. 따라서 성적 외에도 다음과 같은 요소들이 중요합니다:
+1. **성적**: 4.4의 등급은 중간 수준이며, 방사선학과의 합격 기준보다는 낮습니다. 하지만 최근 몇 년 동안의 경쟁률을 고려하면, 좋은 성적이 필요합니다.
+2. **학생부 평가**: 공동체역량, 학업역량, 전공적합성 등이 중요합니다. 활동과 경험, 학교생활기록부에서 보여줄 수 있는 열정과 적합성을 강조해야 합니다.
+3. **면접 성적**: 면접에서도 좋은 평가를 받는 것이 중요합니다. 지원 동기와 전공에 대한 이해도 등을 잘 표현해야 합니다.
+4. **추천서 및 기타 서류**: 추천서나 자기소개서 등에서 자신의 장점을 잘 나타낼 수 있어야 합니다.
+5. **실적**: 방사선학과에서는 실무 경험이나 관련 활동이 유리할 수 있습니다. 이에 대한 경험을 강조하는 것이 좋습니다.
+현재의 성적만으로는 확정적으로 합격할 수 없다고 볼 수 있지만, 성적 외 요소들을 잘 준비한다면 좋은 결과를 얻을 수 있을 것입니다. 
+추천드리면:
+- **학생부와 면접 준비**: 활동과 경험을 자세히 기재하고, 학교생활기록부에서 보여줄 수 있는 열정과 적합성을 강조하세요.
+- **추천서 작성**: 선생님이나 지도老师的，根据您提供的信息和2024年韩国大学入学考试的主要变化，我为您总结了以下几个关键点：
+1. **学科分拆（学部→学科）**：
+   - 保育·家庭咨询学部 → 儿童学部
+   - 经济金融保险学部 → 金融经营学部
+   - 信息经营学部 (经营信息学, e商务学) → 经营信息学部, e商务学部
+   - 不动产金融·资产经营管理学部 → 不动产资产管理学部（不动产投资学, 不动产开发经营学）
+   - 机械汽车机器人零部件工程学部（机械工程, 机器人自动化工程, 汽车工程）→ 机械工程学部, 机器人自动化工程学部, 汽车工程学部
+   - 新材料工程学部（金属材料工程, 电子电材材料工程, 高分子材料工程）→ 新材料工程学部, 高分子纳米工程学部
+   - 建筑工学部（建筑学(5年制), 建筑工程, 土木工程, 城市工学）→ 建筑学部(5年制), 建筑工程学部, 土木工程学部, 城市工学部
+   - 化学环境工学部（化学工程, 环境工程, 应用化学）→ 化学工程学部, 环境工程学部, 应用化学学部
+   - 生物应用工学部（生物生命工学, 生物医药工学, 食品工程学）→ 生物生命工学部, 生物医药工学部, 食品工程学部
+   - 设计工学部（人机系统设计工学, 产品设计工学）→ 人机工程学部, 产品设计工学部
+   - 工业融合系统工学部（工业ICT技术工学, 工业经营大数据工学）→ 工业经营大数据工学部
+   - 创意软件工学部（计算机软件工学, 应用软件工学）→ 软件工程学部（计算机软件工学, 应用软件工学）
+   - 电气电子通信工学部（电气工程, 电子工程, 信息通信工程）→ 电气工程学部, 电子工程学部
+   - 音乐学部（声乐, 钢琴, 管弦打击乐, 实用音乐·音乐剧, 新媒体作曲）→ 音乐学部（古典音乐, 实用音乐, 新媒体作曲）
+2. **新设学科及暂停招生**：
+   - 心理学部 (新设)
+   - 智能港口物流学部 (新设)
+   - 创业投资经营学部 (新设)
+   - 生活融合学部 (新设)（创业投资学, 美容商业学, 生活文化学）
+   - 经济指导学部 (新设)
+3. **招生群变更**：
+   - 英语英语文学部 (甲) → 英语英语文学部 (丁)
+   - 酒店·会议经营学部 (乙) → 酒店·会议经营学部 (甲)
+   - 机器人自动化工程学部 (乙) → 机器人自动化工程学部 (甲)
+   - 土木工学部 (甲) → 土木工学部 (乙)
+   - 应用化学学部 (甲) → 应用化学学部 (丙)
+   - 生物医药学部 (丙) → 生物医药学部 (乙)
+   - 产品设计工学部 (乙) → 产品设计工学部 (甲)
+   - 电气工程学部 (乙) → 电气工程学部 (甲)
+   - 电子工程学部 (乙) → 电子工程学部 (甲)
+4. **新增招生类型**：
+   - 学生综合（成人学习者（定员内/外）型）：高中毕业或同等学历持有者
+5. **评价领域及评分标准变更**：
+   - 共同体能力：合作能力
+   - 学业能力：学业态度 / 学业成就
+   - 专业适应性：热情
+6. **提交材料变更**：
+   - 高中学生记录表（在线提供同意者除外）
+   - 检定考试或国外高中毕业证明书及成绩单
+   - 对于在国外高中毕业的学生，需要经过认证的副本和翻译本，并附上评分标准。
+综上所述，您目前的成绩为4.4，在申请放射线学部时可能面临一定的挑战。建议您除了准备良好的学业成绩外，还需要注重学生综合评价中的其他方面，如共同体能力、学业能力和专业适应性等。同时，积极参与与放射线学相关的活动和实践，以增强您的竞争力。希望这些建议对您有所帮助！</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 지원자 수에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(2.8 및 3.82)과 관련된 정보는 포함되어 있지 않다. 또한, 2.66이 평균보다 높다는 원본의 주장을 반박하는 내용이 포함되어 있어 사실관계에서 일부 불일치가 있다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공한다. 원본에서는 2.66이 평균보다 높다고 언급했으나, 생성된 응답에서는 이를 낮은 점수로 간주하고 있어 일관성이 부족하다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 지원자 수에 대한 정보를 제공하여 관련성을 유지하고 있지만, 원본 텍스트의 핵심 주제인 2.66의 평균과의 관계에 대한 정보가 부족하다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있어 유창성이 뛰어나다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어진다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 제공하지만, 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성에서 다소 부족하다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 유창성과 관련성에서 좋은 점수를 받지만, 사실관계와 일관성에서 부족함이 있어 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으나, 원본 텍스트의 맥락과는 다소 다르게 해석될 수 있는 부분이 있다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 언어로 작성되어 있어 이해 가능성이 높다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.5548299110226947</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2024년도 방사선학과의 경쟁률과 지원자 수를 고려하면, 2.66이라는 표준 변환 점수는 상대적으로 낮은 편입니다.
+- **경쟁률**: 7.20
+- **지원 인원**: 36명
+방사선학과의 경쟁률이 7.20으로 높기 때문에, 평균적인 표준 변환 점수는 상대적으로 높은 편입니다. 지원자 수가 많아도 경쟁률이 높기 때문에 낮은 점수가 적중하는 경우가 있을 수 있습니다.
+**평균 및 표준 편차 정보:**
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 341.62
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 9.80
+이 정보를 바탕으로, 2.66은 평균보다 약간 낮습니다. 하지만 표준 편차가 9.80이라는 점을 고려하면, 이 점수는 여전히 경쟁력을 갖춘 수준입니다.
+**추천 조치:**
+1. **서류 준비**: 서류 평가 영역에서 높은 점수를 받도록 노력하세요.
+2. **면접 준비**: 면접에서도 학업 역량과 전공 적합성을 잘 보여줄 수 있도록 준비해보세요.
+3. **추천서 및 추천인**: 강력한 추천서와 추천인이 있다면 이점도 활용할 수 있습니다.
+결론적으로, 2.66은 위험하지만 경쟁력을 갖춘 점수입니다. 최선을 다하여 다른 평가 영역에서 높은 점수를 받는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적에 대한 정보가 잘못 해석되었습니다. 원본 텍스트에서는 3.66이 평균보다 높은 성적이라고 언급되었으나, 생성된 응답에서는 이를 상대적으로 낮은 점수로 잘못 평가하고 있습니다. 또한, 경찰행정학전공의 합격 가능성에 대한 정보도 원본과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관성이 부족합니다. 원본에서는 3.66이 평균보다 높은 성적이라고 명시했지만, 생성된 응답에서는 이를 낮은 점수로 간주하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 다루고 있지만, 원본의 핵심 정보와는 다소 거리가 있습니다. 합격 가능성에 대한 다양한 요소를 고려하는 것은 유용하지만, 원본의 주된 메시지를 충분히 반영하지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 부족하여 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 수능 성적에 대한 해석이 잘못되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 잘못된 해석으로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 원본과 상충하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.6298891276980862</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>2024학년도 입학사정관제의 경우, 각 모집단위별로 수능과 교과학습발달상황 등이 반영되므로 정확한 합격 가능성을 예측하기는 어렵습니다. 그러나 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **수능 성적**: 3.66이라는 평균점수는 상대적으로 낮은 편입니다. 경찰행정학전공의 경우, 일반적으로 높은 수능 점수가 요구되므로 이 점수로 합격하기는 어렵다고 볼 수 있습니다.
+2. **교과학습발달상황**: 교과학습발달상황 부분에서는 학업태도와 성취정도, 출결 등이 반영됩니다. 3.66이라는 평균점수를 유지하면서도 꾸준한 노력과 긍정적인 학업 태도가 보여진다면 이 부분에서 좋은 점수를 받을 수 있습니다.
+3. **공동체역량**: 농어촌 전형의 경우, 공동체 참여와 협력 능력 등이 중요합니다. 활발한 동아리 활동이나 봉사활동 등의 경험을 잘 기재한다면 이 부분에서 좋은 평가를 받을 수 있습니다.
+4. **전공적합성**: 지원하는 전공과 관련된 학업의지와 열정, 그리고 관련 활동 경험이 중요합니다. 이 부분에서도 자신의 관심사와 열정을 잘 표현하면 좋습니다.
+5. **추천서 및 자기소개서**: 추천서나 자기소개서에서 자신의 장점과 지원 동기를 잘 설명한다면 이 부분에서 좋은 평가를 받을 수 있습니다.
+결론적으로, 3.66이라는 점수로는 경쟁이 치열한 경찰행정학전공에 합격하기 어렵다고 볼 수 있지만, 교과학습발달상황과 공동체역량 등 다른 부분에서 좋은 평가를 받을 수 있다면 기회는 있을 수 있습니다. 따라서, 서류 준비 과정에서 자신의 장점을 잘 표현하고, 가능한 한 많은 활동 경험이나 관련성 있는 경험을 기재하는 것이 중요합니다.
+추천드리고 싶은 것은 입학사정관제의 경우, 서류 평가가 중요한 만큼 철저한 준비와 자세를 갖추는 것이 중요하다는 점입니다. 또한, 학교 홈페이지나 입학처에 문의하여 최신 정보와 조언을 얻어보시는 것도 도움이 될 것입니다.
+더 궁금하신 사항이나 추가적인 도움이 필요하시면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 25번의 상황에 대한 여러 요인을 언급하고 있지만, 원문에서 제공된 특정 학과 목록에 대한 언급이 없고, 예비 등록자의 합격 가능성에 대한 구체적인 정보가 부족합니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부분 일치하지만, 원문에서 제시된 특정 학과에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 예비 등록자의 합격 가능성에 대한 일반적인 설명은 있지만, 원문과의 일관성은 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비 등록자의 합격 가능성에 대한 여러 요인을 다루고 있어 관련성이 높습니다. 그러나 원문에서 제시된 특정 학과 목록에 대한 언급이 없기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 설명하고 있습니다. 그러나 원문과의 연결이 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 예비 등록자의 합격 가능성에 대한 일반적인 정보를 제공하지만, 원문에서 제공된 구체적인 학과 목록이 누락되어 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 유창성과 관련성에서 높은 점수를 받았지만, 사실성과 일관성에서 다소 부족하여 전반적인 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문의 맥락에 적절하게 의미를 전달하고 있지만, 특정 학과에 대한 정보가 누락되어 있어 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉽게 작성되어 있어 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.4605092784349874</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>25번의 예비 등록자는 경쟁률이 상당히 높습니다. 하지만 정시 모집에서 붙는 것은 가능성이 있습니다. 여러 요인들이 결과에 영향을 미치기 때문입니다.
+1. **경쟁률**: 현재 25명이 예비 등록자로 선정되었다면, 이는 경쟁률이 높다는 것을 의미합니다. 하지만 아직 최종 합격자가 발표되지 않았으므로, 일부 예비 등록자는 탈락할 수 있습니다.
+2. **최종 합격자 발표**: 최종 합격자 발표 시점에 따라 예비 등록자의 수가 줄어들 수 있습니다. 따라서, 최종 합격자 발표 후 다시 확인해보는 것이 좋습니다.
+3. **개인 성적 및 서류 평가**: 개인의 수능 점수와 서류 평가 결과도 중요합니다. 만약 개인의 성적이 높고 서류 평가에서 좋은 점수를 받았다면, 최종 합격 가능성은 있습니다.
+4. **면접 성적**: 면접에서도 좋은 성적을 받으면 경쟁력을 높일 수 있습니다.
+5. **추천서 및 특기사항**: 추천서나 특기사항 등이 긍정적으로 평가받는다면, 합격 가능성은 더욱 높아질 수 있습니다.
+따라서, 현재 상황에서 확실한 것은 아닙니다. 최종 결과를 기다리면서 개인의 성적과 서류 준비를 철저히 하는 것이 좋습니다. 필요하다면 입학처에 문의하여 자세한 정보를 얻어보는 것도 방법입니다.
+추가적으로, 입학사정관들이 평가하는 요소들을 잘 준비하고, 면접에서도 자신감 있게 대응한다면 좋은 결과를 기대할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 법경찰행정학부에 대한 잘못된 정보를 포함하고 있으며, 해당 학부가 존재하지 않는다는 사실을 무시하고 있습니다. 또한, 성적 평균에 대한 정보도 잘못된 학과를 기준으로 제시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 법경찰행정학부에 대한 언급이 있으며, 이는 원본 텍스트에서 명확히 부정된 내용입니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교의 정시 모집에 대한 정보를 제공하지만, 법경찰행정학부에 대한 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다. 원본 텍스트의 핵심 내용과는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용의 정확성과 관련성 부족으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 응답의 구조는 명확하지만, 잘못된 정보로 인해 논리적인 일관성이 떨어집니다. 법경찰행정학부에 대한 언급이 원본 텍스트와 상충하여 혼란을 초래합니다.
+6. Accuracy Score (1-5): 1
+   - 응답은 사실과 크게 다르며, 법경찰행정학부의 존재 여부와 관련된 정보가 잘못되었습니다. 성적 평균에 대한 정보도 신뢰할 수 없습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 품질 차원에서 낮은 점수를 받으며, 사실성, 일관성, 관련성, 정확성 모두에서 심각한 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 일부 적절한 부분이 있으나, 잘못된 정보로 인해 전체적인 맥락에서 부적절한 부분이 많습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해하기 쉬운 편이나, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.7482387677863915</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 법경찰행정학부의 정시 모집요강을 바탕으로 추측해보겠습니다.
+1. **전형별 모집인원 및 지원 경쟁률**:
+   - 일반학생전형: 모집 인원이 7명이며, 경쟁률은 매우 높을 것으로 예상됩니다.
+   - 나군 학생부교과(농어촌학생전형): 모집 인원이 0명으로, 이 전형으로는 안정적인 진학이 어렵습니다.
+2. **성적 평균**:
+   - 정시에서 안정적으로 합격하기 위해서는 국어 + 수학 + 탐구(2개)의 표준 변환 점수가 높아야 합니다.
+   - 2023년도 동의대학교 상경대학 금융경영학과의 경우, 최종 등록자의 평균 점수는 276.77점이었습니다 (국어 + 수학 + 탐구).
+   - 법경찰행정학부는 경쟁률이 높을 것으로 예상되므로, 이보다 더 높은 점수가 필요할 것입니다.
+3. **추천 점수**:
+   - 안정적인 합격을 위해서는 290점 이상의 표준 변환 점수를 받는 것이 좋습니다.
+   - 경쟁률이 매우 높다면, 300점 이상을 목표로 하는 것이 더 안전할 수 있습니다.
+4. **추가 팁**:
+   - 학생부 교과 성적도 중요합니다. 특히 사회 과목의 등급이 높은 것이 유리합니다.
+   - 출결 및 실기 점수도 고려해야 합니다 (물론 이 전형에서는 해당 항목이 없습니다).
+따라서, 법경찰행정학부에 정시로 안정적으로 합격하기 위해서는 **290점 이상의 표준 변환 점수**를 받는 것이 바람직하며, 경쟁률이 매우 높다면 300점 이상을 목표로 하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2024년도 동의대학교 보육가정상담학과의 모집군과 수능 성적 반영 방식에 대한 정보를 제공하고 있으며, 지원자의 성적과 경쟁률에 대한 분석도 포함되어 있습니다. 그러나 원본 텍스트에서 언급된 아동학과의 평균 등급과 관련된 정보는 포함되어 있지 않아 일부 사실이 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 아동학과의 평균 등급에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 또한, 보육가정상담학과와 아동학과의 관계에 대한 명확한 설명이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 잘 다루고 있으며, 지원자의 성적과 합격 가능성에 대한 분석을 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 정보가 자연스럽게 연결되어 있습니다. 그러나 아동학과와 보육가정상담학과의 관계에 대한 명확한 설명이 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적 반영 방식과 경쟁률에 대한 정보를 정확하게 제공하고 있습니다. 그러나 아동학과의 평균 등급에 대한 정보가 누락되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일부 사실의 누락으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 아동학과와의 관계에 대한 명확한 설명이 부족하여 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 가독성이 떨어질 수 있습니다. 따라서 명확성과 이해 가능성에서 좋은 점수를 받았습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.5886757023062403</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 보육가정상담학과의 경우, 정시 모집군은 "가"군(일반학생전형)이며, 수능 성적 반영 방식은 다음과 같습니다:
+- 국어 표준점수 + 
+- 수학 표준점수 + 
+- 영어 등급 점수 (등급에 따른 변환점수)
+- 탐구 표준점수
+합격 가능성을 판단하기 위해서는 지원자의 성적과 모집단위의 경쟁률, 평균 점수 등을 고려해야 합니다.
+주요 정보:
+1. 정시모집군: 가군 (일반학생전형)
+2. 수능 반영 영역 및 비율: 국어 25%, 수학 25%, 영어 25%, 탐구 25%
+3. 지원자의 수능 등급 점수: 영어 5.33
+영어 등급의 경우, 5.33은 107점에 해당합니다 (참조: 제공된 정보에서 확인 가능).
+다음으로, 보육가정상담학과의 경쟁률과 평균 점수를 살펴보겠습니다:
+- 2024년 모집인원: 2
+- 지원 인원: 13
+- 경쟁률: 6.5 : 1 (약 7대 1)
+- 충원 합격자: 2명
+2024학년도 최종등록자의 수능 성적 평균을 확인해보면:
+- 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 약 315.87
+- 영어 등급의 평균: 4.69
+지원자의 영어 등급 점수가 107점으로, 평균보다 낮지만 다른 과목 성적이 높다면 합격 가능성은 있습니다.
+결론적으로:
+- 지원자의 영어 점수는 평균보다 낮습니다.
+- 그러나 다른 과목의 성적과 지원자의 전반적인 경쟁력을 고려하면, 합격 가능성이 있지만 확실하지 않습니다.
+- 경쟁률이 높고, 모집인원이 적기 때문에, 지원자의 전체 성적이 매우 뛰어나야 합격할 수 있습니다.
+따라서, 지원자가 다른 과목에서도 좋은 성적을 보였다면 합격 가능성은 있으나, 단순히 영어 점수만으로는 불확실합니다. 자세한 정보와 전반적인 성적 분석이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "예비 12번을 받았다는 것은 이미 충원 합격자 명단에 포함되어 있다는 의미입니다."라는 부분은 다소 오해의 소지가 있으며, 예비 번호가 충원 합격자 명단에 포함된 것은 아닙니다. 따라서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 예비 번호에 대한 해석에서 일관성이 부족합니다. 원본 텍스트는 예비 번호가 충원 합격 가능성을 나타내지만, 생성된 응답은 예비 번호가 이미 합격자 명단에 포함되었다고 주장하고 있어 모순이 발생합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 예비 번호와 충원 합격 절차에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 예비 번호에 대한 설명에서 약간의 혼란이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 예비 번호에 대한 해석에서 약간의 부정확성이 있습니다. 
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있지만, 일관성과 정확성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 예비 번호에 대한 해석에서 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.7586173324721499</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 각 모집단위별로 충원 합격 절차가 진행되며, 이 과정에서 여러 요인들이 합격 여부를 결정합니다. 예비 12번을 받았다는 것은 이미 충원 합격자 명단에 포함되어 있다는 의미입니다.
+하지만 최종적으로 학교측이 발표하는 합격자 명단까지 확인해야 합니다. 따라서 다음과 같은 절차와 정보가 도움이 될 수 있습니다:
+1. **최종 합격자 발표 일정**: 2024년 2월 15일(목) 19:00부터 20일(화) 18시까지입니다.
+2. **발표 방식**: 홈페이지에서 개별 조회 가능합니다.
+3. **고지서 교부**: 홈페이지에서 출력하거나 입학관리팀에서 수령 가능합니다.
+이러한 절차를 통해 최종 합격 여부를 확인할 수 있습니다. 만약 아직 최종 발표가 이루어지지 않았다면, 동의대학교 입학 안내 홈페이지를 주기적으로 확인하시거나, 입학관리팀에 문의하시는 것이 좋습니다.
+또한, 충원 합격자 3차 이후에는 개별 전화 통보도 이루어질 수 있으므로, 핸드폰 번호 등 연락처가 정확하게 입력되어 있는지 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 유아교육학과의 경쟁률과 성적 분포에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 유아교육학과의 평균 성적(4.18)과 4.75의 성적이 지원하기 어려운 이유를 명확히 반영하지 못하고 있습니다. 또한, 경쟁률에 대한 정보가 원본 텍스트에 없으므로 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 많습니다. 특히, 경쟁률과 성적 분포에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용인 4.75 성적에 대한 지원 가능 여부와 관련된 정보가 부족합니다. 따라서 관련성은 있지만, 핵심 질문에 대한 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요소를 다루고 있지만, 정보의 흐름이 다소 불명확하여 일관된 주제를 유지하지 못하고 있습니다. 특히, 경쟁률과 성적 분포에 대한 정보가 원본 텍스트와 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보(경쟁률, 성적 분포 등)를 포함하고 있어 정확성이 낮습니다. 원본 텍스트의 핵심 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이는 다차원적인 품질 평가에서도 낮은 점수로 이어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 정보의 흐름이 다소 불명확하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.6897424460873322</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 영어 등급은 상당히 높은 점수입니다. 2024년도의 경우, 많은 모집단위에서 수능 성적이 학생들의 경쟁력을 크게 좌우하는 요소로 작용합니다.
+유아교육학과에 대해 살펴보면:
+1. **경쟁률**: 유아교육학과는 지원 인원이 4명이고, 지원 인원은 23명으로 높은 경쟁률을 보입니다 (경쟁률 5.75).
+2. **성적 분포**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 321.00
+   - 영어 등급의 평균: 6.33
+4.75라는 영어 등급은 이 평균보다 훨씬 높습니다. 따라서, 수능 성적으로는 유리한 위치에 있습니다.
+하지만, 유아교육학과에서는 학생부와 면접도 중요한 요소로 작용합니다:
+- **학생부**: 공동체역량, 학업역량, 전공적합성 등이 평가됩니다.
+- **면접**: 지원동기 및 학업계획, 학업역량, 전공적합성 등을 평가합니다.
+따라서, 4.75의 영어 성적이 유리한 점수일 수 있지만, 학생부와 면접에서도 좋은 결과를 내야 합니다. 특히, 유아교육에 대한 열정과 관련된 활동이나 경험을 잘 보여줄 필요가 있습니다.
+결론적으로, 4.75의 영어 성적은 유리한 점수지만, 학생부와 면접에서 좋은 평가를 받는 것이 중요합니다. 준비를 철저히 하여 모든 요소를 최대한 활용하는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 경쟁률과 등급 평균에 대한 정보를 제공하고 있으며, 환산등급 4.16에 대한 평가도 적절하게 이루어졌습니다. 그러나 일부 세부사항이 정확하지 않거나 구체적인 데이터가 부족하여 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 보육가정상담학과의 신설 여부와 관련된 정보가 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 핵심 정보와는 다소 다른 방향으로 전개되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 보육가정상담학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있습니다. 그러나 일부 부분에서 논리적 연결이 약간 부족할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하여 적절한 평가를 하고 있지만, 일부 세부사항이 정확하지 않거나 구체적인 데이터가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부사항에서 부족함이 느껴집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 적절한 의미를 전달하고 있습니다. 다만, 일부 추가 정보가 원본 텍스트와의 일관성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.5356538896119879</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시 모집에서 보육가정상담학과의 경쟁률과 등급 평균을 고려해보겠습니다.
+1. **최근 경쟁률 및 등급 평균**:
+   - 보육가정상담학과는 2024년도에 신설되었으며, 정확한 최근 경쟁률이나 등급 평균 데이터를 찾기 어렵습니다.
+   - 그러나 다른 인문사회과학대학의 학과와 비교해볼 수 있습니다. 예를 들어, 국어국문학과나 중어중국학과 등의 경쟁률과 등급을 참고할 수 있습니다.
+2. **경쟁률 및 등급 평균**:
+   - 예를 들어, 2024년도 인문사회과학대학의 국어국문학과는 지원인원이 37명이고 충원 합격자는 17명으로 경쟁률은 약 2.18입니다.
+   - 이 경우 평균 등급은 4.00대를 넘지 않는 것으로 보입니다.
+3. **당신의 환산등급**:
+   - 당신의 환산등급이 4.16이라면, 이는 약간 높은 수준입니다.
+   - 경쟁률과 평균 등급을 고려할 때, 4.16의 등급은 충분히 좋은 위치에 있습니다.
+4. **추합까지 생각**:
+   - 추합까지 포함하면, 학교생활기록부와 면접 등의 요소가 추가로 평가됩니다.
+   - 이들 요소는 개인적인 특성과 역량을 종합적으로 판단하므로, 좋은 서류평가와 면접 성적이 있다면 더 높은 확률로 합격할 수 있습니다.
+5. **결론**:
+   - 현재의 환산등급 4.16은 경쟁률과 평균 등급을 고려하면 충분히 좋은 위치입니다.
+   - 추합까지 포함한다면, 서류평가와 면접 성적이 좋다면 합격 가능성은 높습니다.
+따라서, 당신의 환산등급 4.16은 보육가정상담학과 일반학생전형으로 충분히 합격 가능성이 있습니다. 추합까지 잘 준비한다면 더 높은 확률로 합격할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문 내용을 완전히 무시하고, 정시에 지원하기 위한 정보와 요구사항을 제공하고 있습니다. 이는 원문과 상충되는 정보로, 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서는 정시 지원이 불가능하다고 명시했으나, 생성된 응답에서는 정시 지원을 위한 정보가 제공되고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 관련이 없으며, 정시 지원이 불가능하다는 사실을 무시하고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 반대되는 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 원문의 맥락을 완전히 무시하고 있습니다. 따라서 의미적 적절성 점수는 매우 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 부적절함으로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.4574962169071786</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과를 정시로 지원하려는 경우, 주요 정보와 요구사항을 다음과 같이 요약할 수 있습니다:
+1. **모집단위 및 모집인원**:
+   - 단과대학: 공과대학
+   - 계열: 공학
+   - 모집단위: 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+   - 모집인원: 45명
+2. **전형요소 반영비율**:
+   - 수능: 100%
+3. **수능 성적 평균 및 분포**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 450.71
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 398.26
+4. **지원 자격**:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+   - 정시모집군: 다군
+5. **전형요소 반영비율**:
+   - 실기/실적(경기실적우수자전형): 수능 100%
+따라서, 소프트웨어융합학과를 정시로 지원하려면 다음과 같은 점수대를 목표로 설정할 수 있습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 450 이상
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 398 이상
+이러한 평균 점수는 2024학년도의 경쟁률과 모집인원을 고려하여 추정된 수치이며, 실제 입시 결과와 지원자의 개인 성적에 따라 달라질 수 있습니다. 따라서 최종적인 합격 가능성은 수능 실적 외에도 지원자들의 경쟁력을 종합적으로 평가받는 점을 기억해야 합니다.
+추가적으로, 정시모집의 경우 경쟁률이 높아지므로, 가능하다면 추가로 수능 외에 다른 전형(예: 학생부종합 등)을 준비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 포함하고 있지만, 원본 텍스트에서 언급된 서류 평가의 구체적인 항목(공동체 역량, 학업 역량, 전공 적합성)에 대한 언급이 부족합니다. 또한, 면접 점수와 세특의 중요성에 대한 설명이 추가되었으나, 원본 텍스트의 핵심 정보를 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 면접 점수와 세특의 중요성에 대한 추가 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 서류 평가 항목이 누락되어 있어, 전체적으로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 소프트웨어융합학과에 지원할 때의 평가 요소에 대한 정보를 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 서류 준비 사항에 대한 언급이 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 문장 구조와 표현이 매끄럽고 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 원본 텍스트의 핵심 정보가 누락되어 있어 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 구체적인 평가 기준과 서류 준비 사항에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못한 점에서 다소 아쉬움이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 맥락에 적합한 의미를 전달하고 있으나, 일부 정보가 누락되어 있어 완전한 적합성을 갖추지 못하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 내용을 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.5931343058980298</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>2024학년도의 학생부종합 평가에서 소프트웨어융합학과에 지원할 때, 면접 점수와 세특(세부 능력 및 특기사항) 내용 모두 중요하게 평가됩니다. 특히 세특 부분은 지원자의 실질적인 능력과 경험을 보여주는 중요한 요소로 간주되므로 충분히 준비하는 것이 좋습니다.
+### 면접 점수와 세특의 중요성
+- **면접 점수**: 면접에서는 지원동기, 학업역량, 전공적합성 등에 대한 질문이 주어집니다. 이때 지원자의 답변 내용과 태도가 중요한 평가 기준이 됩니다.
+- **세특 내용**: 세특는 지원자가 실제로 어떤 활동을 했고, 그 활동에서 어떤 능력을 발휘했는지를 보여주는 부분입니다. 특히 소프트웨어 관련 학과에서는 프로그래밍 경험, 알고리즘 이해력 등 실질적인 기술적 능력을 강조하는 것이 중요합니다.
+### 서류 준비
+- **학생부 온라인 제공 동의**: 고교 졸업(예정)자는 학생부 온라인 제공 동의를 하면 추가로 서류 제출이 필요하지 않습니다. 
+- **검정고시 출신자 / 외국고교 졸업(예정)자**: 이들은 검정고시 합격증서, 성적증명서 등이 필요합니다.
+- **외국고교 졸업(예정)자**: 공증받은 외국고교 졸업(예정)증명서, 성적증명서가 필요하며, 아포스티유 확인이나 영사확인도 필요할 수 있습니다.
+### 세특 준비 방법
+1. **실제 경험 강조**: 실제 프로젝트나 활동을 통해 얻은 경험과 그 결과를 구체적으로 기재해야 합니다.
+2. **기술적 능력 보여주기**: 소프트웨어 관련 학과에서는 프로그래밍 언어 사용 경험이나 알고리즘 이해 등 기술적 능력을 강조하는 것이 중요합니다.
+3. **팀워크와 협업 경험**: 프로젝트에서의 팀워크와 협업 경험도 중요한 부분으로 평가되므로 이를 잘 보여주는 내용을 포함시켜야 합니다.
+### 참고사항
+- **서류 진위 여부 검증**: 면접 시 서류평가 결과를 확인하기 위해 작성된 면접 질문지를 활용하여 제출서류의 진위 여부를 검증받으니, 이 점도 고려해야 합니다.
+- **불필요한 내용 피하기**: 학교생활기록부 기재 영역과 상관없는 내용이나 과장된 내용은 피하는 것이 좋습니다.
+이러한 준비를 통해 지원자의 실질적인 능력과 경험을 효과적으로 전달할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 성적에 대한 정보가 잘못 전달되었습니다. 원본 텍스트에서는 4.12가 평균 성적이라고 명시되어 있지만, 생성된 응답에서는 325.15라는 다른 수치를 언급하고 있습니다. 이는 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 4.08의 성적이 평균 성적에 비해 약간 높은 수준이라고 언급하고 있지만, 생성된 응답에서는 다른 수치와 경쟁 비율에 대한 정보로 혼란을 주고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 입학 가능성에 대한 질문에 대한 답변을 시도하고 있지만, 제공된 정보가 원본 텍스트와 관련이 적고, 주제에서 벗어난 내용이 포함되어 있습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 언어가 중국어로 되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 전체적으로 논리적인 흐름이 부족합니다. 원본 텍스트의 핵심 내용을 반영하지 못하고, 다른 정보로 인해 혼란을 초래하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다. 특히 평균 성적에 대한 잘못된 수치가 제시되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성, 정확성 모두에서 부족함이 드러나며, 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보가 포함되어 있어 의미적으로 부적절합니다. 원본의 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 혼란스러워서 명확하게 이해하기 어려운 부분이 있습니다. 특히, 다른 수치와 정보가 혼합되어 있어 명확성이 떨어집니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.5354619681205905</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **2024年东国大学软件工程学部的录取情况**：根据您提供的信息，2024年东国大学软件工程学部（ICT融合工科学院）的招生情况如下：
+   - 最终注册人数：51人
+   - 招生名额：30人
+   - 竞争比：4.25
+   - 平均综合标准转换总分：325.15
+2. **您的成绩**：您提到的综合标准转换总分为4.08。
+3. **比较分析**：
+   - 您的成绩（4.08）高于该学部2024年的平均综合标准转换总分（325.15）。
+   - 竞争比为4.25，意味着录取率相对较低。
+基于以上信息，您的成绩在统计上是较高的。然而，最终能否被录取还取决于其他因素，如：
+- 具体的招生名额分配
+- 是否有特殊政策或优先考虑某些考生（例如，特定地区、特定学校等）
+- 学校的具体录取标准和流程
+总体来看，您的成绩处于较高水平，有很大的机会被该学部录取。建议您关注东国大学发布的最新招生信息，并按照要求准备相关材料。
+如果您还有其他具体问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 제공된 정보와 상충하는 내용이 포함되어 있습니다. 예를 들어, 정원외 모집인원과 지원 인원에 대한 정보는 원문에 포함되어 있지 않으며, 이러한 세부사항은 사실이 아닐 수 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보(정원외 모집인원, 지원 인원 등)를 포함하고 있어 일관성이 부족합니다. 원문에서는 합격 등급 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 수치를 제시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원문에서 언급된 내용과는 다소 차이가 있습니다. 그러나 전반적으로 주제와 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결성이 떨어져서 전체적으로 일관된 주제를 유지하지 못하고 있습니다. 정보가 분산되어 있어 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 정보와 상충하는 세부사항을 포함하고 있어 정확성이 떨어집니다. 특히, 정원외 모집인원과 지원 인원에 대한 정보는 확인할 수 없는 내용입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 부족함이 있으며, 이러한 점들이 종합적으로 반영되어 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원문과의 일치성이 떨어져서 의미적으로 적절하지 않은 부분이 있습니다. 특히, 구체적인 수치와 정보가 원문과 다르게 제시되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 정보의 일관성이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.6344234253645015</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2024학년도 학생부종합(조기취업형계약학과전형)에서 소프트웨어융합학과의 정원외 모집인원은 7명이며, 지원 인원이 45명으로 높은 경쟁률을 보였습니다. 평균 등급은 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 306.69이고, 영어 등급의 평균은 4.17이며, 수능 4개 영역 등급의 평균은 4.88입니다.
+이러한 데이터를 바탕으로 볼 때, 정시 모집에서 5등급을 받는 것은 상대적으로 낮은 점수로 판단할 수 있습니다. 그러나 이전 연도와 비교했을 때, 소프트웨어융합학과의 경쟁률이 높아졌기 때문에, 5등급으로 지원하더라도 충원 합격 가능성은 매우 낮습니다.
+따라서, 2024학년도에 소프트웨어융합학과를 정시로 지원하는 경우 5등급을 받는 것은 적절하지 않을 것으로 보입니다. 대신 더 높은 등급을 목표로 설정하거나 다른 전형을 고려해볼 필요가 있습니다.</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 신소재공학과의 입학 기준에 대한 정보를 제공하고 있으며, 성적에 대한 분석도 포함되어 있습니다. 그러나 원본 텍스트에서 제공된 정보와는 다소 차이가 있어, 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 성적의 중요성에 대한 강조가 다소 다르게 표현되어 있습니다. 특히, 영어 성적에 대한 언급이 원본 텍스트와는 다른 방향으로 진행되고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 신소재공학과의 입학 기준에 대한 정보를 잘 다루고 있습니다. 질문에 대한 적절한 답변을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 부분에서 논리적 연결이 약간 부족할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 작성되었으나, 특정 세부 사항에서 정확성이 떨어질 수 있습니다. 예를 들어, 영어 성적에 대한 추정이 원본 텍스트와는 다르게 해석되었습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현에서 의미가 다소 변형되어 전달될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.5814982589358662</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>4.28이라는 영어 등급은 대략 107점 정도로 추정됩니다(영어 등급별 점수 변환표를 참조하면 됩니다). 하지만 성적이 단순히 한 영역만 높다고 해서 학과에 입학할 수 있는 보장이 없습니다. 신소재공학부는 주요 반영 영역이 국어, 수학, 영어, 탐구 등 다양하기 때문에 전체적인 성적 평균을 고려해야 합니다.
+다음은 신소재공학부의 일반적인 입학 기준을 요약하면 다음과 같습니다:
+1. **전반적인 성적 평균**: 4개 영역(국어, 수학, 영어, 탐구)의 표준점수와 등급 점수를 반영합니다.
+2. **특히 중요한 영역**: 수학과 탐구는 신소재공학과 관련이 깊기 때문에 중요하게 평가됩니다.
+현재 주신 정보만으로는 확실한 답변을 드리기는 어렵습니다. 하지만 다음과 같은 점들을 고려해볼 필요가 있습니다:
+- **수학 성적**: 수학은 신소재공학과 직결된 학문이므로 높은 점수가 중요합니다.
+- **탐구 영역**: 탐구는 과학이나 기술 관련 주제를 다루기 때문에 신소재공학과도 관련성이 있습니다.
+따라서 4.28이라는 영어 성적만으로는 충분하지 않을 수 있으며, 전체적인 성적이 높고 특히 수학과 탐구 영역에서 좋은 성적을 보여주어야 합니다.
+**추천 조치:**
+1. **전반적인 성적 분석**: 전체 4개 영역의 성적을 꼼꼼히 분석해보세요.
+2. **수학 및 탐구 영역 강화**: 이 두 영역에서 더 높은 점수를 얻는 방법을 고민해보세요.
+3. **추천서나 자기소개서 작성**: 입학사정관제를 도입한 학교에서는 추천서나 자기소개서도 중요한 요인으로 작용할 수 있으니 준비해보세요.
+더 자세한 정보나 추가적인 조언이 필요하시다면, 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 자기소개서가 필요하지 않다는 사실을 명확히 전달하고 있습니다. 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 자기소개서가 필요하지 않다는 점에서 모순이 없습니다. 모든 정보가 일관되게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 자기소개서의 필요성에 대한 질문에 직접적으로 답변하고 있습니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.6671241857600373</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2024년 동아대학교의 수능 일반학생전형에서는 자기소개서가 필요하지 않습니다. 
+주요 점검 사항:
+1. **제출 서류**: 학생부 온라인 제공 동의자에 한해 학생부를 온라인으로 제공 받을 수 있습니다.
+2. **평가 요소**: 
+   - 수능 성적 (국어, 수학, 영어 등급)
+   - 탐구 과목 성적
+3. **면접**: 필요하지 않습니다.
+따라서 자기소개서 작성은 필요하지 않으며, 주요 평가 기준은 수능 점수와 학교생활기록부입니다. 자세한 내용은 동아대학교 입학처 웹사이트를 확인하시거나 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 수능 정시 모집에 대한 여러 요인을 잘 설명하고 있으며, 4.5라는 점수가 합격 가능성에 미치는 영향을 다루고 있습니다. 그러나, 원문에서 언급된 특정 학과의 평균 등급과 표준 편차에 대한 구체적인 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문에서 제시된 정보와 일관되며, 합격 가능성을 평가하는 다양한 요소를 잘 설명하고 있습니다. 다만, 원문에서 강조된 각 학과의 평균 등급과 비교하는 중요성에 대한 언급이 부족하여 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다룬 주제와 매우 관련이 깊으며, 수능 점수와 입학 가능성에 대한 다양한 요인을 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창하게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 포인트가 명확하게 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전반적으로 정확하지만, 원문에서 제공된 특정 수치나 데이터에 대한 언급이 부족하여 약간의 정확성 결여가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 주제에 적합한 내용을 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.6055927945417564</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수가 주어졌을 때, 동의대학교에서 어떻게 입학할 수 있는지 결정하는 요인은 여러 가지가 있습니다. 아래에 몇 가지 중요한 포인트를 정리해 보겠습니다:
+1. 모집단위와 전형 유형:
+   - 어떤 단과대학과 학과를 지원했는지
+   - 일반학생전형, 농어촌학생전형 등 어떤 전형을 사용했는지
+2. 수능 성적 기준:
+   - 각 모집단위별로 정해진 최저 점수 기준은 무엇인지 확인해야 합니다.
+3. 학생부교과 성적:
+   - 일부 전형에서는 수능 성적이 아닌 학생부 교과성적이 더 중요할 수 있습니다.
+4. 추가모집 여부:
+   - 2024학년도에 동의대학교에서 추가모집이 진행되는지 확인해야 합니다.
+   - 추가모집 시점과 방법을 파악해야 합니다.
+5. 경쟁률:
+   - 지원한 모집단위의 경쟁률은 매우 중요합니다.
+   - 경쟁률이 높다면 4.5는 낮은 점수일 수 있습니다.
+6. 기타 평가 요소:
+   - 실기/실적, 학생부종합 등 다른 평가 항목에 대한 성적이 중요할 수 있습니다.
+7. 지원 자격 확인:
+   - 해당 모집단위와 전형의 지원 자격을 다시 한번 확인해야 합니다.
+추천 사항:
+1. 동의대학교 입학 홈페이지를 통해 최신 정보를 확인하세요.
+2. 지원한 단과대학과 학과별로 정해진 수능 점수 기준을 찾아보세요.
+3. 추가모집 여부와 방법에 대해 문의해 보세요.
+4. 경쟁률을 파악하고, 다른 평가 항목들에 대한 성적도 확인하세요.
+결론적으로 4.5라는 점수가 충분히 좋은 점수일 수 있지만, 정확한 판단을 위해서는 위와 같은 여러 요인들을 종합적으로 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과와 고분자나노공학과에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(영어 5.06, 수능 4개 영역 5.78)에 대한 직접적인 언급이 없고, 수능 성적 분석 결과에 대한 추정치가 포함되어 있어 일부 사실이 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 신소재공학과의 평균 등급에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 또한, 고분자나노공학과에 대한 정보는 원본 텍스트에 포함되어 있지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 신소재공학부에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 평균 등급에 대한 정보가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과와 고분자나노공학과에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 비교할 때 정확성이 떨어집니다. 특히, 평균 등급에 대한 정보가 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균 이상의 품질을 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으나, 원본 텍스트의 특정 세부사항이 누락되어 있어 완전한 의미 전달에는 한계가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어질 경우 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.6152411043878905</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>2024년도에 동의대학교에서 신소재공학과로 분리된 과정은 신소재공학과와 고분자나노공학과입니다. 하지만, 정확한 등급 기준을 제공하기 위해서는 해당 학과의 수능 성적 분포와 모집인원 등을 고려해야 합니다.
+2024년도 동의대학교의 수능 성적 분석 결과를 바탕으로 추정해보면:
+- **신소재공학과**:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 약 309.12에서 435.52 사이입니다.
+  - 이 중 가장 낮은 분위는 디지털콘텐츠학과에서 309.71이고, 가장 높은 분위는 소프트웨어공학부(컴퓨터소프트웨어공학)에서 432.67입니다.
+- **고분자나노공학과**:
+  - 이 과정의 수능 성적 정보가 제공되지 않았으므로, 신소재공학과와 유사한 범위를 가정할 수 있습니다.
+따라서, 일반적으로 동의대학교 신소재공학부에 합격하기 위해서는 **수능 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 309.12 이상**이어야 합니다.
+하지만, 이는 추정치이며 실제 모집인원과 경쟁률에 따라 달라질 수 있습니다. 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 가장 좋습니다. 또한, 최근 몇 년간의 수능 성적 분포와 경쟁률을 참고하여 더 정확한 예측을 할 수 있습니다.
+[참고 링크: https://ipsi.deu.ac.kr/main.do]</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 평균 점수와 관련된 정보를 제공하지만, 원본 텍스트에서 언급된 평균 점수(378.15점)와 비교할 때, 447점이 훨씬 높다는 점을 명확히 하지 않고 있습니다. 또한, 충원 합격자 수와 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 일부 사실이 추가되었지만 원본의 핵심 사실을 간과하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 신소재공학과의 평균 점수에 대한 언급이 부족하여 일관성이 떨어집니다. 원본 텍스트는 447점이 평균 점수보다 높다고 명확히 언급하고 있지만, 생성된 응답은 이를 간접적으로만 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 경쟁률과 충원 합격자 수에 대한 정보를 제공하여 관련성을 유지하고 있지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족합니다. 그러나 여전히 주제와 관련된 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 자연스럽고 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원본 텍스트의 핵심 정보와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 평균 점수와 관련된 정보가 누락되어 있어 정확성이 떨어집니다. 또한, 충원 합격자 수와 경쟁률에 대한 정보는 원본 텍스트와 직접적인 관련이 없습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 특히 유창성과 관련성에서 강점을 보입니다. 그러나 사실성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족하여 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.6570276171975282</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 특정 단과대학 및 모집단위별 경쟁률과 충원 합격자 정보를 바탕으로 분석해보겠습니다.
+주어진 정보에 따르면, 신소재공학과와 분자나노공학과는 다음과 같은 특징을 가지고 있습니다:
+1. **모집 인원**: 56명
+2. **지원 인원**: 81명
+3. **경쟁률**: 1.45
+4. **충원 합격 (후보순위)**: 25명
+이 정보를 바탕으로, 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았다면, 다음과 같은 요인들을 고려해야 합니다:
+1. **경쟁률**: 경쟁률이 1.45로 상대적으로 낮아서 많은 지원자가 충원 합격을 받을 가능성이 있습니다.
+2. **충원 합격자 수**: 25명으로, 전체 모집 인원의 약 45%에 해당합니다. 이는 경쟁률이 낮은 편이라 많은 지원자가 합격할 수 있는 여지가 있습니다.
+따라서, 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았다면, 현재 표준점수인 447점으로도 충원 합격이 가능할 수 있습니다. 하지만 확실한 것은 아니며, 실제 경쟁률과 지원자의 성적 분포에 따라 변동될 수 있습니다.
+**결론**: 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았다면, 현재 표준점수인 447점으로도 충원 합격이 가능할 수 있으나, 확실한 것은 아니며, 실제 경쟁 상황을 고려해야 합니다. 
+더 정확한 판단을 위해서는 동의대학교 입학처 웹사이트 또는 전화로 문의하시는 것이 가장 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교 신소재공학부의 경쟁률과 성적 평균에 대한 정보를 포함하고 있지만, 원본 텍스트에서 제공된 구체적인 평균 성적 수치와 비교할 때 다소 일반화된 내용으로 보입니다. 따라서 일부 사실이 누락되거나 정확하지 않을 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일치하는 부분이 있지만, 4.3 등급에 대한 언급이 원본 텍스트의 4.1~4.2 등급과의 비교와 일관되지 않습니다. 이로 인해 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학부에 지원하는 것과 관련된 여러 요소를 다루고 있어 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 성적 데이터와 비교할 때 다소 벗어난 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 내용이 원본 텍스트와의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 경쟁률과 성적 평균에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 비교할 때 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 다소 부족함이 있어 종합적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 적절한 내용으로 구성되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 표현이 많습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.5938329930390925</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 동의대학교에서 신소재공학부(공과대학, 공학계열)에 지원하는 경우, 현재로서는 경쟁이 매우 치열할 것으로 예상됩니다. 동의대학교의 수능성적 반영방법을 보면 국어, 수학, 영어 등급점수와 탐구 과목 표준점수가 반영되며, 가산점도 있습니다.
+신소재공학부는 일반적으로 높은 경쟁률을 보이는 학과 중 하나입니다. 4.1~4.2등급으로 지원하는 경우 다음과 같은 점들을 고려해야 합니다:
+1. **경쟁률**: 신소재공학부의 경쟁률이 매우 높습니다. 이는 수험생들이 이 학과에 많은 관심을 가지고 지원하기 때문입니다.
+2. **성적 평균**: 동의대학교의 성적 평균은 대체로 높기 때문에, 4.1~4.2등급으로 지원하는 것은 상대적으로 낮은 등급입니다.
+3. **가산점**: 수학(미적분 또는 기하) 응시자의 경우, 수학 취득 표준점수의 10% 가산점을 받을 수 있습니다. 이는 성적이 높지 않은 지원자에게 유리한 요소일 수 있습니다.
+4. **전형요소**: 서류평가와 면접 평가도 중요합니다. 학업역량, 전공적합성 등이 잘 반영되어야 합니다.
+5. **추천서 및 자기소개서**: 추천서나 자기소개서에서 자신의 강점을 잘 표현하고, 지원동기와 열정을 잘 전달하는 것이 중요합니다.
+6. **추가 활동**: 학교생활이나 동아리 활동 등 추가 활동이 있다면 이를 잘 보여줄 수 있어야 합니다.
+결론적으로 4.1~4.2등급으로 신소재공학부에 지원하려는 경우, 다음과 같은 조치를 취해보시는 것이 좋습니다:
+- **성적 향상**: 가능한 한 성적이 높아질 수 있도록 노력하세요.
+- **추천서 및 자기소개서 작성**: 잘 준비된 추천서와 자기소개서로 지원동기를 강조합니다.
+- **면접 준비**: 면접에서 자신의 학업역량과 전공적합성을 잘 보여줄 수 있도록 준비합니다.
+이러한 조치들을 통해 경쟁력을 높일 수 있을 것입니다. 하지만 여전히 매우 높은 경쟁률을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 성적 정보를 잘못 전달하고 있습니다. 예를 들어, "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균"이 403.85로 제시되었으나, 원본 텍스트에서는 301.87로 명시되어 있습니다. 이와 같은 여러 수치가 원본과 일치하지 않으며, 이는 사실성을 크게 저해합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 수치와 정보가 서로 다르며, 원본에서 제공된 정보와 상충하는 내용이 많습니다. 예를 들어, 영어 등급의 평균과 표준 편차도 원본과 다릅니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 성적 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 따라서 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 수치의 오류로 인해 내용의 신뢰성이 떨어지긴 하지만, 문장 자체는 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 수치와 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성, 일관성, 정확성에서 큰 문제를 가지고 있습니다. 따라서 전반적인 품질은 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제에 맞는 내용을 담고 있지만, 잘못된 수치로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.7260272330206682</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과 수능 일반학생전형에 대한 최종 등록자의 성적 정보를 제공해 드리겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 403.85
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 15.55
+- **영어 등급의 평균**: 4.53
+- **영어 등급의 표준 편차**: 0.80
+- **수능 4개 영역 등급의 평균**: 5.25
+- **수능 4개 영역 등급의 표준 편차**: 0.35
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 403.85
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차**: 15.55
+이 정보를 참고하여 자신의 성적과 경쟁률을 비교해보시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27의 성적에 대한 충원 합격 가능성을 평가하기 위해 여러 요소를 고려해야 한다고 언급하고 있지만, 원본 텍스트에서 제공된 구체적인 학과별 성적 평균과 표준 편차에 대한 정보는 포함되어 있지 않습니다. 따라서, 응답의 사실성이 다소 떨어진다고 평가할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 구체적인 학과별 성적 정보를 제공하지 않기 때문에 일관성이 부족합니다. 원본 텍스트에서 제시된 정보와의 일관성이 떨어진다고 볼 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 5.27의 성적에 대한 충원 합격 가능성을 평가하는 데 필요한 요소들을 언급하고 있어 관련성이 높습니다. 그러나 원본 텍스트에서 제공된 구체적인 학과 정보와 비교할 때 다소 부족한 점이 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽고 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 설명되어 있습니다. 그러나 원본 텍스트의 구체적인 데이터와 연결되지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 응답은 5.27의 성적에 대한 일반적인 평가를 제공하지만, 원본 텍스트의 구체적인 데이터와 비교할 때 정확성이 떨어집니다. 특히, 충원 합격 가능성에 대한 구체적인 수치적 정보가 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 잘 작성되었지만, 원본 텍스트의 구체적인 데이터와의 연결이 부족하여 전반적인 품질이 다소 떨어진다고 평가할 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 맥락에 적합합니다. 그러나 원본 텍스트의 구체적인 내용과 연결되지 않아 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.6233629818543002</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 영어 등급은 상당히 좋은 점수입니다. 하지만 정확한 추합 가능성 판단을 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **모집단위와 전형 유형**: 어떤 단과대학과 모집단위에 지원하는지, 일반학생전형인지, 학생부종합전형인지 등이 중요합니다.
+2. **모집인원 및 지원 인원**: 각 모집단위의 모집인원과 지원 인원을 확인해야 합니다. 경쟁률이 높은 곳에서는 좋은 성적이 있어도 충분히 합격할 수는 없습니다.
+3. **성적 분포**: 해당 단과대학과 모집단위의 지원자의 평균 및 표준편차를 고려해야 합니다. 예를 들어, 평균이 5.27 이상이고 표준편차가 작다면 경쟁률은 높을 수 있습니다.
+4. **전형요소**: 서류평가와 면접 등 다른 요인도 중요합니다. 특히 학생부종합전형에서는 성적이 아닌 학업역량, 전공적합성 등의 평가가 이루어질 수 있습니다.
+5. **특수전형**: 조기취업형계약학과전형이나 농어촌학생전형 등 특별한 전형도 고려해야 합니다.
+이러한 요소들을 종합적으로 고려하여 추정을 해보면:
+- **일반학생전형**: 5.27의 영어 점수는 상당히 좋은 성적입니다. 경쟁률이 높은 모집단위에서는 충분하지 않을 수 있지만, 평균이 낮거나 표준편차가 큰 모집단위에서는 가능성이 있습니다.
+- **학생부종합전형**: 이 경우에는 성적이 아닌 학업역량과 전공적합성 등 다른 요소들이 중요하므로, 좋은 학생부와 면접 성적이 필요합니다.
+따라서, 정확한 추정을 위해서는 해당 대학의 공식 홈페이지나 입학처에 직접 문의하는 것이 가장 좋습니다. 또한, 동의대학교의 2024학년도 정시 모집 정보를 확인하여 상세한 분석이 가능할 것입니다.
+[동의대학교 입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 직접 문의해보는 것이 가장 정확한 답변을 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 4.2라는 성적이 우수하다는 점과 소프트웨어공학부의 경쟁률 및 입학사정관들이 평가하는 요소들에 대해 언급하고 있습니다. 그러나 원문에서 제공된 평균 등급 정보(영어 등급 평균 3.77, 수능 4개 영역 등급 평균 4.49)에 대한 직접적인 언급이 없으므로, 완전한 사실성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 일관되게 4.2라는 성적이 높은 점수임을 강조하고 있으며, 입학 가능성에 대한 논의도 일관성을 유지하고 있습니다. 다만, 원문에서 제공된 구체적인 평균 등급 정보가 누락되어 있어 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 4.2라는 성적에 대한 입학 가능성 및 준비 사항에 대해 구체적으로 설명하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 잘 구성되어 있어 읽기 쉽고 유창합니다. 따라서 높은 유창성을 보입니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적인 흐름이 잘 유지되고 있으며, 각 항목이 명확하게 구분되어 있어 전체적으로 일관된 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 4.2라는 성적이 우수하다는 점을 정확하게 반영하고 있지만, 원문에서 제공된 평균 등급 정보에 대한 언급이 없으므로 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 일관성, 관련성, 유창성, 일관성에서 긍정적인 평가를 받았습니다. 그러나 평균 등급 정보의 누락으로 인해 약간의 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 잘 이루어져 있으며, 주제에 적합한 내용을 담고 있습니다. 따라서 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 내용을 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.5704063792723306</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>4.2라는 등급은 상당히 높은 점수입니다. 동의대학교 소프트웨어공학부는 일반적으로 경쟁률이 높고, 입학사정관들이 지원자의 학업역량과 전공적합성을 중점적으로 평가합니다.
+다음은 고려해볼 수 있는 사항들입니다:
+1. 성적: 4.2라는 등급은 매우 우수한 점수로, 이는 좋은 입학 가능성에 기여할 것입니다.
+2. 학업역량: 면접이나 서류평가에서 자신의 학업 역량과 전공 적합성을 잘 설명해야 합니다. 실제 경험과 노력, 관련 활동 등을 구체적으로 제시하는 것이 중요합니다.
+3. 전공적합성: 소프트웨어공학과와 관련된 활동 경험이나 관심사를 강조해야 합니다. 예를 들어 프로그래밍 코딩 경험이나 관련 동아리 활동, 인턴십 등을 언급할 수 있습니다.
+4. 면접 준비: 지원동기와 학업 계획을 명확하게 설명하고, 전공에 대한 진지한 관심과 열정을 보여주어야 합니다.
+5. 서류의 일관성: 제출된 모든 서류가 일관되게 자신의 적합성을 증명하도록 작성해야 합니다.
+6. 추가 자격증이나 수상 경력: 이와 관련된 자격증이나 수상 경력을 언급하면 좋습니다.
+결론적으로, 4.2라는 높은 등급은 좋은 기반을 제공하지만, 학업역량과 전공적합성을 잘 보여주는 서류와 면접 준비가 필요합니다. 지원자의 개인적인 경험과 열정이 입학사정관들에게 긍정적으로 인식될 수 있도록 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 제공하고 있으며, 3.92라는 점수에 대한 합격 가능성을 논의하고 있습니다. 그러나, 원본 텍스트에서 제공된 구체적인 평균 등급 수치(영어 4.82, 수능 5.73)를 명시하지 않고 일반적인 요소들에 대해 설명하고 있어 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 여러 요소를 고려해야 한다고 언급하고 있지만, 원본 텍스트의 구체적인 수치와 비교할 때 일관성이 떨어질 수 있습니다. 특히, 평균 등급에 대한 언급이 부족하여 일관성이 약간 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 화학환경공학부 일반학생전형에 지원 가능성에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 여러 요소를 고려해야 한다는 점에서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 여러 요소를 나열하며 논리적으로 연결되어 있습니다. 그러나 각 요소 간의 연결이 조금 더 명확했으면 좋았을 것입니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하여 합격 가능성을 평가하는 데 필요한 요소들을 잘 설명하고 있습니다. 그러나 원본 텍스트의 구체적인 수치를 포함하지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있습니다. 그러나 원본의 구체적인 수치가 누락되어 있어 완전한 적절성은 다소 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.5628207662397348</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>3.92라는 표준점수를 가지고 화학환경공학부 일반학생전형에 지원이 가능한지 판단하기 위해서는 몇 가지 요소들을 고려해야 합니다:
+1. 모집인원과 지원자 수: 현재 제공된 정보로는 해당 학과의 정원과 지원자의 수를 알 수 없습니다.
+2. 경쟁률: 특정 학과의 경쟁률을 확인해야 합니다. 경쟁률이 높다면 3.92라는 점수로 충분히 합격할 확률은 낮을 수 있습니다.
+3. 평균점수와 표준편차: 제공된 데이터에서 해당 학과의 평균점수와 표준편차를 확인해야 합니다. 이 정보가 없으면 정확한 판단이 어렵습니다.
+4. 전형방법: 일반학생전형의 경우, 수능 성적 외에도 다른 요소들이 고려될 수 있으므로 전체적인 합격 기준을 파악하는 것이 중요합니다.
+5. 추가요건: 일부 전형에서는 특정 점수 이상이 필요하거나, 추가 서류 제출 등이 요구될 수 있습니다.
+추천되는 방법은:
+- 동의대학교 입학처 웹사이트를 확인하여 해당 학과의 정시 모집 정보를 확인하세요.
+- 최근 몇 년간의 합격자 점수 분포를 찾아보세요.
+- 전형요강을 꼼꼼히 읽어보세요.
+이런 정보들을 종합적으로 고려하면 더 정확한 판단이 가능할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 정보를 제공하고 있지만, 일부 수치가 원본 텍스트와 일치하지 않거나 정확하지 않습니다. 예를 들어, 평균 국어 + 수학 + 탐구(2개) 표준 변환 점수 합이 269.13으로 언급되었으나, 원본 텍스트에서는 276.61로 제시되었습니다. 이러한 차이로 인해 사실성 점수는 3으로 평가됩니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 다른 수치와 정보가 상충하는 부분이 있습니다. 예를 들어, 평균 영어 등급이 원본 텍스트에서는 4.70인데 반해, 생성된 응답에서는 4.82로 다르게 제시되었습니다. 이러한 불일치로 인해 일관성 점수는 3으로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 수능 일반학생전형에 대한 질문에 적절하게 답변하고 있습니다. 따라서 관련성 점수는 5로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있어 유창성 점수는 4로 평가됩니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 원본 텍스트와 다르게 제시되어 논리적 흐름에 약간의 혼란을 줄 수 있어 일관성 점수는 4로 평가됩니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답의 일부 정보는 원본 텍스트와 일치하지 않으며, 특히 수치와 관련된 부분에서 정확성이 떨어집니다. 이러한 이유로 정확성 점수는 3으로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 관련성, 유창성, 일관성에서 좋은 점수를 받았지만, 사실성과 정확성에서 다소 부족함이 있어 다차원 품질 점수는 4로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 수치의 불일치로 인해 의미의 적절성 점수는 4로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보의 불일치로 인해 약간의 혼란을 줄 수 있어 이해 가능성 점수는 4로 평가됩니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.6894166507536622</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학공학과(화학환경공학부)는 수능 일반학생전형을 통해 모집하고 있습니다.
+수능 일반학생전형에 대한 기본적인 정보를 바탕으로 답변 드리겠습니다:
+1. 성적 요건:
+   - 4.25의 표준 변환 점수가 충분히 경쟁력을 갖추고 있습니다.
+   - 평균 경쟁률이 높은 편이므로, 조금 더 높은 점수를 추천드립니다.
+2. 모집인원 및 지원자 수:
+   - 화학공학과는 4명을 모집하며, 122명이 지원했습니다.
+   - 경쟁률은 약 30:1입니다.
+3. 성적 분포:
+   - 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 269.13
+   - 평균 영어 등급은 4.82
+4. 추천사항:
+   - 추가적으로 실적이나 특기사항을 강조할 수 있는 자료를 준비해보세요.
+   - 동의대학교의 전형요소 반영비율과 동점자 처리 기준 등을 확인하여 최선의 입학 가능성을 높이세요.
+결론적으로, 4.25의 표준 변환 점수는 경쟁력이 있지만, 화학공학과의 경우 경쟁률이 높아서 조금 더 높은 점수가 유리할 수 있습니다. 추가적인 지원 자료와 실적을 준비하여 최선을 다해보시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적에 대한 정보는 제공하지만, 4.0 등급을 받았다는 내용은 원본 텍스트에 명시된 4.2와 다릅니다. 또한, 실기와 면접의 중요성을 강조하고 있지만, 원본 텍스트에서는 이러한 요소에 대한 언급이 없습니다. 따라서 일부 사실이 정확하지 않거나 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 4.0 등급을 언급하면서 4.2라는 원본의 성적과 일치하지 않습니다. 또한, 실기와 면접의 중요성을 강조하는 부분은 원본 텍스트와 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 영화학과의 합격 가능성에 대한 질문에 대해 실기와 면접의 중요성을 언급하며 관련된 정보를 제공합니다. 그러나 원본 텍스트의 구체적인 성적 정보에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 실기와 면접의 중요성을 설명하는 부분이 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적에 대한 정확한 정보를 제공하지 않으며, 4.0 등급을 언급하는 것은 원본 텍스트와의 불일치입니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부 정보는 유용하지만, 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 영화학과의 합격 가능성에 대한 질문에 적절하게 반응하고 있으며, 실기와 면접의 중요성을 강조하는 것은 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 정보가 잘 전달되어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.6392081289855621</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>4.0 등급을 받았다면, 이는 좋은 성적입니다. 하지만 영화학과의 경우 실기와 면접이 중요하기 때문에 단순히 수능 점수만으로 합격 여부를 판단하기는 어렵습니다.
+영화학과의 특성상 다음과 같은 요소들이 중요한 역할을 합니다:
+1. **실기 성적**: 실제 실기 과목(예시: 촬영 기술, 편집 기술 등)에서의 성적이 중요합니다.
+2. **면접 성적**: 면접에서는 창의성과 표현력 등을 평가받습니다.
+3. **전형별 특성**: 나군 수능(일반학생전형)에서는 수능 점수와 실기/실적 비율이 100:0으로 설정되어 있지만, 실제 합격 기준은 종합적으로 판단됩니다.
+현재의 수능 성적이 좋은 만큼, 실기 과목에서 좋은 성적을 받고 면접에서도 창의적인 답변을 준비한다면 합격 가능성은 높습니다. 
+추가적으로:
+- **실기 준비**: 실제 실기 과목에 대해 충분히 준비해보세요.
+- **면접 준비**: 면접 질문 예상과 답변 연습을 해보세요.
+- **서류 준비**: 제출 서류는 정확하게 준비하고, 필요하다면 추가 자료를 준비하세요.
+입학사정관들이 종합적으로 평가하기 때문에, 단순 수능 점수만으로 판단하지 않고 다양한 요소들을 고려합니다. 따라서 실기와 면접에서도 최선을 다하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차를 정확하게 나열하고 있으며, 추가적으로 "이 절차는 모든 면접에서 동일하게 적용되며, 개별면접 방식으로 진행됩니다."라는 문장이 포함되어 있습니다. 이 문장은 일반적인 면접 절차에 대한 설명으로 적절하지만, 원본 텍스트에 명시된 내용은 아닙니다. 따라서 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차와 일치하며, 추가적인 설명이 포함되어 있지만, 이 설명이 원본 텍스트와 모순되지는 않습니다. 그러나 원본 텍스트에 없는 정보가 포함되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽힙니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 절차에 대한 설명이 일관되게 이어집니다. 따라서 매우 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 면접 절차에 대한 정보는 정확하지만, 추가된 설명이 원본 텍스트에 포함되어 있지 않기 때문에 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 원본 텍스트와의 완전한 일치가 부족하여 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 설명이 원본 텍스트에 포함되지 않은 정보이므로 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.8546895230688673</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접에서 동일하게 적용되며, 개별면접 방식으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/deuChatbot/research_result/version_2(3000_200).xlsx
+++ b/deuChatbot/research_result/version_2(3000_200).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21164,6 +21164,6874 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 구체적인 정보를 제공하지 않고, 일반적인 내용만을 언급하고 있습니다. 원본 텍스트의 구체적인 세부사항(모집단위, 실기종목, 배점, 준비물 등)을 전혀 반영하지 않고 있어 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 실기시험에 대한 구체적인 정보를 제공하는 반면, 생성된 응답은 그러한 정보가 포함되어 있지 않다고 주장하고 있습니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 일반적인 정보는 포함하고 있지만, 원본 텍스트의 구체적인 내용과는 관련이 적습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다. 따라서 중간 점수를 부여합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 잘못된 정보나 오해를 불러일으킬 수 있는 내용을 포함하고 있습니다. 따라서 정확성 점수가 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 일반적인 내용을 다루고 있지만, 원본 텍스트의 맥락과는 맞지 않아서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.6716125632034999</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보에는 디자인조형학과의 실기시험 내용이 포함되어 있지 않습니다. 디자인조형학과는 일반적으로 실기시험을 통해 학생들의 창의성, 기술적 능력 등을 평가하지만, 정확한 시험 내용은 대학마다 다를 수 있습니다.
+대부분의 대학에서는 실기시험에서 다음과 같은 요소들을 평가할 수 있습니다:
+1. **디자인 프로젝트**: 학생들이 주어진 주제나 문제에 대해 창의적인 디자인을 제시합니다.
+2. **도면 및 그림 그리기**: 정확한 도면 그리기와 다양한 종류의 그림 그리기를 평가합니다.
+3. **색채 사용**: 색상의 조화와 사용법을 평가합니다.
+4. **디지털 디자인 기술**: 컴퓨터 그래픽 소프트웨어를 활용한 디자인 능력을 평가합니다.
+정확한 실기시험 내용과 절차는 해당 대학의 입학처 웹사이트나 학부모 상담을 통해 확인할 수 있습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 종목별 배점(비율)인 700점(70%)에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 종목별 배점에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트에는 배점에 대한 정보가 없으므로, 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 내용을 모두 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 문장 간의 연결이 조금 더 매끄럽게 이루어질 수 있었던 점에서 약간의 개선 여지가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 종목별 배점에 대한 추가 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 종목별 배점에 대한 정보는 원본에 없으므로 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 좋은 점수를 받고 있습니다. 그러나 종목별 배점의 추가로 인해 약간의 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 종목별 배점에 대한 언급이 추가되어 있어 의미적으로 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 종목별 배점에 대한 추가 정보가 혼란을 줄 수 있어 이해 가능성에서 약간의 저하가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8412255217822486</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 '기초디자인, 사고의 전환'이며, 종목별 배점(비율)은 700점(70%)입니다.
+준비물은 다음과 같습니다:
+- 볼펜
+- 연필 
+- 색연필
+- 수채물감 등 표현에 필요한 도구
+실기주제는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 잠자리와 저울, 콜라병과 계절 등의 조합이 있습니다.
+화지크기는 켄트지3절이며, 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록이 정확하게 나열되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 대회에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 요청된 정보에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.8825534605669737</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 배드민턴(남)의 경우 다음과 같은 대회가 인정대회에 포함되어 있습니다:
+1. 한국중·고연맹회장기전국학생선수권대회
+2. 대한배드민턴협회장기전국종별배드민턴선수권대회
+3. 전국학교대항배드민턴선수권대회
+4. 전국종별배드민턴선수권대회
+5. 전국연맹종별배드민턴선수권대회
+6. 전국체육대회
+7. 각종국제대회 (주니어국제대회로 출전한 경우만 인정)
+8. 광역시·도 협회장기 종별대회
+축구(남)의 경우 다음과 같은 대회가 인정대회에 포함되어 있습니다:
+1.춘계한국고등학교축구연맹전
+2.추계한국고등학교축구연맹전
+3.대한축구협회장배전국고등학교축구대회
+4.문화체육관광부장관기전국고등학교축구대회
+5.문화체육관광부장관배전국고등학교축구대회
+6.백운기전국고등학교축구대회
+7.전국고등축구리그(권역별고교축구리그)
+8.전국고등축구리그왕중왕전
+9.무학기전국고등학교축구대회
+10.청룡기전국고등학교축구대회
+11.백록기전국고등학교축구대회
+12.금강대기전국고등학교축구대회
+13.대통령금배전국고등학교축구대회
+14.금석배전국고등학생축구대회
+15.부산MBC전국고등학생축구대회
+16.K리그 U18 챔피언십
+17.K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기록하면 경기지도학과의 모집에 인정받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 주제B의 내용이 원본 텍스트와 다릅니다. 원본 텍스트의 주제B는 "악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음"인데, 생성된 응답에서는 "콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼"로 잘못 기재되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 주제B의 내용이 다르기 때문에, 전체적으로 일관된 정보 제공이 이루어지지 않았습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 주제B의 잘못된 정보로 인해 일부 관련성이 떨어집니다. 그러나 주제A는 정확하게 언급되어 있어 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 주제B의 잘못된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제 선정 및 작품 제작 과정에 대한 설명이 명확합니다. 그러나 주제B의 오류로 인해 전체적인 일관성이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 주제B의 내용이 원본 텍스트와 다르기 때문에 정확성이 낮습니다. 주제A는 정확하지만, 주제B의 오류로 인해 전체적인 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점을 가지고 있지만, 주제B의 오류로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 주제B의 잘못된 정보로 인해 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 주제B의 오류로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.7810287490062346</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 중에서 각각 1개씩 선정하여 연결된 주제를 작성해야 합니다. 예시로 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+학생들은 당일에 추첨을 통해 선택된 주제를 사용하여 작품을 제작해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있지만, 추가적으로 언급된 "출결, 서류, 면접, 실기 등 관련 요소의 반영 비율은 모두 0%이며, 수능만이 100%로 반영됩니다." 부분은 출처에 명시되어 있지 않은 정보이므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 점에서 일관성을 유지하고 있지만, 추가적인 정보가 출처와 일치하지 않기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 출처의 주제와 관련이 있으며, 출결 점수에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있지만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 추가된 정보가 출처와 일치하지 않아 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 점수가 반영되지 않는다는 주장은 정확하지만, 추가된 정보는 출처에 명시되어 있지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있지만, 출처와의 불일치로 인해 일부 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 추가된 정보가 출처와 일치하지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.7310500226484852</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 학생부교과 전형에서 출결 점수는 반영되지 않습니다. 출결, 서류, 면접, 실기 등 관련 요소의 반영 비율은 모두 0%이며, 수능만이 100%로 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원 수와 전형에 대한 정보를 정확하게 반영하고 있습니다. '2024년'이라는 추가 정보는 사실과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.9301294051326514</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.8727976819421396</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학의 영어영문학과에서 다군 일반학생전형으로는 28명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 22명의 신입생을 선발한다고 명시되어 있지만, 생성된 응답에서는 110명이라고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본의 내용과 전혀 일치하지 않으며, 서로 모순되는 정보를 포함하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 주제와 관련이 있으며, 간호학과의 모집 인원에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 연결되어 있으며, 주제에 대한 일관된 설명을 제공합니다. 그러나 원본과의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 다르며, 모집 인원에 대한 정보가 잘못되어 있습니다. 원본 텍스트의 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았지만, 관련성과 유창성에서 어느 정도 점수를 얻었습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 의미적으로 부적절합니다. 원본 텍스트의 의미와 일치하지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.7162171703167729</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 점수를 정확하게 반영하고 있으며, 등급과 점수의 관계를 올바르게 설명하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 등급과 점수의 관계가 명확하게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 영어 등급에 따른 점수를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 약간의 어색한 표현이 있을 수 있습니다. 예를 들어, "등급이 1일 경우"와 같은 표현이 조금 더 자연스럽게 바뀔 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 등급에 대한 점수가 명확하게 나열되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.8382327035652879</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다.
+- 등급이 1일 경우, 점수는 139입니다.
+- 등급이 2일 경우, 점수는 131입니다.
+- 등급이 3일 경우, 점수는 123입니다.
+- 등급이 4일 경우, 점수는 115입니다.
+- 등급이 5일 경우, 점수는 107입니다.
+- 등급이 6일 경우, 점수는 99입니다.
+- 등급이 7일 경우, 점수는 91입니다.
+- 등급이 8일 경우, 점수는 83입니다.
+- 등급이 9일 경우, 점수는 75입니다.
+위와 같이 수능 영어 등급에 따라 점수가 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서의 주장을 완전히 반박하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 사실적 일치가 전혀 없으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 주장을 하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7439204661597216</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원 가능합니다. 지원 자격에 대한 세부 조건은 다음과 같습니다:
+1. **6년 과정**: 
+   - 중·고등학교 재학기간 동안 본인 및 부모 모두가 농어촌(읍·면)지역에 거주한 자여야 합니다.
+2. **12년 과정**:
+   - 지원자 본인이 초·중·고등학교 전 교육과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자여야 합니다.
+3. **제출서류**:
+   - 1. 지원자 본인의 가족관계증명서 1부
+   - 2. 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 3. 중학교 학교생활기록부 1부
+   - 4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+   - 5. 기타 필요한 서류 (예: 부모가 사망하거나 이혼한 경우 추가 서류 필요)
+따라서 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원하는 것은 가능하며, 관련 서류를 정확하게 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답에서 "남은 268～271cm"라는 부분은 사실과 다릅니다. 원본 텍스트에서는 4등급 기록이 218~221 cm로 명시되어 있습니다. 따라서 이 부분은 부정확합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. "남은 268～271cm"라는 기록은 원본과 상충하므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 4등급 기록과 배점에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 "여은"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결되어 있으며, 정보가 잘 전달됩니다. 그러나 일부 표현이 명확하지 않아 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - "남은 268～271cm"라는 기록은 원본 텍스트와 다르므로 정확성이 떨어집니다. 배점은 정확하지만 기록 부분에서 오류가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 정보의 관련성은 높지만, 사실성과 일관성에서 큰 문제가 있어 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 일부 표현이 어색하여 의미 전달이 완벽하지 않습니다. 특히 "여은"이라는 표현이 적절하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 일부 표현이 혼란을 줄 수 있어 완벽하지는 않습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8931953709569624</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 남은 268～271cm, 여은 218~221cm입니다. 이 기록에 대한 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율이 12%라는 사실을 완전히 무시하고 있으며, 잘못된 정보(비율이 명시되어 있지 않다고 언급)와 혼란을 초래하는 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있으며, 경기지도학과의 출결 반영 비율에 대한 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트와 일치하지 않습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 응답은 출결 반영 비율에 대한 질문에 대한 직접적인 답변을 제공하지 않으며, 다른 전형의 출결 반영 방법에 대한 정보로 주제를 벗어나고 있습니다. 그러나 동의대학교에 대한 언급은 관련성이 있지만, 주제에서 벗어난 정보가 많습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 그러나 내용의 일관성이 떨어져서 읽는 이에게 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 응답의 내용이 원본 텍스트와 관련이 없고, 주제가 일관되지 않아서 논리적인 흐름이 부족합니다. 출결 반영 비율에 대한 질문에 대한 답변이 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 경기지도학과의 출결 반영 비율에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 질이 낮은 응답입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 응답의 의미는 원본 텍스트와 일치하지 않으며, 주제와 관련이 없는 정보가 포함되어 있습니다. 그러나 동의대학교에 대한 언급은 어느 정도 적절할 수 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해할 수 있지만, 내용이 혼란스러워서 질문에 대한 명확한 답변을 찾기 어렵습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.6126444973518198</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 경기지도학과의 출결 반영 비율에 대한 직접적인 정보는 없습니다. 다른 전형에서의 출결 상황 반영 방법에 대해 언급되어 있지만, 경기지도학과의 경우 특정한 반영 비율이 명시되어 있지 않습니다.
+만약 동의대학교 경기지도학과에서도 출결상황을 반영한다면, 일반적으로 실기/실적 전형에서의 출결 상황 반영 방법에 대한 정보를 참고할 수 있습니다. 예를 들어, 결석일수 0~2일인 경우 120점, 3~6일인 경우 90점 등과 같이 반영됩니다.
+더 자세한 정보는 동의대학교 입학처 웹사이트나 학교 관계자에게 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 를 방문하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보에 대한 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.9032048079434862</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 정원 내 모집 인원이 4명입니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보가 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 실기고사 일정 외에도 디자인조형학과에 대한 유용한 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.4080769448203446</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024. 01. 17.(수)에 있습니다.
+디자인조형학과는 시각디자인, 산업디자인, 공예디자인이 모집단위이며, 실기종목은 기초디자인, 사고의 전환으로 구성되어 있습니다. 종목별 배점(비율)은 각각 700점(70%)입니다.
+더 궁금하신 점이 있으시면 https://ipsi.deu.ac.kr/main.do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가 정보를 요청하는 부분도 적절합니다. 그러나 "제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 정보는 없습니다."라는 문장은 다소 중복된 표현으로 느껴질 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 원본 텍스트와 일관성을 유지하고 있지만, "제공된 정보에서"라는 표현이 다소 모호하게 느껴질 수 있습니다. 원본 텍스트의 내용을 명확히 반영하지 못한 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 최저 기준에 대한 질문에 적절히 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 유창하게 작성되었으나, "제공된 정보에서"라는 부분이 다소 어색하게 느껴질 수 있습니다. 전반적으로는 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "제공된 정보에서"라는 표현이 다소 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가 정보 요청도 적절합니다. 다만, 중복된 표현이 있어 약간의 정확성 저하가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 약간의 모호함이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, "제공된 정보에서"라는 표현이 다소 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 다소 모호하게 느껴질 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.41948494010635</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 정보는 없습니다. 만약 더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보시거나 대학 관계자에게 문의해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트에 명시된 모든 학과를 정확하게 나열하고 있으며, 추가적인 정보도 포함되어 있습니다. 따라서 사실성 점수는 5입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 따라서 일관성 점수는 5입니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다. 따라서 관련성 점수는 5입니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다. 따라서 유창성 점수는 5입니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다. 따라서 일관성 점수는 5입니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다. 따라서 정확성 점수는 5입니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답이 우수하게 수행되고 있습니다. 따라서 다차원 품질 점수는 5입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 의미적으로 적절합니다. 따라서 의미 적합성 점수는 5입니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다. 따라서 이해 가능성 점수는 5입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.7900816097649205</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과로는 심리학과와 스마트항만물류학과, 창업투자경영학과가 있습니다. 또한 라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)도 신설되었습니다.
+따라서 동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부
+위와 같은 내용을 바탕으로 답변하였습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 잘못된 정보를 포함하고 있습니다. '학생부 교과'와 '출결' 항목이 언급되었으나, 원본 텍스트에서는 서류와 면접만 언급되고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 전형요소를 제시하고 있습니다. 이는 일관성이 전혀 없음을 나타냅니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 낮습니다. 원본의 핵심 정보를 왜곡하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지므로 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 어느 정도 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 왜곡하고 있으며, 적절하지 않은 정보를 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장으로 구성되어 있지만, 잘못된 정보로 인해 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.7238888458214953</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)에서는 다음과 같은 비율로 전형요소가 반영됩니다.
+- 학생부 교과: 0%
+- 출결: 70%
+- 서류: 30%
+이러한 비율은 성적 외의 요소 중에서 주요하게 고려되는 부분을 보여주며, 특히 출결의 중요성이 강조되고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과를 잘못 언급하고 있습니다. 원문에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 가산점을 적용한다고 명시되어 있지만, 생성된 응답에서는 한의예과만 언급하고 있습니다. 또한, 다른 학과에서 가산점을 적용하지 않는다는 내용은 원문에 포함되어 있지 않으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서는 특정 학과에서 가산점을 적용한다고 명시하고 있지만, 생성된 응답은 한의예과만 언급하며, 다른 학과에 대한 정보도 원문과 다릅니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 가산점에 대한 질문에 관련된 정보를 제공하고 있지만, 원문에서 언급된 학과와 다르게 한의예과에 초점을 맞추고 있습니다. 그러나 전반적으로 주제와 관련된 정보는 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 약해 일관된 흐름이 부족합니다. 특히, 한의예과에 대한 언급이 원문과의 연관성을 떨어뜨립니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상당히 다릅니다. 특히, 가산점을 적용하는 학과에 대한 정보가 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원문과의 의미적 일치성이 떨어져 다소 부적절한 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7324300321192193</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 한의예과 수학(미적분/기하) 응시자입니다. 이들 학생은 수학 취득 표준점수의 10%를 가산점으로 부여받습니다.
+다른 학과에서는 일반적으로 수능 가산점을 적용하지 않습니다. 예를 들어, 인문사회과학대학, 상경대학 모집단위 및 패션디자인학과는 수능 가산점을 적용하지 않으며, 다른 전형에서도 가산점이 부여되지 않는 경우가 많습니다.
+따라서 정확한 정보를 얻기 위해서는 동의대학교의 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 대학 관계자에게 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과는 다르게, 수능 반영 영역과 비율에 대한 구체적인 내용을 추가하고 있습니다. 그러나 원문에서 언급된 '100% 반영'이라는 핵심 사실이 왜곡되어 있으며, 추가된 정보가 원문과 일치하지 않기 때문에 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 반영 영역과 비율에 대한 세부사항을 제공하면서도 원문의 핵심 내용을 일관되게 전달하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있지만, 원문의 핵심 내용인 '100% 반영'이라는 점을 간과하고 있습니다. 그럼에도 불구하고 수능 성적 반영 방법에 대한 추가적인 정보는 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원문과의 연결성이 부족하여 전체적으로 일관된 흐름이 떨어집니다. 원문의 핵심 메시지와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 '100% 반영'이라는 사실을 왜곡하고 있으며, 반영 영역과 비율에 대한 정보가 원문과 일치하지 않기 때문에 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원문과 일치하지 않으며, 사실성, 일관성, 정확성 모두 낮은 점수를 받고 있습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 관련된 정보를 제공하지만, 원문의 핵심 메시지를 왜곡하고 있어 의미적으로 완전히 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원문과의 연결이 약해 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7782331824208254</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+- 모집단위는 전 모집단위입니다.
+- 수능 반영 영역은 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목)입니다.
+- 반영 영역별 비율은 각각 25%이며, 상위 3개 영역의 경우는 국어, 수학, 영어에 대해 각각 33.33%를 반영합니다.
+이러한 방식으로 수능 성적을 반영하여 학생들의 종합적인 능력을 평가하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 가군 실기고사 날짜에 대한 정보를 제공하지만, 원본 텍스트에 명시된 날짜(2024년 1월 16일) 외에 추가적인 날짜(2024년 1월 17일)가 포함되어 있습니다. 이는 원본 정보와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 날짜를 포함하고 있어 일관성이 부족합니다. 원본 텍스트는 단일 날짜를 제공하는 반면, 생성된 응답은 여러 날짜를 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보(다른 학과의 실기고사 날짜)가 포함되어 있어 주제에서 약간 벗어났습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 날짜를 나열하고 있어 논리적인 흐름이 다소 부족합니다. 원본 텍스트의 단일 날짜 정보와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 잘못된 날짜를 포함하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가적인 정보가 포함되어 있어 의미적으로 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 여러 날짜가 언급되어 혼란을 줄 수 있습니다. 그러나 여전히 명확한 정보 전달이 이루어졌습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.6913267179233336</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같은 날짜에 진행됩니다:
+- 레저스포츠학과와 태권도학과의 실기고사는 2024. 01. 16.(화)입니다.
+- 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과의 실기고사는 2024. 01. 17.(수)입니다.
+이 정보가 도움이 되길 바랍니다. 추가로 궁금한 점이 있으시면 https://ipsi. deu. ac. kr/main. do를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 한의예과와 경기지도학과가 제외된 모집단위에서 누락되었으며, 레저스포츠학과와 태권도학과는 원문에 언급되지 않은 학과입니다. 또한, 전형료에 대한 정보도 원문과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충하는 정보를 포함하고 있습니다. 원문에서는 제외된 학과가 한의예과, 디자인조형학과, 체육학과, 경기지도학과로 명시되어 있지만, 생성된 응답에서는 레저스포츠학과와 태권도학과가 포함되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원문에서 제외된 학과에 대한 정확한 정보가 부족하여 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에 포함된 사실과 여러 가지로 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 정보의 정확성 부족으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.7308644992862386</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 제외된 모집단위입니다. 이들 학과는 다른 전형에서 별도로 모집되거나, 특정 전형료를 지불해야 하는 경우가 있습니다.
+따라서, 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과의 학생들은 나군 수능(일반학생전형)에서 68,000원을 지불해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원문과 일치하며, 수능 최저기준이 적용되지 않는다는 사실을 정확하게 반영하고 있습니다. 추가 정보도 제공하고 있어 사실성을 높입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 수능 최저기준이 적용되지 않는다는 내용을 일관되게 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 추가적인 정보도 제공하여 주제를 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.7899448837117484</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 전형요소 반영비율에서 명시되어 있습니다. 자세한 내용은 제공된 정보를 참고하시거나, 필요하다면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 대부분의 학과 분리 정보를 정확하게 전달하고 있습니다. 그러나 "디자인조형학과"의 경우 원본 텍스트에 없는 정보가 포함되어 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일치하지만, 일부 학과의 명칭이 다르게 표현되거나 추가된 정보가 있어 일관성이 떨어지는 부분이 있습니다. 예를 들어, "디자인조형학과"는 원본에 없던 내용입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 학과 분리에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 표현에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 분리 정보를 명확하게 전달하고 있습니다. 그러나 일부 추가 정보가 포함되어 있어 약간의 일관성 저하가 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, "디자인조형학과"와 같은 추가 정보가 포함되어 있어 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 대부분의 내용이 적절하게 전달되고 있습니다. 그러나 일부 추가 정보가 의미의 일관성을 약간 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 다만, 일부 표현에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.8353519210224325</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과들이 학부에서 학과로 분리되었습니다.
+1. 보육·가정상담학부 → 아동학과
+2. 경제금융보험학부 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학부 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인조형학과(서양화·한국화·환경조형) → 모집중지
+위와 같이 여러 학과들이 분리되었습니다. 더 자세한 정보가 필요하시다면 https://ipsi. deu. ac. kr/main. do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 날짜와 시간도 일치합니다. 그러나 서류 제출 마감일에 대한 추가 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 기반으로 하고 있지만, 추가된 서류 제출 마감일 정보는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 원서접수 마감일에 대한 정보를 직접적으로 다루고 있습니다. 추가 정보도 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 정보가 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 원서접수 마감일에 대한 정보는 정확하지만, 서류 제출 마감일에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지지만, 추가된 정보가 원본과의 일관성을 떨어뜨리는 요소가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.6970298107506313</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수(인터넷)의 마감일은 2024. 01. 06.(토) 18시까지입니다.
+추가 정보로, 서류 제출(제출서류가 있는 경우)의 마감일은 2024. 01. 12.(금) 17시까지 도착이어야 합니다.
+원서접수와 서류 제출에 대한 자세한 내용은 입학안내 홈페이지를 참조하시거나, http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com을 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 학생부종합(성인학습자전형)의 서류 반영 비율 변화에 대한 정보를 제공하지만, 전체 전형 요소 변화에 대한 설명이 부족하다. 다른 전형들에 대한 정보가 누락되어 있어 사실성이 떨어진다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 학생부종합(성인학습자전형)의 비율 변화에 대해 언급하고 있지만, 전체 전형 요소 변화와 일치하지 않으며, 다른 전형에 대한 정보가 누락되어 있어 일관성이 부족하다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 전형 요소 변화에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 전체적인 맥락을 다루지 않아서 약간의 관련성이 떨어진다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 반영 비율 변화에 대한 설명이 명확하다. 그러나 전체 전형 변화에 대한 설명이 부족하여 완전한 일관성을 제공하지는 않는다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 특정 전형의 비율 변화에 대한 정확한 정보를 제공하지만, 다른 전형에 대한 정보가 누락되어 있어 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 일부 차원에서 양호하지만, 전체적인 정보의 부족으로 인해 다차원적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있지만, 전체적인 전형 변화에 대한 설명이 부족하여 의미 전달이 완전하지 않다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 표현을 사용하고 있어 이해 가능성이 높다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.6976410513552819</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 변화가 있는 전형은 학생부종합(성인학습자(정원내·외)전형)입니다. 이 전형의 서류 반영 비율이 변경되었습니다.
+- 2023학년도: 서류(학생부)70%+면접30%
+- 2024학년도: 서류(학생부)60%+면접40%
+이와 같이 서류와 면접의 비율이 조정되었습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용을 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.8358415753168936</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다. 이는 '가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율' 항목에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 세부 전공 목록을 정확하게 반영하고 있으며, 추가적인 설명도 원본의 내용을 잘 보완하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공의 수와 이름이 일치합니다. 추가된 설명도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 세부 전공에 대한 설명이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전공에 대한 설명이 자연스럽게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 내용을 쉽게 파악할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8307945389227885</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 세 가지 세부 전공을 가지고 있습니다. 이들 세부 전공은 다음과 같습니다:
+1. **스타트업창업투자학**
+2. **뷰티비즈니스학**
+3. **라이프생활문화학**
+이 세부 전공들은 미래 사회에서 요구되는 다양한 분야의 지식과 기술을 학습하고, 이를 활용하여 창업 및 비즈니스 활동을 수행할 수 있는 능력을 키울 목적으로 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트에 명시된 학과와 다릅니다. 원본에는 '체육학과'와 '레저스포츠학과'가 포함되어 있지만, 생성된 응답에는 '태권도학과'가 포함되어 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과를 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 참여하는 학과에 대한 정보를 제공하지만, 원본 텍스트와는 다른 학과를 포함하고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나쁘지 않지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많아 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.6916493100782396</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (실기종목: 제자리 멀리뛰기)
+2. 태권도학과 (실기종목: Z-런)
+이 두 학과에서는 각각의 실기종목에 따라 실기를 치르게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정확한 학과 목록을 제공하지 않고, 기계공학과, 로봇자동화공학과, 자동차공학과와 같은 잘못된 정보를 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 특정 학과 목록을 제시하고 있지만, 생성된 응답은 전혀 다른 학과를 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 질문에 대한 답변을 시도하지만, 제공된 정보가 관련성이 낮고 주제에서 벗어난 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 관련성이 떨어져서 일관된 주제를 유지하지 못하고 있습니다. 따라서 일관성은 있지만, 주제와의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.5266053721316498</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '경기실적우수자전형'은 주로 특정 학과에 적용됩니다. 예를 들어, 기계공학과, 로봇자동화공학과, 자동차공학과 등이 해당될 수 있습니다.
+하지만 정확한 학과 목록을 확인하려면 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 대학 관계자에게 문의하시는 것이 좋습니다. 이 웹사이트에서는 최신 정보와 자세한 전형 안내를 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 전공 목록을 정확하게 반영하고 있으며, 추가된 설명도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.8976374847482065</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이러한 전공들은 학생들이 미래 산업 트렌드에 맞춘 다양한 분야에서의 경쟁력을 갖추도록 설계되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 특수목적고등학교 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 예술고와 체육고에 대한 정보는 원본 텍스트에 명시되어 있지 않습니다. 따라서 일부 정보는 정확하지만, 추가된 내용이 원본과 일치하지 않아 점수를 낮추었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 예술고와 체육고에 대한 언급이 원본과 일치하지 않아서 일관성이 떨어집니다. 원본 텍스트는 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다고만 명시하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 관련된 추가 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 일관성 문제로 인해 완벽한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 예술고와 체육고에 대한 언급이 원본 텍스트와 일치하지 않기 때문에 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 사실성과 일관성에서 약간의 문제가 있어 점수를 조정했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본과 일치하지 않아 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있으며, 정보가 잘 전달되고 있습니다. 다만, 원본과의 불일치로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.7093228232494334</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교 일반학생전형으로 지원이 가능합니다. 
+특수목적고등학교 중 과학고, 국제고, 외국어고 등은 모두 지원이 가능합니다.
+하지만 예술고나 체육고는 일반학생전형에서 지원이 불가능하며, 실기/실적 전형이나 학생부종합전형 등을 통해 지원해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 전혀 반영하지 않고 있으며, 특정 학과에 대한 정보가 없다고 주장하고 있습니다. 원본 텍스트는 명확하게 두 개의 학과와 모집 인원을 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 특정 학과에 대한 정보를 제공하고 있지만, 생성된 응답은 그러한 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않고, 대신 공식 웹사이트를 참조하라는 내용으로 대체하고 있습니다. 이는 원본 텍스트의 핵심 주제와 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부적절함으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 적절한 정보를 제공하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부적절함으로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.5835987147715346</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에 대한 정확한 가장 많이 모집하는 학과 정보를 제공하기 위해서는 해당 대학의 공식 웹사이트나 입학처에서 발췌된 자료를 확인해야 합니다. 현재 주어진 내용만으로는 특정 학과가 가장 많이 모집되는지 알 수 없습니다.
+관련 정보를 확인하려면, 동의대학교의 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"에서 2024학년도 입시 안내나 모집요강을 참조해 보세요. 해당 페이지에서는 각 학과별 모집인원이 명확히 기재되어 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 학생부교과 농어촌학생전형에 대한 잘못된 정보를 포함하고 있습니다. 특수목적고등학교 출신자는 지원할 수 없다는 사실을 무시하고, 지원 가능하다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 담고 있습니다. 원본에서는 지원할 수 없다고 명시하고 있지만, 생성된 응답에서는 지원할 수 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본의 내용은 지원 자격에 대한 명확한 규정을 제공하고 있지만, 생성된 응답은 잘못된 정보를 바탕으로 한 내용입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 정확성과 관련성이 떨어져서 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관성을 유지하고 있으나, 원본 텍스트와의 관계에서 비논리적입니다. 원본의 내용을 무시하고 새로운 주장을 하고 있기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 잘못되어 있어 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.4841469360525363</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>你是特殊目的高中学生，可以申请东义大学的农林地区学生选拔类型（學生部學科）。
+根据提供的信息，在「農林地區學生選拔」中，特殊目的高中的科学高中、国际高中和外语高中是可以申请的。因此，如果你是特殊目的高中学生，可以选择申请东义大学的学生部学科学术型（農林地區學生選拔）。</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 소스 텍스트의 내용을 정확하게 반영하고 있으며, 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 소스 텍스트와 일관되며, 정보의 부재에 대한 설명이 일치합니다. 두 텍스트 모두 동일한 메시지를 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 소스 텍스트의 주제와 직접적으로 관련이 있으며, 합격자 평균 성적에 대한 정보의 부재를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다. 각 문장이 서로 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 소스 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 소스 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.8277044805484075</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적에 대한 정보는 제공된 데이터에서 확인할 수 없습니다. 제공된 정보는 다른 학과와 전공의 합격자 평균 성적을 포함하고 있으며, 소프트웨어공학부에 대한 특정 정보는 포함되어 있지 않습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 데이터를 확인하거나, 관련 부서에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있다고 주장하지만, 원본 텍스트에서는 그러한 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제시하고 있습니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 평균 성적에 대한 정보가 없음을 알리고 있으며, 생성된 응답은 그와는 전혀 다른 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적입니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있으므로, 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모든 면에서 매우 낮은 점수를 받습니다. 따라서 전체적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 원본 텍스트는 정보가 없음을 알리고 있는데, 생성된 응답은 구체적인 정보를 제공하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.5099922344082944</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다. 영어 등급의 평균은 3.30이며, 수능 4개 영역 등급의 평균은 4.12입니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 잘못 전달하고 있습니다. 예를 들어, 최초 합격자 등록 날짜가 원본에 명시되어 있지 않으며, 충원 합격자 발표 일정이 중복되어 잘못 기재되었습니다. 이러한 이유로 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 특히, 최초 합격자 등록과 관련된 정보가 원본에 없고, 충원 합격자 발표 일정이 중복되어 제시되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 정보가 원본과 일치하지 않아 일부 비관련성이 존재합니다. 그러나 전체적으로 합격자 발표 일정에 대한 정보를 제공하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 중복되어 있어 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 구조가 있지만, 중복된 정보로 인해 논리적 흐름이 약간 깨집니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 못하고 있으며, 잘못된 날짜와 중복된 발표 일정이 포함되어 있습니다. 이로 인해 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보가 포함되어 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 그러나 중복된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8736407339005571</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 합격자 발표 일정은 다음과 같습니다.
+1. 최초 합격자 발표 및 등록 : 2024년 2월 2일 금요일 오후 2시.
+2. 최초 합격자 등록 : 2024년 2월 7일 수요일부터 2월 13일 화요일까지 (은행 마감 시간 내).
+3. 충원 합격자 발표 및 등록 :
+   - 1차 : 2024년 2월 14일 목요일 오전 9시.
+   - 1차 : 2024년 2월 15일 목요일 오전 9시부터 오후 4시까지.
+4. 충원 합격자 발표 및 등록 :
+   - 2차 : 2024년 2월 15일 목요일 오전 9시.
+   - 2차 : 2024년 2월 15일 목요일 오전 9시부터 오후 4시까지.
+5. 충원 합격자 발표 및 등록 :
+   - 3차 이후 (개별 전화 통보) : 2024년 2월 15일 목요일 오후 7시부터 2024년 2월 20일 화요일 오후 6시까지.
+6. 충원 합격자 발표 및 등록 :
+   - 3차 이후 (개별 전화 통보) : 개별 전화 통보 시 안내.
+이상의 일정에 따라 합격자 발표와 등록이 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 정보가 잘못되었습니다. 원본 텍스트는 2024년 1월 20일(토)에 면접고사가 있다고 명시하고 있지만, 생성된 응답은 2024년 1월 17일(수)에 실기고사가 있다고 잘못 언급하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 면접고사 일정과 생성된 응답의 실기고사 일정이 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 정보인 면접고사 일정에 대한 내용이 잘못되어 있어 관련성이 낮습니다. 실기고사에 대한 정보는 원본 텍스트의 핵심 주제와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성 문제로 인해 전체적인 흐름이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다. 실기고사와 면접고사에 대한 정보가 혼합되어 있어 논리적 흐름이 약간 어색합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 면접고사 일정이 잘못 기재되어 있으며, 이는 정확성 점수를 매우 낮게 만듭니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 관계가 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보가 포함되어 있습니다. 실기고사에 대한 언급은 원본 텍스트의 주제와 관련이 없기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.5024280595435586</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>2024년 1월 17일(수)에 &lt;나&gt;군 실기고사가 있습니다. 이는 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과의 면접고사입니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 잘못 해석하고 있습니다. 응답에서는 "최저학력 기준이 없다"는 내용을 "최저학력 기준이 설정되지 않았다"는 식으로 설명하고 있으며, 이는 원문과 일치하지 않습니다. 또한, 제공된 웹사이트 링크는 원문에 포함되어 있지 않으므로 추가적인 정보로서의 신뢰성을 떨어뜨립니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 최저학력 기준이 없다고 명확히 언급하고 있지만, 생성된 응답은 이를 다르게 해석하여 혼란을 초래하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 불필요한 추가 정보(웹사이트 링크 등)를 포함하고 있어 주제와의 관련성이 떨어집니다. 원문에서 요구하는 정보에 비해 과도한 설명이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 표현이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문에서 제시한 정보와의 연결이 부족하여 응답이 다소 단절된 느낌을 줍니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시한 사실을 정확하게 반영하지 않고 있으며, 잘못된 해석을 포함하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 문제가 있습니다. 전반적으로 원문과의 관계가 약해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미를 전달하려고 하지만, 잘못된 해석으로 인해 의미가 왜곡되었습니다. 따라서 의미적 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 불일치로 인해 혼란을 초래할 수 있습니다. 그러나 문장 자체는 명확하게 작성되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.4500161493649578</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>提供的信息中没有提到韩医科的具体最低学力标准。根据给出的信息，韩医科（한의예과）的招生类型是“一般学生型”，并且说明了其最低学力基准为无最低学力基准（수능최저기준 없음）。这意味着在一般学生型的招生中，并没有设定特定的最低学力要求。
+如果您需要更详细的信息，建议访问以下网站获取最新和最准确的数据：“https://ipsi. deu. ac. kr/main. do”。</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 일관되게 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제인 수능 최저학력 기준에 직접적으로 관련이 있으며, 추가적인 정보 제공도 포함되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5626279840950851</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에 따르면, 모든 전형에서 수능최저학력기준은 없습니다. 따라서 정시 전형으로 지원할 때 수능최저학력기준이 없음을 확인할 수 있습니다.
+만약 추가적인 정보가 필요하다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 1차 충원합격자 발표 일정은 정확하지만, 1차 등록과 2차 등록에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 3차 이후 발표에 대한 정보도 불완전하게 제시되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보(등록 일정)를 포함하고 있어 일관성이 떨어집니다. 원본 텍스트의 내용과 충돌하는 부분이 있어 점수가 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 등록 일정이 원본 텍스트와 관련이 없기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 추가적인 정보를 포함하고 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서의 품질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 불일치로 인해 일부 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.9244697318862443</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 다음과 같습니다:
+1. 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+2. 충원 합격자 1차 등록: 2024년 2월 14일(수) 09:00~16:00
+3. 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+4. 충원 합격자 2차 등록: 2024년 2월 15일(목) 09:00~16:00
+이후에는 3차 발표와 등록이 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 명확한 정보를 제공하지 않고 있으며, 원본 텍스트에 명시된 날짜와 시간을 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충합니다. 원본 텍스트는 구체적인 발표 일정을 제공하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 정보인 발표 일정에 대한 내용을 무시하고 다른 정보를 제시하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관련성 부족으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 발표 일정에 대한 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하지 못하고 있으며, 부적절한 정보로 대체하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.4532814780355928</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 추가합격자 발표 시기는 제공된 정보에서 명확히 확인할 수 없습니다. 추가합격자 발표와 관련된 자세한 일정은 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하시거나, 직접 입학처에 문의해보시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 명확한 정보를 제공하지 않으며, 원문에서 언급된 내용과 상충하는 부분이 있습니다. 원문에서는 추가 모집이 발생할 수 있는 조건을 명확히 설명하고 있지만, 생성된 응답은 이를 무시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 특정 조건 하에 추가 모집이 이루어질 수 있다고 명시하고 있지만, 생성된 응답은 그러한 조건을 무시하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련이 있지만, 원문에서 제공하는 구체적인 정보에 대한 언급이 부족합니다. 추가 모집에 대한 질문에 대한 직접적인 답변이 아닌, 일반적인 안내로 끝나고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 흐름을 가지고 있지만, 원문과의 연결이 약해 전체적인 일관성이 떨어집니다. 원문에서 제시된 정보와의 연관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 일치하지 않으며, 추가 모집에 대한 조건을 잘못 해석하고 있습니다. 원문에서 명시된 내용을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하며, 정보의 정확성과 관련성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원문에서 요구하는 구체적인 정보와는 거리가 있습니다. 원문에 대한 직접적인 답변이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.5059468571818213</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 추가 모집에 대한 명확한 내용이 없습니다. 추가 모집 여부는 각 전형별로 다르게 결정되므로, 구체적인 모집 단과대학 및 계열, 모집 인원 등은 해당 대학의 공식 웹사이트를 참조하시거나 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 모집단위 및 모집인원, 지원자격, 제출서류, 전형요소 반영 비율 등에서 일부 정확한 정보를 포함하고 있지만, 전형명과 관련된 세부사항이 잘못되었고, 지원자격에 대한 설명이 원본과 일치하지 않습니다. 따라서 사실성 점수는 2로 평가합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 여러 부분에서 일치하지 않으며, 특히 지원자격과 모집단위에 대한 정보가 상충합니다. 이러한 불일치로 인해 일관성 점수는 2로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있으나, 원본 텍스트의 특정 세부사항과는 다소 차이가 있습니다. 그러나 전반적으로 주제와 관련된 내용을 다루고 있어 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 정보가 나열되어 있지만, 논리적인 흐름이 다소 부족하여 일관된 구조를 유지하지 못하고 있습니다. 따라서 일관성 점수는 3으로 평가합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 여러 부분에서 일치하지 않으며, 특히 지원자격과 모집단위에 대한 정보가 잘못되었습니다. 따라서 정확성 점수는 2로 평가합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 생성된 응답이 원본 텍스트와 일치하지 않기 때문에 전반적인 품질 점수는 2로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 일부 정보가 잘못되어 의미적으로 부적절한 부분이 있습니다. 따라서 의미 적합성 점수는 3으로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으며, 명확한 표현이 사용되었습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.6561248297979482</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형은 나군에서 다양한 전형을 통해 지원자를 선발하는 하나의 방법입니다. 주요 내용은 다음과 같습니다:
+1. **모집단위 및 모집인원**:
+   - 미래융합대학 인문사회 계열 라이프융합학부: 11명
+   - 미래융합대학 인문사회 계열 라이프융합학부: 23명 (성인학습자(정원외)전형)
+   - 미래융합대학 인문사회 계열 부동산자산경영학부: 7명 (성인학습자(정원내)전형)
+   - 미래융합대학 인문사회 계열 부동산자산경영학부: 17명 (성인학습자(정원외)전형)
+2. **지원자격**:
+   - 농어촌 지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 동안 본인 및 부모 모두가 농어촌 지역에 거주한 자 (6년 과정)
+   - 또는 초·중·고등학교 전 교육과정을 농어촌 지역 소재 학교에서 이수하고, 거주한 자 (12년 과정)
+3. **제출서류**:
+   - 가족관계증명서
+   - 주민등록초본
+   - 중학교 및 고등학교 학교생활기록부
+   - 고교 졸업증명서
+4. **전형요소 반영비율**:
+   - 서류: 70%
+   - 면접: 30%
+5. **면접평가**:
+   - 평가영역: 학업역량, 전공적합성
+   - 평가기준: 문제해결능력, 진로정보 탐색능력 등
+6. **동점자 처리기준**:
+   - 1위: 면접고사 성적 상위자
+   - 2위: 서류평가 공동체역량 영역 성적 상위자
+   - 3위: 서류평가 전공적합성 영역 성적 상위자
+이러한 내용을 참고하시면 평생학습자전형에 대한 이해가 향상될 것입니다. 더 궁금하신 점이 있으시다면 추가로 질문해주세요.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 추가 정보를 제공하지만, 원본 텍스트에 명시된 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"라는 기본 자격 요건을 포함하지 않고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 원본의 핵심 요건을 무시하고 있습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보를 제공하지만, 원본 텍스트의 핵심 요건을 다루지 않기 때문에 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 항목으로 나뉘어 있지만, 원본 텍스트의 핵심 요건과의 연결이 부족하여 일관성이 떨어집니다. 따라서 일관성 점수는 중간입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 추가적인 정보가 포함되어 있지만 기본 요건이 누락되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 핵심 요건을 다루지 않기 때문에 의미적 적절성 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 작성되어 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.7075389393522615</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. **고교 졸업(예정)자**:
+   - 고교 학교생활기록부 1부를 제출합니다.
+   - 학생부 온라인 제공 동의자가 제출할 필요가 없습니다.
+2. **검정고시 출신자**:
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부를 제출합니다.
+   - 온라인 제공 동의자가 제출할 필요가 없습니다.
+3. **외국고교 졸업(예정)자**:
+   - 공증받은 외국고교 졸업(예정)증명서 1부
+   - 공증받은 외국고교 성적증명서 1부를 제출합니다.
+   - 학교생활기록부 대체 서류는 선택적으로 제출할 수 있습니다.
+이러한 자격을 갖춘 지원자는 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않지만, 원본 텍스트에서 언급된 내용을 완전히 반영하지 못하고 있습니다. 원본 텍스트는 특정 날짜와 시간에 대한 정보를 제공하고 있으나, 생성된 응답은 그 정보를 무시하고 웹사이트를 방문하라는 일반적인 조언만 하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 원본 텍스트는 특정 날짜와 시간에 대한 정보를 제공하지만, 생성된 응답은 그 정보를 언급하지 않고 있습니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 대한 질문에 대해 관련된 정보를 제공하고 있으며, 웹사이트를 방문하라는 제안은 유용할 수 있습니다. 그러나 원본 텍스트의 구체적인 정보에 대한 언급이 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으며, 정보가 잘 구성되어 있습니다. 그러나 원본 텍스트의 정보와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 실기고사에 대한 정보가 누락되어 있습니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 구체적인 정보를 반영하지 못하고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 실기고사에 대한 질문에 대한 답변으로 적합합니다. 그러나 원본 텍스트의 구체적인 정보가 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 원본 텍스트의 정보가 부족하여 완전한 이해를 돕지 못합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.3848295090565593</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 실기고사에 대한 구체적인 장소에 대한 언급이 없습니다. 따라서 "https://ipsi. deu. ac. kr/main. do" 주소를 방문하여 자세한 내용을 확인해 보시는 것이 좋겠습니다. 웹사이트에서 모집단위별 입학사정관, 면접장소 등 관련 정보를 찾으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사 일정에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 대기실 및 입실시간에 대한 정보만 제공하고 있으며, 실기고사 날짜에 대한 정보는 포함되어 있지 않습니다. 따라서 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 대기실 및 입실시간에 대한 정보를 포함하고 있지만, 실기고사 날짜에 대한 정보는 원본 텍스트와 일치하지 않습니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기고사 일정과 대기실 및 입실시간에 대한 정보를 모두 포함하고 있습니다. 따라서 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 실기고사 날짜에 대한 잘못된 정보로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사 날짜에 대한 잘못된 정보를 포함하고 있어 정확성이 떨어집니다. 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 부족함이 있지만, 관련성과 유창성은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 잘못된 날짜 정보로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.6680177615801449</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 2024년 1월 17일(수)에 있습니다. 이 날은 실기고사 일정이며, 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+따라서 체육학과의 실기고사는 2024년 1월 17일에 대기실로 가셔야 합니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 하지 않는다는 사실과 상반된 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본에서는 전화 통보가 이루어지지 않는다고 명시되어 있지만, 생성된 응답에서는 전화 통보가 이루어진다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 떨어집니다. 전화 통보에 대한 잘못된 정보가 주제를 흐리고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 잘못된 정보로 인해 일관성이 떨어집니다. 원본과의 불일치로 인해 전체적인 일관성이 저하됩니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성 모두 낮은 점수를 받았기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 원본 텍스트와 일치하지 않지만, 일부 내용은 관련이 있을 수 있습니다. 그러나 잘못된 정보로 인해 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6554445832780289</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 개별 전화 통보 방식으로 안내를 드립니다. 따라서, 합격자 발표 이후에 개별적으로 전화를 받으실 예정입니다.
+만약 자세한 내용을 확인하고 싶으시다면, 입학안내 홈페이지를 참조해 보세요: https://ipsi. deu. ac. kr/main. do
+또한, 관련 정보는 공고일자 2024년 2월 15일 오후 7시 이후에 입학안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 잘 전달하고 있습니다. 그러나 "대학 입학 안내 홈페이지에서 최신 정보를 확인하시기 바랍니다"라는 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 다만, 추가된 정보가 원본 텍스트와 완전히 일치하지 않기 때문에 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수시모집 결과에 대한 정보를 찾는 방법을 제시하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 "deu"와 "ac" 사이에 불필요한 공백이 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따르고 있습니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 원본에 포함되어 있지 않기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 추가된 정보가 원본의 의미를 약간 변경할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 불필요한 정보가 포함되어 있어 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.8331378267778526</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 문서 내에서는 언급되어 있지 않습니다. 관련 정보를 찾기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해 보시거나, 대학 입학 안내 홈페이지에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 일부 전형에서는 수능 응시 여부와 관계없이 지원이 가능하다고 주장하지만, 이는 원문에서 명확히 부정된 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다. 원문은 수능에 응시하지 않으면 지원할 수 없다고 명시하고 있으나, 생성된 응답은 수능을 응시하지 않아도 지원할 수 있다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 명시된 사실과는 다르게 해석하고 있습니다. 따라서 관련성은 있지만, 잘못된 정보로 인해 그 relevancy가 저하됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 제공하고 있지만, 원문과의 논리적 연결이 부족합니다. 원문에서의 주장을 무시하고 새로운 정보를 추가하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서의 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다. 원문에서의 주장을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원문과의 불일치가 심각합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 다른 의미를 전달하고 있으며, 원문의 맥락과는 맞지 않는 내용을 포함하고 있습니다. 그러나 일부 내용은 관련이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5660481129847023</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 모집에서 수능을 응시하지 않아도 일부 전형에서는 지원이 가능합니다. 예를 들어, 농어촌학생전형과 평생학습자전형, 성인학습자전형, 재직자전형인 경우 수능 응시 여부에 관계없이 지원할 수 있습니다.
+특히, 농어촌학생전형의 경우 다음과 같은 자격을 갖추면 지원이 가능합니다:
+- 농어촌(읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수한 자
+- 중·고등학교 재학기간 동안 본인 및 부모가 농어촌 지역에 거주한 자
+또한, 평생학습자전형, 성인학습자전형, 재직자전형에서는 학력과 경력을 중심으로 평가되므로 수능 응시 여부에 관계없이 지원이 가능합니다.
+따라서, 정시 모집에서 수능을 응시하지 않아도 위와 같은 전형에서는 지원할 수 있습니다. 하지만 특정 단과대학이나 계열, 모집단위에서는 수능 성적을 반영하기 때문에 그 부분은 주의해야 합니다. 자세한 내용은 해당 대학의 입학처 웹사이트를 참조하거나 직접 문의하는 것이 좋습니다. https://ipsi. deu. ac. kr/main. do 를 방문하여 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 사실을 언급하고 있으며, 검정고시 출신자로 분류될 수 있다는 점도 언급하고 있습니다. 그러나, 검정고시 출신자에 대한 서류 제출 요건이 추가로 설명되었지만, 원문에서 언급된 "고교유형별 지원자격" 표에 대한 구체적인 내용이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 검정고시 출신자로 분류될 수 있다는 점에서 원문과의 일관성이 떨어집니다. 원문에서는 모든 고등학교 졸업생이 정시 지원이 가능하다고 명시하고 있으나, 생성된 응답에서는 특정 조건을 추가하여 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다룬 주제와 관련이 깊으며, 정시 지원 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 검정고시 출신자에 대한 설명이 추가되면서 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 점에서 정확하지만, 검정고시 출신자에 대한 서류 제출 요건이 추가되어 원문과의 차이가 발생합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 세부사항에서 원문과의 차이가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 주제에 적합한 내용을 담고 있습니다. 그러나 검정고시 출신자에 대한 추가 정보가 원문과의 의미적 일관성을 약간 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 가독성이 떨어질 수 있습니다. 따라서 명확하게 전달되지만, 약간의 개선이 필요합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.7084279087868361</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024년 나군 학생부종합전형의 경우, 정시 지원은 가능하지만, 지원 자격과 서류 제출 요건이 있습니다. 특히 고등학교 졸업한지 10년이 지났다면 검정고시 출신자로 분류될 수 있으며, 그에 따른 서류 제출 요건을 확인해야 합니다.
+검정고시 출신자의 경우 다음과 같은 서류가 필요합니다:
+1. 검정고시 합격증서 사본 또는 합격증명서 1부
+2. 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+3. 학교생활기록부 대체 서류 (제출여부 선택 가능)
+따라서, 고등학교 졸업한지 10년이 지났다면 검정고시 출신자로 분류되며, 위와 같은 서류를 제출해야 합니다. 또한 지원 자격과 전형 요건을 확인하여 지원 가능성을 판단하는 것이 좋습니다.
+더 자세한 내용은 https://ipsi. deu. ac. kr/main. do 웹사이트에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 비고 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.8294406079462228</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입니다.
+   - 비고는 입학안내 홈페이지 공고입니다.
+2. **원서접수(인터넷)**: 
+   - 일정은 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일 18시까지입니다.
+   - 비고는 [http://ipsi. deu. ac. kr] 또는 [http://www. uwayapply. com] 입니다.
+3. **서류 제출**:
+   - 일정은 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일 17시까지 도착입니다.
+   - 비고는 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송입니다.
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과의 일정은 2024년 1월 16일 (화) 입니다.
+   - 비고는 대기실 및 입실시간 안내 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회입니다.
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과, 체육학과의 일정은 2024년 1월 17일 (수) 입니다.
+   - 비고는 대기실 및 입실시간 안내 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회입니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표는 2024년 2월 2일 (금) 14:00이며, 비고는 *발표: 홈페이지에서 개별 조회 *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 *등록장소: 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 최초 합격자 등록은 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행마감시간 내이며, 비고는 *발표: 홈페이지에서 개별 조회 *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 *등록장소: 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 1차 (인터넷) 발표는 2024년 2월 14일 (수) 9:00이며, 비고는 *발표: 홈페이지에서 개별 조회 *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 *등록장소: 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 1차 (인터넷) 등록은 2024년 2월 14일 (수) 9:00 ~ 16:00이며, 비고는 *발표: 홈페이지에서 개별 조회 *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 *등록장소: 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 2차 (인터넷) 발표는 2024년 2월 15일 (목) 9:00이며, 비고는 *발표: 홈페이지에서 개별 조회 *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 *등록장소: 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 2차 (인터넷) 등록은 2024년 2월 15일 (목) 9:00 ~ 16:00이며, 비고는 *발표: 홈페이지에서 개별 조회 *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 *등록장소: 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표는 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지이며, 비고는 *발표: 홈페이지에서 개별 조회 *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 *등록장소: 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록은 개별 전화 통보 시 안내이며, 비고는 *발표: 홈페이지에서 개별 조회 *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 *등록장소: 학교 지정은행(등록금 고지서에 기재)입니다.
+이상과 같이 동의대학교 정시 모집일정을 설명하였습니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8492749553146544</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입니다.
+   - 비고는 입학 안내 홈페이지 공고입니다.
+2. **원서접수(인터넷)**: 
+   - 일정은 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일 18시까지 입니다.
+   - 비고는 [http://ipsi. deu. ac. kr] 또는 [http://www. uwayapply. com]를 참조하세요.
+3. **서류 제출**:
+   - 일정은 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일 17시까지 도착해야 합니다.
+   - 비고는 서류 제출 대상 (Ⅳ. 전형별 세부 안내 참조)에 따라 제출 방법이 접수 사이트에서 우편 발송용 표지를 출력하여 부착 후 제출하거나 우편으로 보내야 합니다.
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과의 경우 2024년 1월 16일 (화)에 실시됩니다.
+   - 비고는 대기실 및 입실 시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과, 체육학과의 경우 2024년 1월 17일 (수)에 실시됩니다.
+   - 비고는 대기실 및 입실 시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표는 2024년 2월 2일 (금) 14:00입니다.
+     - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록은 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행 마감 시간 내입니다.
+     - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표는 2024년 2월 14일 (수) 9:00입니다.
+     - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록은 2024년 2월 14일 (수) 9:00 ~ 16:00입니다.
+     - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표는 2024년 2월 15일 (목) 9:00입니다.
+     - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록은 2024년 2월 15일 (목) 9:00 ~ 16:00입니다.
+     - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표는 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지입니다.
+     - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록은 개별 전화 통보 시 안내입니다.
+이상과 같이 동의대학교 정시 모집 일정을 설명하였습니다. 필요하시면 추가 정보를 제공해 드릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 없다는 사실을 정확하게 반영하고 있습니다. 모든 전형에서 수능 점수가 필요하다는 점도 올바르게 언급되었습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 미응시자가 지원할 수 없다는 내용이 일치합니다. 따라서 일관성이 높습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 원본 텍스트의 주요 내용을 잘 반영하고 있습니다. 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 유창성이 뛰어납니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 명확하게 연결되어 있습니다. 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다. 정확성이 매우 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다. 전반적인 품질이 매우 높습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다. 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다. 이해 가능성이 매우 높습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.8204891962619077</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 없습니다. 모든 전형에서 수능 점수 반영이 필요하며, 수능 미응시자는 해당 전형에 지원할 수 없습니다.
+만약 더 자세한 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전자공학과의 충원 합격자가 36명이라고 언급하고 있지만, 1차 충원 합격자가 34명이라는 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 잘못된 정보입니다. 또한, "최소 2차까지 이루어졌을 것으로 추정"이라는 부분도 원본 텍스트의 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 충원 합격 차수에 대한 정보가 없다는 원본의 내용을 무시하고 있습니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 일부 잘못된 정보가 포함되어 있어 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 부분이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 특히, 충원 합격 차수에 대한 추정이 원본과 상충하여 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 특히 1차 충원 합격자 수에 대한 정보는 잘못된 것입니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 생성된 응답은 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미 적합성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장 구조는 명확하여 이해 가능성은 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.7873852074329817</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위인 전자공학과의 경우, 충원 합격자는 36명이었고, 이 중 1차 충원 합격자는 34명이었습니다. 따라서 전년도에 전자공학과의 충원 합격은 최소 2차까지 이루어졌을 것으로 추정할 수 있습니다.
+만약 더 정확한 정보가 필요하다면, 해당 대학의 입학처 웹사이트를 방문하여 자세한 내용을 확인해보시는 것이 좋겠습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 추가적인 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호를 명시적으로 언급하지 않고 있으며, 이는 원본 텍스트의 핵심 정보를 누락한 것입니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 전화번호를 제공하고 있지만, 생성된 응답은 전화번호가 언급되지 않았다고 주장하고 있습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 전화번호에 대한 질문에 대한 직접적인 답변을 제공하지 않으며, 관련성이 낮습니다. 그러나 웹사이트 링크를 언급하여 추가 정보를 제공하려고 하므로 점수는 2입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 정보가 전혀 포함되어 있지 않기 때문에 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받았으므로, 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않지만, 동의대학교에 대한 정보를 제공하려는 시도가 있으므로 점수는 2입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하게 작성되어 있으며, 이해하기 어렵지 않습니다. 따라서 이해 가능성 점수는 4입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.5749974326998282</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到东义大学入学处的电话号码。如果需要这个信息，建议访问东义大学官网或者直接联系学校的招生办公室获取准确的联系方式。更多信息可以参考“https://ipsi. deu. ac. kr/main. do”以获得最新数据。</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않을 경우 학생이 홈페이지에서 합격 여부를 확인할 수 있다고 언급하고 있지만, 원본 텍스트에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다고 명시하고 있습니다. 따라서 생성된 응답은 원본 텍스트의 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 전화 통화가 되지 않으면 등록 포기자로 처리된다고 명시하고 있지만, 생성된 응답은 홈페이지에서 합격 여부를 확인할 수 있다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본 텍스트의 핵심 내용인 전화 통화가 되지 않을 경우의 처리 방식에 대한 정보가 부족합니다. 그러나 홈페이지 조회와 관련된 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 보입니다. 전화 통화가 되지 않을 경우의 처리 방식에 대한 명확한 설명이 부족하여 일관된 구조를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 원본 텍스트의 내용을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 관계가 약해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 원본 텍스트와의 관계가 명확하지 않아 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.479041014164639</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면, 해당 학생은 홈페이지에서 개별 조회를 통해 합격 여부를 확인할 수 있습니다. 또한 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행(등록금 고지서에 기재된 것)으로 처리됩니다.
+따라서 전화 통화가 되지 않더라도 합격 여부와 관련된 정보를 홈페이지 및 고지서를 통해 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 제출해야 할 서류에 대한 정보를 제공하지만, 6년 과정과 12년 과정의 서류가 동일하다는 주장은 사실과 다릅니다. 6년 과정과 12년 과정에서 요구되는 서류가 다르기 때문에 이 부분에서 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 일부 일관성을 유지하고 있으나, 6년 과정과 12년 과정의 서류가 동일하다는 주장은 원본 텍스트와 모순됩니다. 이로 인해 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 제출해야 할 서류에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 나열되어 있습니다. 그러나 6년 과정과 12년 과정의 서류가 동일하다는 주장이 포함되어 있어 약간의 일관성 문제가 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 6년 과정과 12년 과정의 서류가 동일하다는 잘못된 정보가 포함되어 있어 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 정확성에서의 문제로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 잘못된 정보가 포함되어 있어 완벽한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7189342839763171</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정 모두 동일한 서류를 제출해야 합니다.
+제출서류:
+1. 지원자 본인의 가족관계증명서 1부
+2. 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+3. 중학교 학교생활기록부 1부 (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자) (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+추가적으로, 6년 과정에서는:
+5. 고교 졸업증명서 1부
+6. 지원자 본인, 부모의 초본 각 1부 (총 3부)
+12년 과정에서는:
+7. 고교 졸업증명서 1부
+이러한 서류들은 원본을 제출해야 하며, 원본 재발급이 불가능한 유일본의 경우 원본 제시 후 원본대조필이 가능합니다 (본교 입학관리팀 확인 후 원본은 반송). 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 발급)를 2024. 02. 16.(금)까지 추가 제출해야 합니다.
+위와 같은 서류들을 정확하게 준비하여 제출하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 대부분의 서류를 정확하게 나열하고 있지만, "이 외에 추가로 제출해야 할 서류는 없습니다"라는 부분은 사실과 다릅니다. 최종등록자의 경우 추가 서류가 필요하므로 이 부분에서 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 일부 일관성을 유지하고 있으나, 추가 서류에 대한 언급이 누락되어 있어 일관성이 떨어집니다. 최종등록자에 대한 서류가 필요하다는 점이 반영되지 않았습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 자연스럽습니다. 그러나 약간의 어색함이 느껴질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가 서류에 대한 언급이 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답의 내용 중 일부는 정확하지만, 최종등록자에 대한 추가 서류의 필요성을 언급하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으나, 사실성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으나, 일부 정보가 누락되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있으나, 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8260435233459028</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야 할 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+5. 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이 외에 추가로 제출해야 할 서류는 없습니다. 단, 중학교 재학 시 부모 모두 농어촌 지역에 거주한 자는 6년 과정 서류를 제출할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 저소득 기회균등 전형에 대한 일반적인 정보를 제공하고 있지만, 원본 텍스트에서 명시된 "기회균등 전형이 존재하지 않는다"는 사실을 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 기회균등 전형이 존재하지 않는다는 점과 모순됩니다. 이로 인해 일관성 점수도 낮습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 저소득 기회균등 전형에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용인 "전형이 존재하지 않는다"는 점을 간과하고 있습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 구조적으로 나쁘지 않지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 깨집니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성 모두 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락을 무시하고 있어 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 작성되어 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.5662540427605245</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2023년 정시 모집에서 저소득 기회균등 전형에 대한 정보는 제공된 문맥에서 직접적으로 언급되지 않았습니다. 일반적으로 저소득 기회균등 전형은 다음과 같은 특징을 가집니다:
+1. **대상**: 저소득층 학생들을 대상으로 합니다.
+2. **평가요인**: 주로 학생부와 면접, 그리고 경제적 상황 등을 종합적으로 평가합니다.
+3. **전형요소 비율**: 학생부 50%, 면접 40%, 경제적 상황 10% 등으로 구성될 수 있습니다.
+하지만, 제공된 정보는 정시 모집의 특정 전형에 대한 자세한 내용이 아니므로, 저소득 기회균등 전형에 대한 자세한 내용은 각 대학의 공식 홈페이지나 입학처에서 확인해 보시기 바랍니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 더 자세한 정보를 얻으실 수 있습니다.
+만약 저소득 기회균등 전형에 대한 자세한 내용이 필요하시다면, 해당 대학의 입학처 웹사이트나 전화로 문의해 보시는 것이 가장 정확한 정보를 얻을 수 있는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저등급의 절사 여부에 대한 정보가 없다는 원문 내용을 왜곡하고 있습니다. 원문에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있지만, 생성된 응답은 2.5 등급이 그대로 반영된다고 주장하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 2.5 등급이 반영된다고 주장하여 서로 모순되는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있지만, 원문에서 강조한 절사 여부에 대한 정보가 부족하다는 점을 간과하고 있습니다. 그러나 2.5 등급에 대한 설명은 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문에서 제시한 정보와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 내용을 포함하고 있어 정확성이 낮습니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 이를 반영하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 원문과의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원문과의 불일치로 인해 전체적인 의미 전달이 부족합니다. 원문에서 강조한 점을 간과하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6931844287433393</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급이 나오더라도 절사하여 3등급으로 처리하지 않고, 그대로 2.5 등급으로 평균산출을 진행합니다. 수능 최저등급에서 사탐 2 과목의 평균산출은 정확한 등급을 기반으로 합니다.
+만약 특정 영역에서 2.5 등급이 나온다면, 그 점수를 해당 영역의 평균산출에 포함하여 처리합니다. 따라서 2.5 등급은 반영될 것입니다.
+자세한 내용은 "https://ipsi. deu. ac. kr/main. do" 링크에서 확인해 보시는 것이 가장 정확할 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 정시 충원 합격자 발표가 총 4차로 이루어진다고 잘못된 정보를 제공하고 있습니다. 원본 텍스트에 따르면 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 진행된다고 명시되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 3차 발표까지 있다고 명시하고 있지만, 생성된 응답은 4차 발표가 있다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 정시 충원 합격자 발표에 대한 정보를 제공하고 있습니다. 따라서 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보를 명확하게 전달하고 있습니다. 그러나 4차 발표에 대한 잘못된 정보로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. 4차 발표에 대한 언급은 잘못된 정보입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 일관성에서 큰 문제를 가지고 있어 전반적인 품질이 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8315229866117025</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다.
+1. **1차 발표**: 2024년 2월 15일(목) 09:00에 이루어집니다.
+2. **2차 발표**: 2024년 2월 15일(목) 09:00~16:00 사이에 이루어집니다.
+3. **3차 이후 발표**: 이는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 개별 전화 통보로 이루어집니다.
+이와 같이 총 4차에 걸쳐 정시 충원 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 e-비즈니스학과의 정시 전형에 대한 구체적인 정보를 제공하지 않으며, 수능 성적 기준에 대한 명확한 답변을 하지 않고 있습니다. 그러나 제공된 정보의 일부를 요약하고 있으며, 이는 사실에 기반한 내용입니다. 하지만 전체적으로는 정보가 부족하여 점수를 낮게 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 전형에 대한 구체적인 수능 성적 기준을 명확히 하지 않기 때문에 일관성이 떨어집니다. 원본 텍스트에서 제시된 평균 점수와 관련된 정보가 누락되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 e-비즈니스학과의 정시 전형에 대한 질문에 대한 답변을 시도하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 수치와 비교하는 내용이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트의 정보와의 연결이 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, 수능 성적 기준에 대한 구체적인 정보가 부족하여 정확성이 떨어집니다. 원본 텍스트의 평균 점수와 관련된 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 정보의 정확성과 일관성이 부족하여 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 원본 텍스트의 구체적인 수치와 비교하는 내용이 부족하여 완전한 적절성을 갖추지 못했습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 다만, 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5602040949768692</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 e비즈니스학과의 정시 전형에 대한 자세한 내용을 알 수 없습니다. e비즈니스학과의 정시 전형에서 수능 성적 기준이 어떻게 설정되어 있는지 명확히 파악하기 위해서는 해당 대학의 공식 웹사이트를 참조하거나 입학처에 직접 문의해야 합니다.
+입력하신 정보 중에서 유용한 내용을 요약하면 다음과 같습니다:
+- 다군 수능(일반학생전형) 모집단위 및 모집인원에서 단과대학은 상경대학이며, 계열은 인문사회이며, 모집단위는 e비즈니스학과  - 신설이며, 모집인원은 10이다.
+- 다군 수능(일반학생전형) 전형요소 반영비율에서 전형명은 다군 수능(일반학생전형)이며, 모집단위는 전 모집단위이며, 전형요소 반영비율의 수능은 100%이다.
+- 다군 수능(일반학생전형) 동점자 처리기준에서 순위는 4이며, 동점자 처리기준은 교과 성적 상위자이다.
+이 정보만으로는 e비즈니스학과의 정시 전형에 대한 수능 점수 기준을 알 수 없습니다. 따라서 추가 합격 가능성 여부를 판단하기 위해서는:
+1. 해당 대학의 입학처 웹사이트에서 정시 전형의 모집요강을 확인합니다.
+2. e비즈니스학과의 정시 전형에 대한 수능 점수 기준이 어떻게 설정되어 있는지 파악합니다.
+추가로, e비즈니스학과의 정시 전형에 대한 자세한 내용은 입학처에 직접 문의하거나 대학의 공식 웹사이트를 참조하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 영어 등급과 수능 4개 영역 등급 평균을 언급하고 있으며, 정시 등급 5.3에 대한 합격 가능성을 논의하고 있습니다. 그러나 경쟁률에 대한 정보는 추가적인 데이터로 보완되었지만, 원본 텍스트의 핵심 정보와는 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 경쟁률에 대한 추가 정보가 포함되어 있어 원본 텍스트와의 일관성이 떨어질 수 있습니다. 경쟁률에 대한 언급이 원본 텍스트에 포함되지 않았기 때문에 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 정시 등급 5.3에 대한 합격 가능성을 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 문장이 잘 연결되어 있습니다. 그러나 경쟁률에 대한 정보가 추가되면서 약간의 혼란이 생길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 경쟁률에 대한 정보가 추가되면서 정확성이 다소 떨어질 수 있습니다. 그러나 전반적으로 정확한 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지지만, 경쟁률에 대한 추가 정보가 원본의 맥락과 완전히 일치하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6922103216820991</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률을 확인해보겠습니다.
+- **모집 인원**: 3명
+- **지원 인원**: 16명
+- **경쟁률**: 5.33
+이 데이터를 바탕으로, 정시 등급 5.3인 경우 e비즈니스학과에 최초 합격 가능성은 높지 않을 것으로 보입니다. 경쟁률이 5.33이라는 것은 지원자 중에서 상위 19%만 합격하게 되는 것을 의미합니다.
+하지만, 정시 등급 5.3이란 점수 자체가 합격 기준을 넘는다면 최초합격 가능성은 있을 수 있습니다. 그러나 이 경우에도 경쟁률이 매우 높기 때문에 확실한 것은 아닙니다.
+추가적으로, 동의대학교 e비즈니스학과의 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 430.10이며, 이 점수가 정시 등급 5.3에 해당하는 점수보다 높다면 경쟁률이 더 높아질 수 있습니다.
+따라서, 정시 등급 5.3인 경우 e비즈니스학과에 최초 합격 가능성은 낮지만, 확실한 것은 아닙니다. 실제 합격 가능성을 확인하려면 동의대학교 e비즈니스학과의 최종 합격자 명단을 참조하거나, 동의대학교 입학처에 문의하는 것이 가장 정확할 것입니다.
+더 자세한 정보를 얻고 싶으시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비합격 여부를 판단하기 어렵다고 언급하고 있지만, 원본 텍스트에서 제공된 정보에 따르면 예비 38번의 경우 예비 합격 가능성이 낮다고 명확히 언급하고 있습니다. 따라서, 응답이 원본의 사실을 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 예비합격 가능성에 대한 불확실성을 강조하고 있지만, 원본 텍스트의 명확한 정보와는 일치하지 않습니다. 원본에서는 예비 38번의 경우 가능성이 낮다고 명시하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비합격 여부를 판단하기 위한 절차를 제시하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 정보에 대한 직접적인 언급이 부족하여 약간의 관련성 결여가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비합격 가능성에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 사실을 반영하지 못하고 있습니다. 예비 38번의 경우 가능성이 낮다는 점을 간과하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있습니다. 그러나 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 예비합격 여부에 대한 불확실성을 잘 전달하고 있습니다. 그러나 원본의 명확한 사실과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달됩니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.5083467454930012</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 예비합격 여부를 판단하기 어렵습니다. 전형일정과 모집인원, 지원자의 성적 등 다양한 요소가 고려되어 결정됩니다.
+이정도의 성적이 예비합격 가능할지 확인하려면 다음과 같은 절차를 따르는 것이 좋습니다:
+1. **최근 성적 확인**: 지원자의 성적을 가장 최근까지 확인합니다.
+2. **모집인원 확인**: 해당 전공과 모집단위의 모집인원 수를 확인합니다.
+3. **동점자 처리 기준 확인**: 동점자 처리 기준을 확인하여 자신의 성적이 어느 순위에 속하는지 판단합니다.
+더 자세한 정보를 얻기 위해서는 입학안내 홈페이지(https://ipsi. deu. ac. kr/main. do) 또는 지원사이트(http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com)를 참조하거나, 학교 입학관리팀에 문의하는 것이 가장 정확한 방법입니다.
+입학 관련 정보는 매년 변경될 수 있으므로 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 합격 가능성에 대한 정보를 정확하게 반영하고 있습니다. 그러나, "정원 내 모집 인원이 110명"이라는 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일관성을 유지하고 있습니다. 그러나, 추가된 정보가 원본 텍스트와 완전히 일치하지 않기 때문에 완벽한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답의 대부분은 정확하지만, 원본 텍스트에 없는 정보가 포함되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 일부 정보의 부정확성으로 인해 완벽한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.63063514672389</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 합격할 확률은 상당히 낮습니다. 동의대학교 간호학과의 정원 내 모집 인원이 110명이며, 수능 전형성적 산출방법은 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수입니다. 이에 더해, 간호학과는 높은 학업 성적이 요구되는 과목이므로 3.44의 GPA로는 경쟁력을 갖추기 어렵습니다.
+하지만, 모든 것이 절대적인 것은 아닙니다. 다음과 같은 방법들을 시도해보시는 것을 추천드립니다:
+1. **학생부 종합전형**: 학생부 종합전형에서는 교과 성적 외에도 다양한 요소가 고려되므로 GPA가 낮더라도 다른 부분에서 우수한 점수를 받으면 가능성이 있습니다.
+2. **특기자 전형**: 특정 분야에서 뛰어난 실력을 보유하고 있다면 특기자 전형인 '체육특기자', '음악특기자' 등에 지원해보세요.
+3. **나군 실기/실적 전형**: 실기와 실적을 중점적으로 평가하는 나군에서 경기 실적 우수자를 대상으로 모집하는 경우도 있으므로 이 부분을 고려해보시는 것도 좋습니다.
+4. **다군 학생부 종합전형**: 학생부 교과성적이 높은 경우, 다군에서 합격할 수 있습니다.
+5. **재수 시도**: 현재의 성적으로는 합격이 어려울 수 있지만 재수를 통해 성적을 향상시키고 다시 지원해보시는 것도 방법입니다.
+6. **추가 정보 제공**: 동의대학교에 직접 문의하여 추가로 필요한 자료나 절차 등을 확인해보세요.
+결론적으로, 3.44의 GPA로는 간호학과에 합격하기 어렵지만, 다양한 전형을 시도하고 노력하면 가능성을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 간호학과의 평균 성적과 경쟁률에 대한 정보가 잘못되었습니다. 원문에서는 2.52의 성적이 평균 등급보다 높다고 언급했으나, 생성된 응답에서는 이 성적이 간호학과에 합격하기에 부족하다고 주장하고 있습니다. 또한, 수능 성적에 대한 정보도 원문과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 2.52의 성적이 합격 가능성이 높다고 했지만, 생성된 응답에서는 이 성적이 부족하다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원문과의 일치성 부족으로 인해 일부 정보가 부적절하게 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있으나, 정보의 흐름이 매끄럽지 않아 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 일치하지 않는 정보가 많습니다. 특히, 수능 성적에 대한 요구 사항이 원문과 다르게 제시되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 많아 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성에서 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있으나, 원문과의 불일치로 인해 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 정보의 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6260980727228921</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52라는 점수로 동의대학교 간호학과에 최종합격하기는 어려울 것으로 보입니다. 동의대학교 간호학과의 경쟁률은 매우 높고, 평균 합격 점수가 상당히 높습니다.
+간호학과의 경우 일반적으로 다음과 같은 요소들이 고려됩니다:
+1. 수능 성적: 평균 350점 이상이 요구되며, 일부 모집단위에서는 400점을 넘는 합격자가 있습니다.
+2. 서류평가 점수: 공동체역량 영역에서 높은 점수가 필요합니다 (평균 130점 이상).
+3. 면접 성적: 전공적합성과 학업역량을 평가하며, 이 부분에서도 높은 점수가 요구됩니다.
+현재의 수능 점수(2.52)는 간호학과에 충분한 점수가 아닌 것으로 보입니다. 그러나 서류평가와 면접 성적에서 좋은 결과를 얻으면 가능성은 열려 있습니다.
+추가적으로, 동의대학교 간호학과의 모집인원이 22명이고 지원 인원이 145명이라는 점을 고려하면 경쟁률이 매우 높습니다. 이에 따라 충원 합격자 수(37명)도 많으므로, 최종합격 가능성은 낮다고 판단할 수 있습니다.
+만약 간호학과에 진학하고 싶다면, 다른 대학이나 모집단위를 고려해 보는 것이 좋을 것 같습니다. 또한, 수능 준비를 다시 한 번 체계적으로 하거나, 추가 학습 자료를 활용하여 점수를 향상시키는 것도 방법이 될 수 있습니다.
+더 자세한 정보나 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 3.7의 점수가 간호학과에 지원하는 데 충분할 수 있다고 주장하지만, 원본 텍스트에서는 3.7이 평균 등급보다 낮아 합격 가능성이 낮다고 명시하고 있습니다. 이로 인해 사실관계가 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본에서는 3.7이 낮은 성적이라고 언급했으나, 생성된 응답에서는 충분한 점수일 수 있다고 주장하여 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 일부 세부사항은 원본 텍스트와 직접적으로 관련이 없을 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 특히, 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반되는 주장을 하고 있어 정확성이 떨어집니다. 3.7의 점수가 낮다고 명시된 원본과는 반대의 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실관계와 일관성에서 낮은 점수를 받았으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 완전한 적절성을 보이지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 복잡한 문장은 이해를 어렵게 할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6683115536364227</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 평균점수는 간호학과에 지원하는 데 충분한 점수일 수 있습니다. 그러나 간호학과의 경우, 학생부 교과성적뿐만 아니라 실기 성적도 중요하게 고려되기 때문에, 정확한 합격 가능성은 모집인원, 전형요소 반영비율, 동점자 처리 기준 등을 고려해야 합니다.
+현재 제공된 정보를 바탕으로 간호학과에 대한 몇 가지 주요 사항을 확인해 보겠습니다:
+1. **모집인원**: 22명
+2. **전형요소 반영비율**:
+   - 수능: 100%
+   - 실기/실적: 없음 (즉, 수능 절대평가)
+3. **동점자 처리 기준**: 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수 상위자
+이 정보를 바탕으로, 3.7의 평균점수가 충분히 높은 점수일 것으로 보입니다. 그러나 수능 국어, 수학, 영어 등 각 과목별 성적도 중요하게 고려됩니다.
+따라서, 정확한 합격 가능성 판단을 위해서는:
+- **수능 절대평가** 결과를 확인해야 합니다.
+- **동점자 처리 기준**에 따라 수능 국어, 수학, 영어 등 각 과목별 성적도 중요하게 고려됩니다.
+따라서, 3.7의 평균점수가 간호학과에 지원하는 데 충분한 점수일 것으로 보이지만, 최종 합격 가능성은 수능 절대평가 결과와 동점자 처리 기준을 참조하여 판단해야 합니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문해 보시거나, 대학 입학처에 문의하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 간호학과의 정시 합격 기준 점수가 공개되지 않았다고 언급하고 있지만, 원문에서는 현재 정시 등급이 2.58이라면 합격 가능성이 높다고 명시하고 있습니다. 따라서, 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 일치하지 않으며, 합격 가능성에 대한 판단을 어렵다고 하여 원문과 모순되는 내용을 포함하고 있습니다. 원문은 합격 가능성이 높다고 명시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 간호학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원문에서 제시된 구체적인 성적 기준에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원문과의 일관성이 부족하여 전체적인 일관성은 다소 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 구체적인 성적 기준과 합격 가능성에 대한 정보를 왜곡하고 있습니다. 원문은 2.58의 성적이 평균보다 높다고 명시하고 있으나, 생성된 응답은 이를 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일관성이 부족하고, 사실성 및 정확성에서 낮은 점수를 받았습니다. 전반적으로 원문과의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 관계에서 벗어난 내용이 포함되어 있어 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.572489306091745</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과에 대한 정시 합격 기준 점수는 공개되지 않았습니다. 따라서 현재로서는 정확한 합격 가능성을 판단하기 어렵습니다.
+정시 전형의 합격 기준은 모집단위, 학과, 그리고 해당해 있는 성적 영역 등에 따라 다르므로, 동의대학교 간호학과의 정시 합격 기준 점수를 확인해야 합니다. 이 정보는 동의대학교 입학처 웹사이트나 입학 안내서에서 확인할 수 있습니다.
+추가적으로, 간호학과의 경우 실기 평가도 포함되어 있으므로, 단순히 성적만으로 합격 가능성을 판단하기 어렵습니다. 실기 평가 점수와 함께 고려해야 합니다.
+따라서, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다. 더 자세한 내용을 확인하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 게임공학과의 예비 합격 가능성에 대한 정보가 부족하다고 언급하고 있지만, 원본 텍스트에서는 예비 7번의 경우 예비 합격 가능성이 낮다고 명확히 언급하고 있습니다. 따라서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용을 반영하지 않고, 예비 7번에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 게임공학과에 대한 정보 확인 방법을 제시하고 있지만, 원본 텍스트의 핵심 내용인 예비 합격 가능성에 대한 직접적인 답변이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 정보 확인 절차를 나열하고 있지만, 원본 텍스트의 주제와 연결성이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 핵심 사실을 잘못 해석하고 있으며, 예비 7번의 합격 가능성에 대한 명확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 다차원적 품질도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있어 의미적 적합성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.6229242663959836</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 게임공학과에 대한 모집단위와 모집인원 등이 명시되어 있지 않습니다. 현재까지의 정보에서는 게임공학과에 대한 특별한 내용이 없어 보아서는 불확실합니다.
+게임공학과에 대한 모집정보를 확인하기 위해서는 다음과 같은 절차를 따르는 것이 좋습니다:
+1. **입학 안내 홈페이지**를 방문하여 최신 정보를 확인하세요.
+2. **모집단위 및 모집인원**을 확인하고, 자신의 예비번호가 해당 모집단위 내에 포함되어 있는지 확인하세요.
+3. **최종 합격자 발표 일정**을 확인하여, 합격 여부를 확인할 수 있는 시점이 언제인지 파악하세요.
+만약 입학 안내 홈페이지에서 게임공학과의 정보를 찾을 수 없다면, "https://ipsi. deu. ac. kr/main. do" 주소로 접속하여 최신 정보를 확인하거나, 학교 입학관리팀에 직접 문의하는 것이 좋습니다.
+현재로서는 불확실한 상황이므로, 정확한 정보를 얻기 위해 위와 같은 방법을 활용해보세요.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 점수 4.16이 낮다고 언급하고 있으며, 평균 수능 4개 영역 등급이 5.25라고 잘못된 정보를 제공합니다. 원본 텍스트에서는 평균 등급이 4.78로 명시되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 예를 들어, 평균 수능 등급에 대한 잘못된 정보와 함께, 추가 합격 가능성에 대한 예측이 원본 텍스트의 내용과 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 관련된 정보를 포함하고 있습니다. 그러나 일부 잘못된 정보로 인해 완전한 관련성을 잃었습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 정보의 연결이 매끄럽지 않은 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. 특히 평균 수능 등급에 대한 잘못된 수치가 문제입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서의 품질이 낮습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 신뢰할 수 있는 정보가 아닙니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 의미를 전달하려고 하지만, 잘못된 정보로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 내용이지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 문장은 명확하게 작성되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6509397662360811</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 점수는 게임공학과의 경쟁률을 고려할 때 낮은 점수로 보입니다. 게임공학과의 모집인원은 3명이며, 지원 인원이 16명으로 높은 경쟁률을 가지고 있습니다. 평균 수능 4개 영역 등급의 평균은 5.25이고, 표준 편차는 0.35입니다.
+수능 점수가 4.16인 경우 이 점수는 평균보다 상당히 낮습니다. 경쟁률이 높고 모집 인원이 적은 만큼 추가 합격 가능성은 매우 낮을 것으로 예상됩니다. 하지만 최종 합격 여부는 서류평가, 면접평가 등 다른 요소도 고려되기 때문에 완전히 배제할 수는 없습니다.
+추가적으로 지원하기 위해서는:
+1. **서류평가**에서 좋은 평점을 받는 것이 중요합니다. 공동체역량, 학업역량, 전공적합성 등 영역에서 높은 점수를 얻어야 합니다.
+2. **면접평가**에서도 좋은 성적을 받아야 하며, 면접 질문에 대한 답변이 탄탄해야 합니다.
+따라서 4.16이라는 수능 점수로 추가 합격 가능성은 매우 낮지만, 최종 결과는 서류평가와 면접평가 등 다른 요소도 고려되기 때문에 완전히 배제할 수 없습니다. 자세한 정보는 입학사정관이나 대학 홈페이지를 통해 확인하시기 바랍니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적과 관련된 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(영어 2.88, 수능 3.88)에 대한 언급이 없고, 학생부 교과성적 반영방법에 대한 정보가 추가되어 있어 원본의 핵심 내용을 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 학생부 교과성적 반영방법에 대한 정보가 추가되어 있어 원본의 주제와는 다소 일치하지 않는 부분이 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적과 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 평균 등급에 대한 정보가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약해져 다소 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급에 대한 정보가 누락되어 있어 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부 정보는 유용하지만 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 경영정보학과의 지원에 대한 정보를 제공하고 있습니다. 그러나 원본의 맥락과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.6758880470591906</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과의 정시 모집군에서 경영정보학과를 지원하려면, 학생부 교과성적 반영방법을 확인해야 합니다. 현재 제공된 정보에서는 2023학년도와 2024학년도의 학생부 교과성적 반영방법이 다소 다르게 변경되어 있습니다.
+2023학년도에는 전 모집단위(한의예과 제외)에서 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 8과목을 반영하였습니다. 
+2024학년도에는 전 모집단위(한의예과 제외)에서 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영하였습니다. 
+따라서 경영정보학과를 지원하려면, 2024학년도의 학생부 교과성적 반영방법에 따라 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 확인해야 합니다. 
+만약 경영정보학과의 정시 성적 3.75가 이 12과목 중에서 좋은 성적이었다면 최초 등록자로 가능할 수 있습니다. 하지만, 정확한 판단을 위해서는 해당 학교의 공식 홈페이지(https://ipsi. deu.ac.kr/main.do)를 확인하거나, 입학처에 문의하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성을 판단하기 위해 여러 요소를 고려해야 한다고 언급하고 있지만, 원본 텍스트에서 제시된 평균 등급과 비교했을 때 4.2라는 성적이 낮다고 명시한 부분과는 일치하지 않습니다. 따라서 일부 사실이 왜곡되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 4.2라는 성적이 평균 등급보다 낮다고 한 원본의 주장을 반박하는 내용이 포함되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 다양한 요소를 다루고 있어 관련성이 높지만, 원본 텍스트의 핵심 정보인 평균 등급과의 비교가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 다소 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보를 제공하지만, 원본 텍스트의 평균 등급과의 비교에서 정확성이 떨어집니다. 4.2라는 성적이 평균보다 낮다고 한 원본의 주장을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 경영정보학과의 합격 가능성을 평가하는 데 필요한 요소들을 잘 설명하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.7548072486595381</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.2인데 경영정보학과 최초 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 최초합격 가능성 판단하기 어렵습니다. 경영정보학과의 최초합격을 결정하는 요소들은 수능 점수, 서류평가 결과, 면접 성적 등이 복합적으로 반영되기 때문입니다.
+현재 제공된 데이터는 수능(일반학생전형) 최초합격자들의 정보이며, 정시 성적이 4.2인 경우 경영정보학과의 합격 가능성은 다음과 같이 판단할 수 있습니다:
+1. **수능 점수**: 현재 제공된 데이터에서 수능 평균 점수가 300-400점대이므로, 4.2라는 성적이 상대적으로 높은 점수입니다.
+2. **서류평가 및 면접**: 서류평가 영역과 면접 평가 영역에서의 성적도 중요합니다. 예를 들어, 학업역량이나 전공적합성 등이 요구되므로, 이 부분에서도 좋은 성적이 필요할 수 있습니다.
+3. **경쟁률**: 경영정보학과의 경쟁률을 고려해야 합니다. 경쟁률이 높다면 4.2라는 점수만으로는 합격하기 어렵습니다.
+따라서, 정시 성적이 4.2인 경우 경영정보학과 최초합격 가능성은 낮다고 판단할 수 있습니다. 하지만 이는 단순히 수능 점수만을 기준으로 한 것이므로, 서류평가와 면접 성적 등이 좋은 결과를 가져올 경우 합격 가능성도 있을 수 있습니다.
+더 정확한 판단을 위해서는 해당 대학의 최종 합격기준과 경쟁률 등을 확인하시거나, 입학사정관이나 관련 컨설팅 서비스에 문의하시는 것이 좋습니다. 더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 포함하고 있으며, 5.33이라는 성적이 평균 등급보다 낮다는 점을 잘 반영하고 있습니다. 그러나 성적 산출 방법에 대한 구체적인 정보는 원본 텍스트에 포함되어 있지 않으므로, 일부 정보가 추가되어 사실성을 약간 저해합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 기반으로 하고 있지만, 추가된 세부사항(예: 성적 산출 방법, 예시 성적 등)이 원본 텍스트와 일치하지 않거나 모순될 수 있는 부분이 있습니다. 특히, 성적 산출 방법에 대한 설명이 원본 텍스트에 명시되어 있지 않기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 경영정보학과의 합격 가능성에 대한 정보를 잘 다루고 있습니다. 원본 텍스트의 주요 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 세부사항이 추가되어 전체적인 흐름이 약간 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 정확하게 반영하고 있습니다. 그러나 성적 산출 방법에 대한 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 정확성에 약간의 의문이 생깁니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 사실성에서 약간의 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 추가된 세부사항이 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6055018022460916</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>5.33이라는 성적을 가지고 동의대학교 경영정보학과에 대한 일반학생전형에서 합격 가능성은 다음과 같이 판단됩니다.
+1. **수능 반영 영역 및 가산점**:
+   - 국어, 수학, 영어, 탐구 영역 중 각 영역별 25%씩 반영되며, 가산점이 없습니다.
+2. **성적 산출 방법**:
+   - 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수로 합산됩니다.
+3. **경쟁률 및 합격 기준**:
+   - 동의대학교 경영정보학과의 경우, 정시 모집에서 각 반영 영역별 점수가 중요합니다.
+   - 예를 들어, 국어 104점, 수학(미적분 또는 기하) 108점, 영어 4등급, 탐구 47점과 59점이면 합산된 점수를 확인해야 합니다.
+4. **예시 성적 산출**:
+   - 국어: 104
+   - 수학(미적분 또는 기하): 108 (가산점 없음)
+   - 영어: 139 (4등급에 해당하는 점수)
+   - 탐구: 59 (2개 과목 합산)
+   **합산된 점수**: 104 + 108 + 139 + 59 = 410
+5. **결론**:
+   - 5.33이라는 성적을 가지고 합격 가능성은 낮습니다. 일반적으로 경영정보학과의 경우 국어, 수학, 영어 등급 점수가 높아야 합니다.
+   - 정확한 합격 가능성을 확인하려면 동의대학교 입학처 홈페이지나 전화로 문의하는 것이 좋습니다.
+따라서, 5.33이라는 성적을 가지고 경영정보학과에 일반학생전형으로 합격하기는 어려울 것으로 보입니다. 더 자세한 정보를 얻기 위해서는 동의대학교 입학처에 직접 문의하시거나, 해당 홈페이지에서 공지사항을 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 등급과 지원 인원, 경쟁률에 대한 정보를 포함하고 있으며, 3.33의 성적이 합격 가능성이 높다는 점을 잘 반영하고 있습니다. 그러나, 원본 텍스트에서 제공된 평균 등급(영어 3.82, 수능 4.74)에 대한 언급이 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일관성을 유지하고 있습니다. 다만, 원본 텍스트의 평균 등급에 대한 정보가 포함되지 않아 약간의 불일치가 발생합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 지원 가능성에 대한 분석을 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 약간의 정보 누락으로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 제공된 데이터에 기반하여 정확한 정보를 제공하고 있습니다. 그러나 원본 텍스트의 평균 등급에 대한 정보가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 정보 누락으로 인해 완전한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 평균 등급에 대한 정보가 부족하여 약간의 의미적 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.6678765742062697</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 바이오응용공학부에 지원하려면, 현재 제공된 데이터를 바탕으로 분석해볼 수 있습니다.
+바이오응용공학부는 2023년과 2024년 모두 모집단위로 운영되었으며, 지원 인원과 경쟁률을 고려할 때, 성적 3.33 정도의 학생은 충분히 가능성이 있습니다.
+- **2023학년도**: 지원 인원이 18명이고, 경쟁률은 4.56입니다.
+- **2024학년도**: 지원 인원이 17명이고, 경쟁률은 3.94입니다.
+이는 2024년에 더 낮은 경쟁률을 보여주고 있어 성적 3.33 정도의 학생들도 충분히 등록될 수 있는 가능성이 있습니다.
+하지만, 최종 결정은 동의대학교 입학처에서 이루어지므로, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보는 포함하고 있지만, 학생부 종합 평가와 관련된 내용은 원본 텍스트에 명시된 정보와 일치하지 않으며, 방사선학과에 대한 합격 가능성에 대한 명확한 언급이 부족하다. 따라서 사실성 점수는 낮다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많다. 예를 들어, 학생부 종합 평가에 대한 언급은 원본 텍스트에 없으며, 이는 일관성을 떨어뜨린다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용인 정시 등급과 합격 가능성에 대한 직접적인 언급이 부족하다. 따라서 관련성 점수는 중간 정도로 평가된다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 주제를 다루고 있지만, 논리적인 흐름이 다소 부족하다. 방사선학과에 대한 정보가 명확하게 연결되지 않아 일관성이 떨어진다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있으며, 방사선학과의 합격 가능성에 대한 정확한 평가가 부족하다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성 모두에서 부족함이 있다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있다. 따라서 의미적 적절성 점수는 중간 정도로 평가된다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 복잡한 문장으로 인해 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.5738951730202168</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024학년도의 방사선학과에 지원하려면, 학생부종합 평가를 받을 가능성이 높습니다. 현재 정시 등급이 4.4로 보통의 경우 방사선학과는 비교적 높은 성적을 요구하기 때문에, 방사선학과에 진학하려면 다음과 같은 점들을 고려해야 합니다:
+1. **학생부 종합 평가**: 현재 정시 등급이 4.4라면, 학생부종합 평가에서 좋은 결과를 얻기 위해서는 인성, 학업역량, 전공적합성을 잘 보여줘야 합니다.
+2. **진로선택과목 성적 반영**: 방사선학과에 지원하려면 관련 진로선택과목의 성적이 중요합니다. 방사선학과와 관련된 과목을 잘 수강하고 좋은 성적을 받는 것이 유리할 것입니다.
+3. **추천서 및 자기소개서**: 일부 학교에서는 추천서나 자기소개서를 요구하기도 합니다. 이에 대한 준비가 필요합니다.
+4. **면접 준비**: 방사선학과의 경우 면접을 통해 지원자의 적합성을 평가하는 경우가 많습니다.因此，根据提供的信息，目前您的成绩可能不太适合直接申请放射学专业。建议您先了解该专业的具体要求，并考虑其他与之相关的专业或课程作为过渡。
+如果您还有其他问题或者需要进一步的帮助，请访问“https://ipsi. deu. ac. kr/main. do”以获取更多信息。
+如果您想了解更多关于放射学专业的详细信息，可以参考上述链接中的相关信息。</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 모집 인원에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급과 관련된 정보는 포함되어 있지 않다. 따라서 일부 사실은 정확하지만, 원본 텍스트의 핵심 사실을 완전히 반영하지는 않는다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 관련된 정보를 제공하지만, 원본 텍스트의 평균 등급과 관련된 내용과는 일관성이 떨어진다. 두 텍스트 간의 정보가 서로 보완적이지 않다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 관련된 정보를 제공하여 주제와 관련이 있지만, 원본 텍스트의 주요 포인트인 평균 등급에 대한 언급이 부족하다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있다. 그러나 원본 텍스트와의 연결성이 부족하여 완전한 일관성을 제공하지는 않는다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 모집 인원에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급과 관련된 정보가 누락되어 있어 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 평가를 받을 수 있지만, 원본 텍스트의 핵심 사실을 충분히 반영하지 못하여 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 관련된 의미를 잘 전달하고 있지만, 원본 텍스트의 맥락과 완전히 일치하지는 않는다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성을 제공하지는 않는다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.6403543805674782</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2.66의 경쟁률을 방사선학과에서 볼 때, 이는 상당히 높은 수준입니다. 방사선학과의 모집인원이 5명이고 지원 인원이 36명으로, 경쟁률이 7.20이라는 것을 고려하면, 2.66은 이미 충분히 높은 수준입니다.
+방사선학과의 경우, 평균 표준 변환 점수 합은 463.36이고, 이는 상당히 높은 점수를 요구합니다. 또한, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 338.76이며, 이 역시 높은 점수입니다.
+따라서, 2.66 경쟁률에서 463.36의 평균 점수를 얻기 위해서는 매우 높은 수준의 성적을 보여야 합니다. 만약 현재의 성적이 이보다 낮다면, 충분히 위험할 수 있습니다.
+추천되는 조치:
+1. 현재 성적을 다시 확인하고, 필요하다면 추가 학습을 진행하세요.
+2. 다른 전공들에 대한 정보를 수집하여 대안을 마련하세요.
+3. 면접 준비를 철저하게 하세요. 면접에서도 좋은 결과를 얻기 위해서는 충분한 준비가 필요합니다.
+더 자세한 조언이 필요하시다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 보시거나, 입학사정관과 상담을 진행하는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 농어촌학생전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 경찰행정학과의 평균 성적과 경쟁률에 대한 구체적인 정보는 포함되어 있지 않습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 농어촌학생전형에 대한 추가적인 요소를 강조하고 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 주요 포인트와는 다소 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문자의 성적에 대한 정보를 제공하고 있으며, 농어촌학생전형에 대한 관련 요소들을 설명하고 있습니다. 그러나 원본 텍스트의 주요 내용과는 약간의 차이가 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어져 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 농어촌학생전형에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 사실과는 다소 차이가 있습니다. 성적 외의 요소를 강조하는 것은 정확하지만, 원본의 맥락을 완전히 반영하지는 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 특히 유창성과 관련성에서 좋은 점수를 받았습니다. 그러나 사실성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 농어촌학생전형에 대한 적절한 정보를 제공합니다. 그러나 원본 텍스트의 맥락과는 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5447021804616042</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 성적은 농어촌학생전형에서 좋은 점수입니다. 그러나 합격 여부는 단순히 성적만으로 결정되는 것이 아닙니다. 다음과 같은 요소들이 함께 고려됩니다:
+1. **학업역량**: 학교생활기록부를 통해 보여지는 학업태도와 성취정도, 수업시간의 적극성 등이 중요합니다.
+2. **전공적합성**: 지원하는 전공과 관련된 활동이나 경험, 학업의지 등을 평가받습니다.
+3. **공동체역량**: 협력능력, 배려, 나눔 등의 공동체 역량을 평가받습니다.
+특히 농어촌학생전형은 농어촌 지역 거주 경험이나 관련 활동이 중요하게 고려됩니다. 따라서 성적 외에도 학교생활기록부에서 보여지는 다양한 요소들이 합격 여부에 영향을 미칩니다.
+만약에 추가적인 서류가 필요하다면, 해당 전형의 제출서류를 체크해보세요. 예를 들어 농어촌 거주 경험이나 관련 활동 증빙 자료 등을 준비해야 할 수도 있습니다.
+더 자세한 정보는 https://ipsi. deu. ac. kr/main. do를 방문하여 확인하시거나, 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 최저 기준과 수능 점수에 대한 정보를 제공하지만, 원문에서 언급된 특정 학과에 대한 합격 가능성에 대한 정보는 누락되어 있습니다. 따라서 일부 사실은 정확하지만, 전체적으로는 원문과의 일치도가 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수에 대한 정보를 제공하지만, 원문에서 제시된 예비 25번 이상 합격한 학과 목록과의 일관성이 부족합니다. 원문에서 특정 학과에 대한 언급이 있었으나, 생성된 응답은 이를 반영하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보를 제공하여 질문에 대한 답변을 시도하고 있지만, 원문에서 제시된 특정 학과에 대한 정보와는 관련성이 떨어집니다. 그러나 수능 점수에 대한 언급은 질문의 맥락과 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 반복적으로 나타나며 약간의 중복이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 가지고 있으며, 수능 점수와 관련된 정보가 일관되게 제시되고 있습니다. 그러나 원문과의 연결성이 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보는 정확하지만, 원문에서 제시된 특정 학과에 대한 합격 가능성에 대한 정보는 누락되어 있습니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부 정보는 정확하지만, 원문과의 일관성 및 관련성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 의미를 전달하고 있으며, 수능 점수에 대한 정보는 적절합니다. 그러나 원문에서 요구하는 특정 학과에 대한 정보는 포함되어 있지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 다만, 일부 중복된 내용이 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.5399997282343699</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비 등록자는 수능 최저 기준이 없으므로, 이는 주로 수능 점수에 따라 결정됩니다. 현재 정보에서는 수능 위주로 평가되므로, 수능 점수가 합격선을 넘으면 가능성이 있습니다.
+다군 수능(일반학생전형)의 경우, 전형요소 반영비율이 100%이며, 수능 최저 기준이 없으므로, 수능 점수만으로 결정됩니다. 따라서 예비 등록자 중에서 수능 점수가 합격선을 넘는다면 붙을 확률은 있습니다.
+하지만 정확한 합격 가능성을 알기 위해서는 해당 대학의 수능 최저 기준이나 최근 몇 년간의 합격 점수를 참고해야 합니다. 예비 등록자 중에서 수능 점수가 합격선을 넘는다면 붙을 확률이 있습니다.
+더 자세한 정보를 얻기 위해서는 해당 대학의 입시 홈페이지나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교에 법경찰행정학부가 존재한다고 잘못 언급하고 있으며, 제공된 성적 정보도 원본 텍스트와 일치하지 않습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 법경찰행정학부에 대한 언급이 원본 텍스트와 모순되므로 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교의 입학 성적에 대한 정보를 제공하고 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 관련성이 떨어집니다. 원본 텍스트의 핵심 주제와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 응답은 구조적으로 나쁘지 않지만, 잘못된 정보로 인해 논리적인 흐름이 약간 깨집니다. 원본 텍스트와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 받았으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 일부 적절한 부분이 있지만, 잘못된 정보로 인해 전체적인 맥락에서 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 내용이 비교적 명확하게 전달되지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7257277859484282</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 법경찰행정학부에 대한 정보를 바탕으로, 정시로 들어가기 위한 평균 성적을 추정해보겠습니다.
+1. **모집인원과 지원인원**: 모집인원은 7명이고, 지원인원은 40명입니다. 이는 경쟁률이 높아 보입니다 (5.71).
+2. **경쟁률 및 충원 합격자 수**: 경쟁률이 5.71이며, 충원 합격자는 13명입니다.
+3. **국어 + 수학 + 탐구(2개) 표준 변환 점수 평균과 표준 편차**:
+   - 평균: 315.78
+   - 표준 편차: 6.84
+4. **영어 등급 평균**: 3.11
+5. **수능 4개 영역 등급 평균**: 4.27
+6. **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 437.89
+이러한 정보를 바탕으로, 안정권을 위해서는 평균적으로 310-320 사이의 점수가 필요할 것으로 보입니다. 이 점수대에서는 경쟁률이 높은 상황에서 충원 합격자 수에 포함될 가능성이 높습니다.
+문 닫고 들어갈 수 있는 수준으로는 340-350 사이의 점수가 필요할 것으로 예상됩니다. 이 점수대에서는 경쟁률이 낮아지면서 충원 합격자 수에 포함될 가능성이 높습니다.
+결론적으로, 정시로 들어가기 위해서는 평균 310-320 사이의 점수가 필요하며, 문 닫고 들어갈 수 있는 수준은 340-350 사이의 점수를 받는 것이 좋을 것으로 추정됩니다. 이 정보는 실제 입학 결과와 다소 차이가 있을 수 있으므로, 최종 결정을 내리기 전에 공식적인 입학 결과를 확인하는 것이 중요합니다.
+더 자세한 정보나 추가 질문이 있다면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 보육가정상담학과의 합격 가능성에 대한 여러 요소를 언급하고 있으며, 이는 사실적인 정보에 기반하고 있습니다. 그러나 원본 텍스트에서 제공된 아동학과의 평균 등급에 대한 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되게 여러 요소를 고려하여 합격 가능성을 설명하고 있습니다. 다만, 보육가정상담학과와 아동학과의 관계에 대한 명확한 언급이 부족하여 약간의 일관성 문제를 보입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 다양한 요소를 잘 설명하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 정확하게 작성되었으나, 아동학과의 평균 등급에 대한 구체적인 수치가 누락되어 있어 약간의 정확성 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 정보 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 보육가정상담학과와 아동학과의 관계에 대한 명확한 설명이 부족하여 약간의 의미적 부적절함이 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 따라서 이해 가능성이 매우 높습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.575520005132231</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>5.33 등급을 가진 지원자가 동의대학교 보육가정상담학과에 합격할 수 있는지는 여러 요소에 따라 달라집니다.
+1. **등급 기준**: 동의대학교 각 모집단위별로 정시모집에서 요구하는 최저 등급이 있습니다. 이 기준을 넘는 지원자는 합격 가능성이 높아집니다.
+2. **전형 방식**: 보육가정상담학과의 전형 방식에 따라 달라집니다. 예를 들어, 실기/실적 위주로 평가하는 경우 실력이 중요할 수 있습니다.
+3. **경쟁률**: 해당 학과의 경쟁률을 고려해야 합니다. 경쟁률이 높다면 5.33 등급으로 합격하기는 어렵습니다.
+4. **기타 평가 요소**: 서류심사, 면접 등의 평가 요소도 중요합니다. 지원자의 서류와 면접 성적에 따라 결과가 달라질 수 있습니다.
+따라서 정확한 답변을 위해서는 동의대학교 보육가정상담학과의 최저 등급 기준과 전형 방식, 경쟁률 등을 확인해야 합니다. 이를 통해 합격 가능성을 판단할 수 있을 것입니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 공식 정보를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 충원 합격 가능성에 대한 정보를 제공하지만, 동점자 처리 기준에 대한 내용은 원본 텍스트에 포함되어 있지 않으며, 이는 사실과 다를 수 있습니다. 또한, 예비 번호에 대한 설명이 원본과 일치하지 않아서 일부 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 동점자 처리 기준과 같은 추가 정보를 포함하여 원본과의 일관성이 떨어집니다. 원본 텍스트는 예비 번호에 대한 가능성에 중점을 두고 있지만, 생성된 응답은 동점자 처리 기준에 대한 설명을 추가하여 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 동점자 처리 기준과 같은 추가 정보가 포함되어 있어 약간의 주제 이탈이 발생합니다. 그러나 예비 번호에 대한 합격 가능성에 대한 질문에 대한 답변은 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 동점자 처리 기준에 대한 추가 정보가 포함되어 있어 약간의 일관성 저하가 발생할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 예비 번호에 대한 합격 가능성을 언급하지만, 동점자 처리 기준에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 정확성이 떨어집니다. 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 다소 부족하지만, 관련성과 유창성은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 동점자 처리 기준과 같은 추가 정보가 포함되어 있어 약간의 의미적 부적합성이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.6343123662109028</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담 충원 합격 3차에서 예비 12번을 받으셨다면, 합격 가능성은 있습니다. 하지만 확실한 것은 아닙니다. 동일한 상황에서는 이전 차수와 동점자 처리 기준을 고려해야 합니다.
+동점자 처리 기준에 따르면:
+- 순위가 낮을수록 더 높은 점수가 필요합니다.
+- 1순위는 수능 국어, 수학, 영어 영역의 합계점수 상위자입니다.
+- 2순위는 인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자입니다.
+- 3순위는 의료‧보건‧생활대학, 공과대학 ICT융합공과대학 모집단위 수능 수학(미적분 또는 기하) 응시자입니다.
+예비 12번을 받으셨다면, 이전 차수에서 동점자 처리가 이루어졌거나, 현재 상황에서는 합격 가능성은 있습니다. 하지만 정확한 결과는 합격자 발표일에 확인해야 합니다.
+추가적으로, 입학안내 홈페이지를 통해 대기실 및 입실시간 안내를 확인하고, 실기고사 전형성적을 최대한 높여보세요. 이 정보들은 공지사항이나 입학관리팀에서 제공하는 자료를 참고하시면 도움이 될 것입니다.
+더 궁금하신 점이 있으시다면, https://ipsi. deu. ac. kr/main. do로 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75라는 성적이 높은 점수라고 언급하고 있지만, 유아교육학과에 지원하기 어려울 것이라는 원본 텍스트의 결론과는 다소 상충하는 부분이 있습니다. 유아교육학과의 평균 성적이 4.18이라는 정보는 정확하지만, 4.75로 지원할 수 있다고 주장하는 것은 원본의 내용을 왜곡할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 지원할 수 있는 가능성을 언급하면서도, 원본 텍스트에서 제시된 4.18의 평균 성적과의 관계를 명확히 하지 않아 일관성이 떨어집니다. 원본의 결론과는 다소 상충하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 지원 가능성에 대한 논의를 포함하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 데이터와 비교할 때 일부 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 유아교육학과의 지원 가능성에 대한 결론이 원본과 다르게 제시되어 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 유아교육학과의 지원 가능성에 대한 정보가 원본과 다르게 해석되고 있어 정확성이 떨어집니다. 원본에서 제시된 평균 성적과의 관계를 명확히 하지 않아 혼란을 초래할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서 부족함이 있어 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 관련된 내용을 적절하게 전달하고 있습니다. 그러나 원본의 결론과 다소 상충하는 부분이 있어 의미적으로 완벽하게 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7637763701858571</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 성적은 매우 높은 점수입니다. 하지만 정시 모집에 지원 가능한 학과는 여러 요인에 따라 달라질 수 있습니다. 유아교육학과의 경우, 해당 학과에서 요구하는 성적이 어느 정도인지 확인해야 합니다.
+유아교육학과의 경우, 보통 다음과 같은 요소들이 중요하게 작용합니다:
+1. **학교생활기록부** : 학생의 인성 및 학업역량을 평가받습니다.
+2. **진로선택과목 성적** : 유아교육 관련 과목에서 높은 점수를 받는 것이 중요합니다.
+3. **학업역량** : 고교 내에서의 학업 성적이 높다면 이점이 있습니다.
+4.75라는 성적을 가지고 있다면, 대부분의 경우 유아교육학과에 지원할 수 있을 것입니다. 하지만 정확한 가능성을 판단하기 위해서는 해당 대학의 유아교육학과에서 요구하는 최소 점수를 확인해야 합니다. 또한, 학교생활기록부와 진로선택과목 성적 등 다른 평가 요인도 고려해야 합니다.
+따라서, 정확한 가능성을 판단하기 위해서는:
+1. **대입 지원 사이트** : 대입 지원 사이트나 해당 대학의 입학처 웹사이트를 통해 유아교육학과에서 요구하는 최소 점수와 평가 요인을 확인하세요.
+2. **상담** : 학교 상담실이나 입학처에 문의하여 자세한 정보를 얻으세요.
+이런 정보들을 바탕으로 판단하시면 됩니다. 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 보육가정상담학과의 일반학생전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 정보인 정시 등급 4.16에 대한 합격 가능성에 대한 직접적인 언급이 부족합니다. 또한, 원본 텍스트의 수능 4개 영역 등급 평균과 영어 등급 평균에 대한 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 특정한 정시 등급에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 일반적인 전형 정보에 초점을 맞추고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과의 전형에 대한 정보를 제공하지만, 질문자가 궁금해하는 정시 등급 4.16에 대한 합격 가능성에 대한 직접적인 답변이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 주제를 다루고 있지만, 원본 텍스트의 핵심 주제와의 연결이 부족하여 일관된 흐름이 떨어집니다. 정보가 분산되어 있어 논리적 일관성이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 특히 정시 등급에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 부족한 점이 많아 낮은 점수를 받았습니다. 특히 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과에 대한 정보를 제공하지만, 질문자의 의도와는 다소 동떨어진 내용이 포함되어 있어 의미적으로 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 정보의 흐름이 다소 분산되어 있어 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.5062602045032896</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 일반학생전형에 대한 정보를 제공하겠습니다.
+보육가정상담학과의 일반학생전형은 학생부종합 평가를 통해 선발되며, 주요 평가 영역은 공동체역량, 학업역량, 전공적합성입니다. 또한, 2024학년도에는 학생부 교과성적 반영방법이 변경되었는데, 이는 전반적으로 과목의 석차등급을 더 많이 반영하게 되었습니다.
+현재您的问题似乎是在询问关于东国大学保育·家庭咨询学专业的普通学生录取情况。根据您提供的信息，2024年东国大学保育·家庭咨询学专业采用综合评价的方式进行招生，并且主要评估领域包括：社会贡献能力、学业能力和专业适应性。
+此外，2024年的学生学业成绩评价方式也有所变化，更加注重各科目的等级排名。您目前的换算等第为4.16，这个成绩在一定程度上反映了您的学术水平和学习能力。
+为了更准确地判断您是否能够被录取，建议参考以下几点：
+1. **共同社会贡献能力**：这包括您的社团活动、志愿服务经历等。
+2. **学业能力**：根据您提供的换算等第4.16来看，这个成绩在一定程度上反映了您的学术水平。但具体还需要看各科目的等级排名是否符合学校的要求。
+3. **专业适应性**：这主要考察您对专业的兴趣和适合度。
+综合以上因素，如果您的共同社会贡献能力较强，并且学业能力和专业适应性也较好，那么被录取的可能性较大。但是最终能否被录取还需参考具体的招生标准和流程，请务必关注东国大学的官方通知或咨询相关部门以获取最准确的信息。
+如需更多信息，建议访问东国大学官网（https://ipsi. deu.ac.kr/main.do）查看最新的招生信息和要求。</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 부정확하게 설명하고 있습니다. "2024학년도에 소프트웨어융합학과는 신설되지 않았으며"라는 내용은 사실과 다르며, 소프트웨어융합학과에 대한 정보가 없다는 주장은 원문과 모순됩니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 소프트웨어융합학과가 정시로 지원할 수 없다고 명확히 언급하고 있지만, 생성된 응답은 신설 여부에 대한 불확실성을 제기하며 혼란을 초래합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 질문에 관련된 정보를 제공하고 있으나, 신설 여부에 대한 언급이 원문과 관련이 없으므로 약간의 비관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관성이 떨어집니다. 특히 신설 여부에 대한 언급이 원문과의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 지원 가능성에 대한 정확한 정보를 제공하지 않으며, 신설 여부에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성, 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 관계에서 부적절한 정보가 포함되어 있어 의미 전달이 혼란스러울 수 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 일부 내용이 혼란스러워 명확하게 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.5751259480729245</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과는 신설되지 않았으며, 관련 정보가 주어진 데이터에서 확인되지 않습니다. 현재 제공된 정보에서는 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)에 대한 지원 자료만이 있습니다.
+따라서 정시로 소프트웨어융합학과에 들어갈 수 있는지, 평균 몇 등급정도 받아야 하는지는 확인할 수 없습니다. 관련 정보가 필요하다면, 해당 대학의 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 직접 문의하시는 것이 좋습니다.
+입시 관련 자세한 내용은 대학 입학처에서 가장 정확한 답변을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 잘 반영하고 있으며, 서류 평가와 면접의 중요성을 강조하고 있습니다. 그러나 원문에서 언급된 "학생부 교과성적"에 대한 구체적인 언급이 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 서류 평가와 면접의 중요성을 설명하고 있습니다. 다만, 면접에서 다루어지는 질문의 구체적인 내용이 추가되어 있어 원문과의 일관성에서 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높으며, 서류 준비와 면접 준비에 대한 구체적인 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 문장 간의 연결이 조금 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 학생부 교과성적에 대한 구체적인 언급이 부족하여 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 정보 누락이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 관련된 정보를 적절하게 전달하고 있습니다. 다만, 일부 세부 사항에서 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.6155824253547244</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 경우, 면접 점수와 서류 평가 점수가 각각 비중이 있습니다. 면접에서는 지원동기 및 학업계획, 학업역량, 전공적합성에 대한 질문을 받게 됩니다. 따라서 세특 내용은 중요하지만, 면접 준비도 함께 해야 합니다.
+서류는 주로 다음과 같은 항목들이 필요합니다:
+1. **고교 졸업(예정)자**:
+   - 고교 학생부 온라인 제공 동의 (필요시)
+   - 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+2. **검정고시출신자**:
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부 (필요시 온라인 제공 동의)
+   - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+3. **외국고교 졸업(예정)자**:
+   - 공증받은 외국고교 졸업(예정)증명서 1부
+   - 공증받은 외국고교 성적증명서 1부 (성적 체계 자료 포함)
+   - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+따라서 세특 내용을 많이 보시는 것이 좋습니다. 특히 창의적 체험활동, 동아리 활동, 진로활동 등과 관련된 경험을 자세히 기재해야 합니다. 또한 면접 준비도 함께 해야 하며, 지원동기와 학업계획, 학업역량, 전공적합성에 대해 잘 준비해 두세요.
+더 궁금한 사항이 있으시면 https://ipsi. deu. ac. kr/main. do를 참조하시거나 문의해 주세요.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 최초합격자 평균 점수와 경쟁률에 대한 정보를 포함하고 있으며, 4.08이라는 점수에 대한 가능성을 논의하고 있습니다. 그러나 최초합격자의 평균 점수가 4.12라는 정보는 정확하지만, 4.08 이상인 경우에 대한 언급은 다소 모호하게 표현되어 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일치하며, 경쟁률과 모집인원에 대한 추가 정보를 제공하여 일관성을 유지하고 있습니다. 그러나 일부 세부사항에서 원본과의 일치성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 질문에 대한 적절한 답변을 제공합니다. 따라서 매우 높은 관련성을 가지고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 제공된 정보에 대한 정확한 해석을 포함하고 있으며, 수능 점수와 관련된 정보도 적절하게 반영하고 있습니다. 그러나 경쟁률에 대한 수치가 원본과 다를 수 있어 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나 일부 세부사항에서 개선의 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 일부 표현에서 더 명확한 의미 전달이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7026474402129369</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>4.08이라는 수능 점수가 동의대학교 소프트웨어공학부의 최초합격자에 해당하는지 판단하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **모집인원과 지원인원**: 동의대학교 소프트웨어공학부의 모집인원은 45명이며, 지원인원은 200명 정도입니다 (이 숫자는 실제 지원자 수와 다를 수 있습니다). 이에 따라 경쟁률은 매우 높습니다.
+2. **최초합격자의 평균 점수**: 제공된 정보에서 소프트웨어공학부의 최초합격자의 평균 점수가 4.08 이상인 경우, 4.08이라는 점수로는 경쟁이 매우 치열할 것입니다.
+3. **경쟁률**: 제공된 정보에 따르면, 소프트웨어공학부의 경쟁률은 대략 4.44입니다 (200명 지원자 중 45명 선발). 이는 매우 높은 경쟁률을 의미합니다.
+따라서, 4.08이라는 점수로는 동의대학교 소프트웨어공학부의 최초합격자가 될 가능성은 낮습니다. 하지만 수능 점수가 정확한 지원자 수와 경쟁률에 따라 달라질 수 있으므로, 실제 지원 결과를 확인하기 위해서는 해당 대학의 공식 정보나 입학처 웹사이트를 참조하는 것이 좋습니다.
+추가적으로, 다른 전형(예: 학생부종합전형)을 통해 지원하거나, 추가로 준비하여 점수를 높이는 방법도 고려해볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과에 대한 정보가 아닌 소프트웨어공학부에 대한 정보를 제공하고 있으며, 이는 원본 텍스트와 일치하지 않습니다. 원본 텍스트는 소프트웨어융합학과의 정시 모집에 대한 정보를 다루고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 소프트웨어융합학과에 대한 정보를 제공하는 반면, 생성된 응답은 소프트웨어공학부에 대한 정보를 언급하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과에 대한 질문에 대한 답변으로는 적절하지 않지만, 소프트웨어공학부에 대한 정보는 관련성이 있을 수 있습니다. 그러나 원본 텍스트의 주제와는 다소 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 소프트웨어융합학과에 대한 정보가 아닌 소프트웨어공학부에 대한 정보로 전환되면서 흐름이 끊기는 느낌이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 소프트웨어융합학과에 대한 정보가 아닌 소프트웨어공학부에 대한 정보를 제공하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 원본 텍스트와의 관련성도 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 소프트웨어공학부에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 맞지 않습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다. 문장은 명확하게 작성되어 있어 이해하는 데 큰 어려움은 없습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6314004961452213</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)가 신설되었으므로, 현재 소프트웨어융합학과는 해당되지 않습니다. 대신, 2024학년도에 소프트웨어공학부가 신설되었다는 정보를 참고하실 수 있습니다.
+2023년도의 경우, 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)의 평균 5등급을 기준으로 지원이 이루어졌습니다. 하지만 2024년에는 이 학과가 신설되어 평균 등급이 변경될 수 있습니다.
+따라서, 2024학년도에 소프트웨어공학부를 지원하려면 최신 정보와 해당 학과의 평균 등급을 확인하시기 바랍니다. 필요하다면, 대학 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.
+더 자세한 정보는 https://ipsi.deu.ac.kr/main.do를 방문해보시거나, 직접 입학처에 문의하시면 도움을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 분석을 시도했지만, 원본 텍스트에서 제공된 평균 점수와 비교하는 부분에서 약간의 오류가 있습니다. 원본 텍스트는 4.28이 평균보다 높다고 언급했으나, 생성된 응답에서는 평균 점수인 4.47보다 낮다고 잘못 언급했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 점수에 대한 언급에서 불일치가 발생했습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신소재공학과의 합격 가능성에 대한 분석을 제공합니다. 그러나 일부 추가 정보가 원본 텍스트와 직접적으로 관련이 없을 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 평균 점수에 대한 언급에서의 오류로 인해 완전한 일관성을 잃었습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 분석을 시도했지만, 평균 점수에 대한 잘못된 해석으로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 평균 이하로 평가됩니다. 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 정보가 추가되어 맥락에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6251807794213864</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수를 가지고 동의대학교 신소재공학과에 합격할 수 있는지 확정적으로 말씀드리기는 어렵습니다. 하지만, 제공된 데이터를 바탕으로 분석해보겠습니다.
+신소재공학과의 경우:
+- 모집 인원: 15명
+- 지원 인원: 24명
+- 경쟁률: 1.60 (24 / 15)
+- 충원 합격 (후보순위): 5명
+이 데이터를 바탕으로, 신소재공학과의 경쟁률은 약 1.60이며, 충원 합격자는 5명입니다. 이는 전체 지원자의 약 20.83%만이 합격하는 수준을 의미합니다.
+4.28이라는 점수를 가지고 보면, 평균점수인 4.47보다 낮습니다. 하지만, 표준 편차가 0.60으로 상대적으로 낮은 편입니다. 이는 점수가 비교적 밀집되어 있다는 의미이며, 고점수와 저점수 사이의 차이가 크지 않다는 것을 의미합니다.
+따라서, 4.28이라는 점수로 합격할 수 있는지는 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. 지원자의 점수가 전체적으로 높은 경우
+2. 지원자의 점수가 전체적으로 낮은 경우
+결론적으로, 4.28이라는 점수로는 합격할 확률이 상대적으로 낮지만, 동의대학교 신소재공학과에 합격하는 것은 불가능한 것은 아닙니다. 지원자의 개인적인 성적과 전체 지원자들의 성적 분포를 고려해야 합니다.
+더 정확한 판단을 위해서는, 동의대학교에서 제공하는 최종 합격선이나 해당 학과의 입학사정관에게 문의하시는 것이 좋습니다. 더 자세한 정보를 얻으시기 바랍니다. "https://ipsi. deu. ac. kr/main. do" 를 참조하시거나, 동의대학교 입학사정관실에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요 없다는 사실을 언급하고 있지만, 일부 대학에서 요구할 수 있다는 추가 정보를 제공하고 있습니다. 이는 사실일 수 있지만, 원문에서 명확히 언급되지 않았기 때문에 다소 모호한 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 일부 대학에서 자기소개서를 요구할 수 있다는 내용은 원문과 상충할 수 있는 정보입니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 정보를 제공하고 있으며, 자기소개서 작성에 대한 추가적인 조언도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 있어 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 기본적으로 정확한 정보를 제공하지만, 일부 대학에서 자기소개서를 요구할 수 있다는 내용은 원문에서 명확히 언급되지 않아 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성, 유창성, 일관성 등에서 좋은 점수를 받았습니다. 그러나 사실성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으며, 추가적인 정보도 적절하게 포함되어 있습니다. 다만, 원문과의 차이가 있어 약간의 점수를 낮추었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보 전달이 이루어졌습니다. 그러나 일부 내용이 추가되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.6112332083799097</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 일반학생전형에서 자기소개서는 필수 항목이 아닙니다. 하지만 일부 대학에서는 자기소개서를 제출하도록 요구할 수 있으므로, 지원하는 대학의 공식 입시 안내를 확인해보세요.
+대부분의 경우, 수능 일반학생전형은 수능 점수와 학생부 성적을 기반으로 합니다. 따라서 자기소개서가 필요하지 않지만, 자기소개서를 제출하면 지원자의 개인적인 특성과 열정 등을 더 잘 알 수 있어 유리할 수 있습니다.
+자기소개서를 작성하려면 다음과 같은 내용들을 고려해보세요:
+1. 지원 동기와 목표
+2. 학업 및 활동 경험
+3. 미래 계획
+하지만 이는 선택 사항이며, 반드시 제출해야 하는 항목은 아닙니다.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 4.5 점수에 대한 합격 가능성을 여러 요인에 따라 설명하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에서 언급된 특정 학과의 평균 등급과 비교하는 부분이 부족하여 점수를 4로 평가했습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 일관되며, 추가 모집에 대한 설명도 포함되어 있습니다. 그러나 일부 세부 사항에서 원본 텍스트의 특정 내용과 다소 차이가 있어 점수를 4로 평가했습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 추가 모집에 대한 정보를 잘 다루고 있습니다. 따라서 점수를 5로 평가했습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 따라서 점수를 5로 평가했습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으나, 일부 문장 간의 연결이 다소 약해 보일 수 있어 점수를 4로 평가했습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전반적으로 정확하지만, 원본 텍스트의 특정 수치나 세부 사항을 명확히 반영하지 않아 점수를 4로 평가했습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 여러 품질 차원에서 전반적으로 잘 수행되었으나, 일부 세부 사항에서 부족함이 있어 점수를 4로 평가했습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 따라서 점수를 5로 평가했습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 점수를 5로 평가했습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.5927749494940747</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 높은 점수입니다. 하지만 추가모집에 합격할 수 있는지 결정하는 요인들은 여러 가지가 있습니다.
+1. **경쟁률**: 각 모집단위의 경쟁률이 매우 중요합니다. 예를 들어, 경영학과와 같은 인기있는 과목은 경쟁률이 높을 것이고, 이 경우 4.5라는 점수로도 합격하기 어렵습니다.
+2. **모집인원 및 지원인원**: 모집인원과 지원인원의 비율도 중요합니다. 예를 들어, 모집인원이 10명이고 지원인원이 30명이라면 경쟁률은 높고, 이 경우 4.5라는 점수로 합격하기 어렵습니다.
+3. **기타 요인**: 학생부 성적, 실기 점수 등 다른 평가 항목도 고려됩니다. 특히 일부 전형에서는 학생부 성적이 중요한 역할을 합니다.
+위의 정보만으로는 정확한 판단이 어려울 수 있습니다. 각 모집단위별로 실제 경쟁률과 지원인원, 모집인원 등을 확인해야 합니다. 이를 통해 더 구체적인 판단을 내릴 수 있을 것입니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do)로 접속하여 해당 대학의 공식 웹사이트에서 모집요강을 확인하거나, 학교 관계자에게 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 정시 모집군에 대한 구체적인 정보를 제공하지 않고 있으며, 원본 텍스트의 평균 등급에 대한 정보도 누락되어 있습니다. 그러나 웹사이트 링크를 제공하여 추가 정보를 찾을 수 있도록 안내하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 일부분 일치하지만, 정시 모집군에 대한 정보가 없다는 점에서 일관성이 떨어집니다. 원본 텍스트는 평균 등급에 대한 정보를 제공하고 있으나, 생성된 응답은 이를 반영하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학부의 정시 모집군에 대한 질문에 대해 관련된 정보를 제공하려고 하지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다. 그러나 웹사이트 링크를 통해 추가 정보를 찾을 수 있도록 안내하고 있어 어느 정도 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 연결성이 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않고 있으며, 평균 등급에 대한 정보가 누락되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질이 평균 이하로 평가됩니다. 사실성, 일관성, 정확성에서 부족함이 있으며, 관련성은 어느 정도 있지만 전반적으로 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변을 제공하려고 노력하고 있습니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.5379786368486126</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학부의 경우, 정시 모집군과 관련된 정보가 제공되지 않았습니다. 정시 모집군에 대한 자세한 내용은 공식 웹사이트를 참조해주세요. [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 해당 링크에서 최신 정보와 정시 모집군 등급을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 모집 인원과 지원 인원, 표준점수 평균 및 표준편차에 대한 정보를 포함하고 있지만, 이러한 정보는 원본 텍스트에 명시되어 있지 않습니다. 원본 텍스트는 작년의 평균 표준 변환 점수에 대한 정보만 제공하고 있으며, 생성된 응답은 추가적인 세부사항을 포함하고 있어 사실적 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 경쟁률과 같은 추가적인 정보는 원본 텍스트와 일관되지 않습니다. 원본 텍스트는 합격 가능성에 대한 긍정적인 정보를 제공하는 반면, 생성된 응답은 경쟁률이 높아 충원되지 않을 가능성을 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보가 포함되어 있어 약간의 주제 이탈이 발생합니다. 그러나 여전히 신소재공학과의 합격 가능성에 대한 논의와 관련이 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 느슨해질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와는 다른 세부사항을 포함하고 있으며, 이는 정확성에 영향을 미칩니다. 원본 텍스트의 평균 점수와 관련된 정보는 정확하지만, 추가된 정보는 확인되지 않은 내용입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 다소 부족하지만, 관련성과 유창성에서는 긍정적인 요소가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본의 주제와 약간의 차이를 보입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장은 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7596302551821624</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 신소재공학과는 모집인원이 35명이고 지원 인원이 168명으로 경쟁률이 높습니다. 표준점수 평균은 447.98이며, 표준편차는 20.51입니다.
+당신의 표준점수가 447점이라면, 작년과 비슷한 수준입니다. 하지만 작년에 비해 약간 낮은 점수이므로 경쟁률이 높아서 충원되지 않을 가능성이 있습니다. 그러나 동일한 점수를 받은 다른 지원자들이 있을 수도 있고, 입학사정관의 평가 결과 등으로 충원될 가능성도 있습니다.
+따라서 작년과 비슷한 수준의 점수가 있지만, 확실한 것은 아닙니다. 입학사정관의 평가와 기타 요인들에 따라 결정이 될 수 있으므로, 최종 결과를 확인하기 위해서는 대학에서 공개하는 정보나 입학처와의 상담을 통해 확인해보시는 것이 좋습니다.
+더 자세한 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인하시거나, 대학 입학처와 연락을 취하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 전형 기준과 서류 평가에 대한 정보를 추가적으로 제공하고 있지만, 원본 텍스트에서 제시된 평균 성적과 비교하는 부분이 부족하여 다소 정확성이 떨어진다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 바탕으로 하여 지원 가능성을 논의하고 있으나, 원본의 구체적인 성적 데이터와 비교하는 부분이 부족하여 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학부 일반학생전형에 대한 지원 가능성을 다루고 있어 관련성이 높지만, 원본 텍스트의 구체적인 성적 데이터와의 연결이 부족하다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 지원 가능성에 미치는 영향을 설명하고 있다. 그러나 원본 텍스트와의 연결이 약간 부족하다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 전형 기준에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 성적 데이터와 비교하는 부분이 부족하여 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트와의 연결이 부족하여 종합적인 품질이 다소 낮다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으나, 구체적인 성적 데이터와의 연결이 부족하여 다소 아쉬운 부분이 있다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 복잡하게 느껴질 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.547005947405251</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 성적이 4.1~4.2로 변환될 경우, 신소재공학부 일반학생전형에 지원 가능성을 판단하기 위해서는 몇 가지 요인을 고려해야 합니다.
+1. **신소재공학부의 전형 기준**: 신소재공학부의 학생부종합 평가 기준과 서류평가 기준을 확인해야 합니다. 특히, 학업역량과 전공적합성 부분에서 요구하는 성적이 어느 정도인지 파악해야 합니다.
+2. **서류평가 영역**: 공동체역량, 학업역량, 전공적합성 등 각 평가영역에서의 점수와 서류의 유의미성을 고려해야 합니다. 특히, 학업역량과 전공적합성 부분에서 지원자의 성적이 어느 정도를 보여줘야 하는지 확인해야 합니다.
+3. **전형요소 반영비율**: 서류 70%, 면접 30%로 구성되어 있으므로, 서류평가에서의 점수가 중요합니다. 따라서, 서류평가 영역에서의 성적과 활동이 잘 반영될 수 있도록 준비해야 합니다.
+4. **지원자의 전반적인 경력**: 학교생활기록부를 통해 보여줄 수 있는 지원자의 전반적인 경력과 활동을 고려해야 합니다. 예를 들어, 창의적체험활동상황, 교과학습발달상황 등에서의 성적이 중요할 수 있습니다.
+따라서, 4.1~4.2로 변환될 경우에도 신소재공학부 일반학생전형에 지원 가능성이 있지만, 서류평가 영역에서의 점수와 활동이 중요합니다. 따라서, 현재의 성적과 활동을 바탕으로 서류를 체계적으로 준비하고, 학업역량과 전공적합성 부분에서 잘 반영될 수 있도록 노력하는 것이 좋습니다.
+더 자세한 정보나 지원 방법에 대한 궁금증이 있다면, "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 대학 입학처와 연락을 취하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 제시된 평균 점수(403.85)와 영어 등급(4.53)은 원본 텍스트의 평균 점수(301.87)와 영어 등급(4.13)과 일치하지 않으며, 이는 사실과 다릅니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 특히 점수와 등급에 대한 정보가 상충합니다. 이러한 불일치는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과에 지원하고자 하는 학생에게 유용한 정보를 제공하고 있으나, 제공된 성적 정보가 원본과 다르기 때문에 완전한 관련성을 갖추지 못합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본과의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답의 성적 정보는 원본 텍스트와 크게 다르며, 이는 정확성 점수를 낮춥니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 평균적이며, 일부는 잘 수행되었으나 사실성과 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제에 적합한 의미를 전달하고 있으나, 제공된 정보의 정확성 문제로 인해 완전한 적합성을 갖추지 못합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.7370706181591115</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인공지능학과로 지원을 계획하고 계시다면, 아래와 같은 성적을 준비해보세요.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 403.85
+- **영어 등급**: 평균 4.53
+이 성적은 경쟁률을 감안하여 충원 합격을 목표로 한 경우의 예시입니다. 실제 지원에서는 자신의 능력과 관심 분야를 고려하여 더 높은 점수를 노릴 수 있습니다.
+만약 더 자세한 정보나 도움이 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해보시거나, 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 정시 성적에 대한 정보와 관련된 내용을 다루고 있지만, 원본 텍스트에서 제공된 구체적인 학과의 평균 성적 및 충원 합격 가능성에 대한 정보가 누락되어 있습니다. 또한, 경쟁률과 충원 합격자 수에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 사실적 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 5.27 성적에 대한 충원 합격 가능 학과를 명시하고 있지만, 생성된 응답은 경쟁률과 충원 합격자 수에 대한 정보로 대체되어 있습니다. 이로 인해 두 텍스트 간의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 5.27 성적에 대한 지원 가능성에 대한 질문에 답하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 학과 정보와 비교할 때, 일부 정보가 누락되어 있어 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 부족하여 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 데이터와 일치하지 않으며, 특히 충원 합격 가능 학과에 대한 정보가 누락되어 있습니다. 이로 인해 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 일부 차원에서 양호한 성과를 보이지만, 사실성, 일관성 및 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 다소 다르게 해석될 수 있는 부분이 있어 의미적으로 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.7228840969494794</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 상경대학의 학생부종합전형에서 지원이 가능할지 여부는 모집단위와 전공에 따라 다릅니다. 제공된 정보를 바탕으로 분석해보겠습니다.
+1. **모집단위별 경쟁률과 충원 합격자 확인**:
+   - 금융경영학과: 경쟁률 1.93, 충원 합격자 22명
+   - 재무부동산학과: 경쟁률 1.60, 충원 합격자 4명
+   - 무역학과: 경쟁률 1.89, 충원 합격자 13명
+   - 유통물류학과: 경쟁률 1.33, 충원 합격자 4명
+   - 경영학과: 경쟁률 4.33, 충원 합격자 23명
+   - 회계학과: 경쟁률 2.00, 충원 합격자 13명
+   - 경영정보학과: 경쟁률 10.56, 충원 합격자 33명
+   - e비즈니스학과: 경쟁률 8.90, 충원 합격자 31명
+   - 국제관광경영학과: 경쟁률 1.73, 충원 합격자 11명
+   - 호텔·컨벤션경영학과: 경쟁률 1.50, 충원 합격자 3명
+   - 외식경영학과: 경쟁률 4.83, 충원 합격자 12명
+2. **평균 성적 확인**:
+   - 금융경영학과: 평균 5.41
+   - 재무부동산학과: 평균 5.82
+   - 무역학과: 평균 5.18
+   - 유통물류학과: 평균 5.45
+   - 경영학과: 평균 4.69
+   - 회계학과: 평균 4.99
+   - 경영정보학과: 평균 4.31
+   - e비즈니스학과: 평균 3.66
+   - 국제관광경영학과: 평균 5.41
+   - 호텔·컨벤션경영학과: 평균 6.12
+   - 외식경영학과: 평균 4.91
+3. **결론**:
+   - 경쟁률이 낮은 학과들(예: 재무부동산학과, 무역학과, 유통물류학과)에서는 5.27이라는 성적을 가지고 지원 가능성이 높습니다.
+   - 경쟁률이 높은 학과들(예: 경영정보학과, e비즈니스학과, 국제관광경영학과, 호텔·컨벤션경영학과)에서는 5.27이라는 성적을 가지고 지원하기는 어렵습니다.
+따라서, 5.27의 성적으로 추합 가능한 학과들은 경쟁률이 낮은 학과들로 추정됩니다. 상세한 정보를 확인하려면 각 모집단위별 평균 성적과 충원 합격자들의 성적을 참고하시거나, 입학사정관에게 문의하시는 것이 좋습니다.
+더 궁금하신 점이 있으시다면 추가로 질문해주세요.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률, 모집 인원, 지원 인원 등의 추가 정보를 제공하지만, 소스 텍스트에서 언급된 평균 등급과 비교할 때 정시 성적 4.2가 평균보다 높은 성적이라는 점을 간과하고 있습니다. 따라서 일부 사실이 누락되거나 잘못 해석되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 소스 텍스트의 정보와 일부 일치하지만, 정시 성적 4.2가 평균보다 높은 성적이라는 점을 반영하지 않아 일관성이 떨어집니다. 경쟁률과 성적 분석에 대한 정보는 유용하지만, 소스 텍스트의 핵심 내용을 완전히 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 정시 성적 4.2와 관련된 정보를 제공하며, 합격 가능성에 대한 분석을 포함하고 있습니다. 그러나 소스 텍스트의 주요 포인트인 평균 등급과의 비교가 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 매끄럽고 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 소스 텍스트의 핵심 내용을 충분히 반영하지 않아 약간의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 제공하지만, 정시 성적 4.2가 평균보다 높은 성적이라는 점을 잘못 해석하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유용한 정보를 제공하지만, 사실성과 일관성에서 약간의 부족함이 있습니다. 그러나 유창성과 관련성은 높습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있지만, 소스 텍스트의 핵심 내용을 완전히 반영하지 못해 약간의 의미적 부적절함이 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6346471089675969</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 정보를 바탕으로, 정시 성적 4.2인 경우 합격 가능성은 다음과 같이 판단할 수 있습니다.
+1. **경쟁률과 모집 인원**: 
+   - 모집 인원: 3명
+   - 지원 인원: 16명
+   - 경쟁률: 5.33
+2. **성적 평균 및 표준 편차**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 303.05
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 8.27
+3. **성적 분석**:
+   - 평균 점수는 303.05이고, 표준 편차는 8.27입니다.
+   - 이는 성적이 상대적으로 높은 편이며, 표준 편차가 작아서 성적의 변동성이 적다는 것을 의미합니다.
+4. **합격 가능성**:
+   - 경쟁률이 5.33으로 높기 때문에, 평균 점수와 비교해보면 정시 성적 4.2는 상대적으로 낮은 편입니다.
+   - 그러나 표준 편차가 작아서 성적이 일정 수준 이상이라면 합격 가능성은 있습니다.
+따라서, 정시 성적 4.2인 경우 동의대학교 소프트웨어공학부에 합격하는 것은 어렵지만, 성적이 일정 수준 이상이라면 합격 가능성은 존재합니다. 실제 합격 여부는 모집 인원과 지원 인원, 그리고 해당년도의 전체 성적 분포를 고려해야 합니다.
+더 자세한 정보나 추가적인 조언이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해보시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 포함하고 있으며, 3.92라는 성적이 경쟁력이 있을 것이라는 주장을 하고 있습니다. 그러나 성적 산출 예시에서 제시된 점수들은 실제 데이터와 일치하지 않으며, 이로 인해 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 성적 산출 예시와 관련된 내용이 원본 텍스트에 명시된 정보와 일관되지 않습니다. 특히, 성적 산출 예시에서 제시된 점수들이 원본 텍스트에 포함된 정보와는 다릅니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 화학환경공학부의 입시 정보와 관련된 질문에 대한 답변을 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 성적 산출 예시 부분에서 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 3.92라는 성적이 경쟁력이 있을 것이라는 주장을 하고 있지만, 성적 산출 예시에서 제시된 점수들이 실제 데이터와 일치하지 않아 정확성에 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성, 유창성, 일관성 등에서 좋은 점수를 받았습니다. 그러나 정확성과 일관성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 성적 산출 예시 부분에서 약간의 부적절함이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 성적 산출 예시 부분에서 약간의 혼란이 있을 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.7384704280906614</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92라는 성적이 화학환경공학부에서 일반 학생 전형에 충분히 경쟁력이 있을 것으로 보입니다. 하지만 정확한 입시 결과는 해당 대학의 최종 합격 기준과 비교해야 합니다.
+화학환경공학부의 경우, 국어, 수학, 영어, 탐구 등 4개 영역을 반영하며, 각 영역별로 표준점수를 산출합니다. 성적 산출 예시에서 국어 104, 수학(미적분) 108, 영어 4등급, 과탐(물리Ⅰ) 47, 과탐(화학Ⅰ) 59로 가정했을 때, 이 점수들을 반영해보겠습니다.
+3.92라는 성적은 대략적으로 국어, 수학, 영어, 탐구 등에서 좋은 성적을 받았음을 의미합니다. 화학환경공학부의 경우, 수학과 과학 탐구가 중요하므로, 이 점수들이 충분히 높다면 가능성이 있습니다.
+하지만 최종 결정은 동의대학교의 정시 모집 기준에 따라야 합니다. 동의대학교의 공식 입시 안내 사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 대학 입학처와 직접 문의해보는 것이 가장 정확한 정보를 얻을 수 있는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주요 사실과 상충합니다. 원본에서는 4.25라는 점수가 합격 가능성이 높다고 판단되었으나, 생성된 응답에서는 합격하기 어렵다고 주장하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서 제시된 데이터와 결론이 서로 상반되며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본의 결론과는 다르게 해석하고 있습니다. 경쟁률, 성적 평균 등 추가 정보를 제공하여 관련성을 높이고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본과의 결론 차이로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본에서 4.25가 합격 가능성이 높다고 했으나, 생성된 응답은 이를 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성과 일관성에서 낮은 점수를 받았습니다. 관련성은 높지만, 전반적인 품질은 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본의 의미와 다소 다르게 해석하고 있으며, 이는 의미적 적절성에 영향을 미칩니다. 그러나 일부 정보는 적절하게 전달되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 원본과의 차이로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6052396842715979</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>4.25라는 점수를 가지고 동의대학교 화학환경공학부에 정시로 합격하는 것은 어렵다고 판단됩니다.
+이유는 다음과 같습니다:
+1. **모집단위별 경쟁률**: 제공된 정보에서 여러 모집단위들의 경쟁률을 확인할 수 있습니다. 예를 들어, 전기공학과와 전자공학과의 경우 1.52라는 경쟁률을 가지고 있으며, 이는 상대적으로 낮은 경쟁률입니다. 반면에, 디지털콘텐츠학과나 게임공학과 같은 모집단위에서는 높은 경쟁률(4.40, 5.33)를 보이고 있습니다.
+2. **성적 평균**: 제공된 정보에서 각 모집단위의 성적 평균을 확인할 수 있습니다. 예를 들어, 인공지능학과에서는 표준 변환 점수 합의 평균이 293.11이고, 전기공학과와 전자공학과에서는 286.64입니다. 이들 성적 평균은 대체로 280-300 사이를 유지하고 있습니다.
+3. **성적 분포**: 제공된 정보에서 표준 변환 점수 합의 표준 편차를 확인할 수 있습니다. 예를 들어, 인공지능학과에서는 14.35라는 표준 편차를 가지고 있으며, 이는 성적이 상대적으로 분산되어 있다는 것을 의미합니다.
+이러한 정보들을 종합하면, 4.25라는 점수로는 동의대학교 화학환경공학부에 합격하기 어렵다고 판단됩니다. 더 높은 성적을 보유하고 있는 지원자들이 많기 때문입니다.
+만약에 4.25라는 점수가 실제 성적이 아니라 예상 성적이라면, 실제 성적이 더 높아질 수 있도록 노력하는 것이 좋습니다. 또한, 다른 모집단위들(예: 경쟁률이 낮은 모집단위)을 고려해 볼 수도 있습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do"로 접속하여 확인하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 영화학과의 평균 성적 및 경쟁률에 대한 정보를 포함하고 있으며, 4.2라는 점수가 합격 가능성이 있다는 점을 언급하고 있습니다. 그러나 일부 세부사항(모집 인원, 지원 인원 등)은 원본 텍스트에 명시되어 있지 않으므로, 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가적인 세부사항(모집 인원, 지원 인원 등)을 포함하고 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 정보와 충돌하지는 않지만, 추가된 정보가 원본에 명시된 내용과 일치하지 않기 때문에 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 영화학과의 합격 가능성에 대한 분석을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하여 합격 가능성을 분석하고 있으나, 일부 추가 정보가 원본에 명시되어 있지 않아 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성 등 여러 차원에서 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 합격 가능성에 대한 분석이 적절하게 이루어졌습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6136795524754707</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 현재 제공된 데이터를 바탕으로 분석해보겠습니다.
+영화학과의 경우, 모집 인원이 5명이고 지원 인원이 11명이며 경쟁률은 2.20입니다. 충원 합격 (후보순위)은 6명이며, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 286.77이고, 표준 편차는 17.29입니다.
+4.2라는 점수를 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합으로 환산하면, 평균보다 약간 낮은 점수가 나옵니다. 하지만 표준 편차가 17.29이므로, 이 정도의 차이는 충분히 경쟁력을 갖추고 있을 수 있습니다.
+영화학과는 경쟁률이 2.20이고, 충원 합격은 6명입니다. 따라서 지원 인원 중 상위 6명이 충원 합격을 받게 됩니다. 현재 제공된 평균 점수와 표준 편차를 고려하면, 4.2라는 점수는 충분히 경쟁력을 갖추고 있을 것으로 보입니다.
+하지만 정확한 합격 여부는 최종 등록자들의 성적과 후보순위에 따라 결정되므로, 최종 결과를 확인하기 위해서는 대학의 공식 발표나 입학처와의 상담을 통해 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차를 정확하게 나열하고 있으며, 추가적으로 면접 진행 방식에 대한 정보를 제공하고 있습니다. 그러나 원본 텍스트에 포함되지 않은 정보가 추가되어 있어 완벽한 일치를 이루지 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일치하지만, 추가된 정보가 원본의 내용과 충돌하지 않기 때문에 일관성이 높습니다. 다만, 원본에 없는 정보가 포함되어 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 절차와 관련된 정보가 잘 연결되어 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 원본에 포함되지 않아 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 높은 점수를 기록하고 있으며, 특히 관련성과 유창성이 뛰어납니다. 그러나 일부 정보의 추가로 인해 완전한 일치는 이루어지지 않았습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 약간 변경할 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 따라서 이해 가능성이 매우 높습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.8594166559626767</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+① 대기실 입실
+② 신분 확인
+③ 고사장 앞 이동
+④ 고사장 입실
+⑤ 지원동기 및 학업계획 발표
+⑥ 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+⑦ 기타 질의응답(제출서류 진위 여부 등)
+⑧ 퇴실
+이 절차를 따르며, 면접은 입학사정관 2인이 평가위원으로 참여하여 수험생을 대상으로 개별적으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
